--- a/AfDD_2023_Annex_Table_Tab07.xlsx
+++ b/AfDD_2023_Annex_Table_Tab07.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab07" sheetId="1" r:id="rId1"/>

--- a/AfDD_2023_Annex_Table_Tab07.xlsx
+++ b/AfDD_2023_Annex_Table_Tab07.xlsx
@@ -1,29 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07A2F306-615A-49B7-86B3-5D73DE9AC73D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EF9BE105-A022-4538-A8FB-3DAE68C55F4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab07" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab07'!$A$2:$K$99</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab07'!$A$1:$H$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab07'!$A$2:$K$98</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab07'!$A$1:$H$98</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="173">
   <si>
     <t>Table 7: Projected education profiles</t>
   </si>
@@ -325,7 +337,7 @@
     <t>CPV</t>
   </si>
   <si>
-    <t>Cabo Verde</t>
+    <t>Cabo Verde*</t>
   </si>
   <si>
     <t>CIV</t>
@@ -514,7 +526,7 @@
     <t>ROW, Fragile States</t>
   </si>
   <si>
-    <t>Extremely Fragile States</t>
+    <t>Disclaimer: This table and any data included herein is without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
   </si>
   <si>
     <t>Note: *Resource-rich countries; ".." indicates data not available or not applicable.</t>
@@ -524,9 +536,6 @@
   </si>
   <si>
     <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
-  </si>
-  <si>
-    <t>Disclaimer: This table and any data included herein is without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
   </si>
   <si>
     <t>Source: Wittgenstein Centre Human Capital Data Explorer, 2018.</t>
@@ -550,7 +559,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
@@ -863,21 +872,20 @@
   </cellStyleXfs>
   <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="37" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -910,10 +918,7 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -922,7 +927,7 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -934,7 +939,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="12" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -943,7 +948,7 @@
     <xf numFmtId="165" fontId="12" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -952,7 +957,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -964,7 +969,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -973,7 +978,7 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -982,7 +987,7 @@
     <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -991,19 +996,27 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
@@ -1042,7 +1055,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -1054,7 +1067,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -1101,6 +1114,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1136,6 +1166,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1287,23 +1334,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1742BC-F163-423F-A351-39D57A9647BD}">
+  <sheetPr codeName="Sheet25">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K114"/>
+  <dimension ref="A1:K113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="48" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" style="49" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="11" width="13.26953125" style="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1318,3480 +1364,3459 @@
       <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="12">
         <v>52.478486634309498</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <v>40.1388833955804</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="13">
         <v>7.3826299701101297</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="12">
         <v>36.570079377839697</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="12">
         <v>47.827083742727702</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="13">
         <v>15.6028368794326</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="12">
         <v>19.008225394724398</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="12">
         <v>19.654281302196601</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="13">
         <v>61.337493303079</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="15">
         <v>13.138817326703</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <v>42.3761308489605</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="16">
         <v>44.485051824336502</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="15">
         <v>4.27895316923476</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="15">
         <v>33.691353489075702</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="16">
         <v>62.029693341689601</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="15">
         <v>4.3457600760292001</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="15">
         <v>24.2429478595188</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="16">
         <v>71.411292064451999</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="18">
         <v>17.369863013698598</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="18">
         <v>39.956164383561699</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="19">
         <v>42.673972602739703</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="18">
         <v>5.5311814478220001</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="18">
         <v>31.792541523033499</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="19">
         <v>62.676277029144501</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="18">
         <v>5.3686471009305698</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="18">
         <v>20.194066650759599</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="19">
         <v>74.437286248309903</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="18">
         <v>32.030989113738102</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="18">
         <v>47.144860749348801</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="19">
         <v>20.824150136913101</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="18">
         <v>14.620192817035701</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="18">
         <v>48.781650598580399</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="19">
         <v>36.598156584384</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="18">
         <v>10.5429767142397</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="18">
         <v>24.444682905891199</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="19">
         <v>65.012340379869102</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="18">
         <v>40.069677374736301</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="18">
         <v>43.897610567447003</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="19">
         <v>16.032712057816699</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="18">
         <v>22.8170673444871</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="18">
         <v>48.983037482664102</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="19">
         <v>28.199895172848802</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="18">
         <v>12.397976524133499</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="18">
         <v>22.4454109754356</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="19">
         <v>65.156612500430995</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="18">
         <v>66.231881649856902</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="18">
         <v>24.8913037457976</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="19">
         <v>8.8768146043456397</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="18">
         <v>45.562694685350102</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="18">
         <v>36.650627635155303</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="19">
         <v>17.786677679494701</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="18">
         <v>20.502453439065299</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="18">
         <v>15.823406794819</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="19">
         <v>63.674139766115701</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="18">
         <v>24.320715281003299</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="18">
         <v>44.664421737110999</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="19">
         <v>31.014862981885699</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="18">
         <v>10.133333333333301</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="18">
         <v>41.858937198067601</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="19">
         <v>48.007729468599102</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="18">
         <v>8.6408035749594703</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="18">
         <v>23.5219678095464</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="19">
         <v>67.837228615494197</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="18">
         <v>12.089549047418799</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="18">
         <v>38.917438211109797</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="19">
         <v>48.993012741471397</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="18">
         <v>4.4676526499671603</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="18">
         <v>29.371264152876002</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="19">
         <v>66.161083197156898</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="18">
         <v>4.2655721819294001</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10" s="18">
         <v>21.938457681939699</v>
       </c>
-      <c r="K10" s="21">
+      <c r="K10" s="19">
         <v>73.795970136130904</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="15">
         <v>28.311890690028701</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="15">
         <v>46.523251173485903</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="16">
         <v>25.1648581364854</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="15">
         <v>14.321840845683299</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="15">
         <v>47.1007704318002</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="16">
         <v>38.577388722516602</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="15">
         <v>8.9173449983030508</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="15">
         <v>21.814714454255</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="16">
         <v>69.267940547441896</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="21">
         <v>10.4441023886894</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="21">
         <v>31.9993158884898</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="22">
         <v>57.556581722820802</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="21">
         <v>3.1451284629935601</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="21">
         <v>21.437636185140001</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="22">
         <v>75.417235351866495</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="21">
         <v>3.0968259661622799</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="21">
         <v>15.5832233982406</v>
       </c>
-      <c r="K12" s="24">
+      <c r="K12" s="22">
         <v>81.319950635597095</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="25">
         <v>31.2438823414053</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D13" s="25">
         <v>37.731825930787302</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="26">
         <v>31.024291727807402</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F13" s="25">
         <v>20.5778809762039</v>
       </c>
-      <c r="G13" s="27">
+      <c r="G13" s="25">
         <v>37.886414060120899</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="26">
         <v>41.535704963675101</v>
       </c>
-      <c r="I13" s="27">
+      <c r="I13" s="25">
         <v>11.022371042677699</v>
       </c>
-      <c r="J13" s="27">
+      <c r="J13" s="25">
         <v>20.043649169518901</v>
       </c>
-      <c r="K13" s="28">
+      <c r="K13" s="26">
         <v>68.933979787803395</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="18">
         <v>55.230905447597699</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="18">
         <v>38.0896904173851</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="19">
         <v>6.6794041350171698</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="18">
         <v>31.926288617176699</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="18">
         <v>53.534453457288002</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="19">
         <v>14.539257925535299</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="18">
         <v>18.2281787072606</v>
       </c>
-      <c r="J14" s="20">
+      <c r="J14" s="18">
         <v>20.8580770000667</v>
       </c>
-      <c r="K14" s="21">
+      <c r="K14" s="19">
         <v>60.913744292672703</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="18">
         <v>21.988739725663599</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="18">
         <v>56.719648381999498</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="19">
         <v>21.291611892336899</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="18">
         <v>9.3392777316559208</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15" s="18">
         <v>55.1771345552079</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="19">
         <v>35.483587713136203</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="18">
         <v>7.2266749508128898</v>
       </c>
-      <c r="J15" s="20">
+      <c r="J15" s="18">
         <v>25.279900590245401</v>
       </c>
-      <c r="K15" s="21">
+      <c r="K15" s="19">
         <v>67.493424458941703</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="18">
         <v>37.679871483747498</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="18">
         <v>52.322521106060101</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="19">
         <v>9.9976074101924404</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="18">
         <v>15.315801303663701</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="18">
         <v>65.803551359856201</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="19">
         <v>18.880647336480099</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16" s="18">
         <v>11.4484263453739</v>
       </c>
-      <c r="J16" s="20">
+      <c r="J16" s="18">
         <v>23.8004885800346</v>
       </c>
-      <c r="K16" s="21">
+      <c r="K16" s="19">
         <v>64.751085074591501</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="12">
         <v>66.859371258509199</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="12">
         <v>25.715230504338699</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="13">
         <v>7.4253982371520797</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="12">
         <v>44.805669783080397</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="12">
         <v>39.3780695445856</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="13">
         <v>15.816260672334</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="12">
         <v>21.264102780610401</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="12">
         <v>16.2458836443469</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="13">
         <v>62.490013575042703</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="12">
         <v>15.6794737628943</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="12">
         <v>63.991628046045797</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="13">
         <v>20.328898191059999</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="12">
         <v>5.5264770240700196</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="12">
         <v>60.372866520787802</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="13">
         <v>34.1006564551422</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="12">
         <v>5.0873913280214902</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="12">
         <v>29.500698767627998</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K18" s="13">
         <v>65.411909904350495</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="15">
         <v>31.6832357347133</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="15">
         <v>45.8243059768322</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="16">
         <v>22.4924582884545</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="15">
         <v>14.0429157678576</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="15">
         <v>49.164534693387203</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="16">
         <v>36.792549538755303</v>
       </c>
-      <c r="I19" s="16">
+      <c r="I19" s="15">
         <v>9.4808544514953397</v>
       </c>
-      <c r="J19" s="16">
+      <c r="J19" s="15">
         <v>22.638731023565501</v>
       </c>
-      <c r="K19" s="17">
+      <c r="K19" s="16">
         <v>67.880414524939198</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="12">
         <v>15.629123185798299</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="12">
         <v>65.611131102314999</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="13">
         <v>18.759745711886801</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="12">
         <v>6.2700262161374898</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="12">
         <v>63.916399650451503</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="13">
         <v>29.813574133410999</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="12">
         <v>5.4761364495877798</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="12">
         <v>30.6406474548068</v>
       </c>
-      <c r="K20" s="14">
+      <c r="K20" s="13">
         <v>63.883216095605498</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="12">
         <v>16.346704871060201</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="12">
         <v>59.247851002865403</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="13">
         <v>24.405444126074499</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="12">
         <v>6.7274065893613102</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="12">
         <v>52.857537272225301</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="13">
         <v>40.415056138413398</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I21" s="12">
         <v>6.1101710847903803</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J21" s="12">
         <v>29.338221470201201</v>
       </c>
-      <c r="K21" s="14">
+      <c r="K21" s="13">
         <v>64.5516074450085</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="18">
         <v>39.671361502347402</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="18">
         <v>51.408450704225402</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="19">
         <v>8.92018779342723</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F22" s="18">
         <v>19.533231861998999</v>
       </c>
-      <c r="G22" s="20">
+      <c r="G22" s="18">
         <v>64.2820903094876</v>
       </c>
-      <c r="H22" s="21">
+      <c r="H22" s="19">
         <v>16.184677828513401</v>
       </c>
-      <c r="I22" s="20">
+      <c r="I22" s="18">
         <v>14.861329147043399</v>
       </c>
-      <c r="J22" s="20">
+      <c r="J22" s="18">
         <v>25.798011512297201</v>
       </c>
-      <c r="K22" s="21">
+      <c r="K22" s="19">
         <v>59.3406593406594</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="27">
+      <c r="C23" s="25">
         <v>34.479841668297802</v>
       </c>
-      <c r="D23" s="27">
+      <c r="D23" s="25">
         <v>46.438738611896198</v>
       </c>
-      <c r="E23" s="28">
+      <c r="E23" s="26">
         <v>19.081419719806</v>
       </c>
-      <c r="F23" s="27">
+      <c r="F23" s="25">
         <v>17.287199279245701</v>
       </c>
-      <c r="G23" s="27">
+      <c r="G23" s="25">
         <v>50.492776835886197</v>
       </c>
-      <c r="H23" s="28">
+      <c r="H23" s="26">
         <v>32.220023884868098</v>
       </c>
-      <c r="I23" s="27">
+      <c r="I23" s="25">
         <v>10.7542125217121</v>
       </c>
-      <c r="J23" s="27">
+      <c r="J23" s="25">
         <v>22.737206101395898</v>
       </c>
-      <c r="K23" s="28">
+      <c r="K23" s="26">
         <v>66.508581376892096</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="18">
         <v>32.794283565250097</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="18">
         <v>39.902218879277903</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="19">
         <v>27.303497555471999</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F24" s="18">
         <v>15.9750058948361</v>
       </c>
-      <c r="G24" s="20">
+      <c r="G24" s="18">
         <v>37.892006602216497</v>
       </c>
-      <c r="H24" s="21">
+      <c r="H24" s="19">
         <v>46.132987502947401</v>
       </c>
-      <c r="I24" s="20">
+      <c r="I24" s="18">
         <v>12.404510731175</v>
       </c>
-      <c r="J24" s="20">
+      <c r="J24" s="18">
         <v>19.206984357948301</v>
       </c>
-      <c r="K24" s="21">
+      <c r="K24" s="19">
         <v>68.388504910876705</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="18">
         <v>61.167760860455402</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="18">
         <v>21.3856683894399</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="19">
         <v>17.446570750104801</v>
       </c>
-      <c r="F25" s="20">
+      <c r="F25" s="18">
         <v>40.781476121563003</v>
       </c>
-      <c r="G25" s="20">
+      <c r="G25" s="18">
         <v>28.4804630969609</v>
       </c>
-      <c r="H25" s="21">
+      <c r="H25" s="19">
         <v>30.738060781476101</v>
       </c>
-      <c r="I25" s="20">
+      <c r="I25" s="18">
         <v>25.726428147855302</v>
       </c>
-      <c r="J25" s="20">
+      <c r="J25" s="18">
         <v>14.6866969756869</v>
       </c>
-      <c r="K25" s="21">
+      <c r="K25" s="19">
         <v>59.586874876457799</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="18">
         <v>60.666542888971399</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="18">
         <v>22.7905681396212</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="19">
         <v>16.5428889714074</v>
       </c>
-      <c r="F26" s="20">
+      <c r="F26" s="18">
         <v>39.1021371343749</v>
       </c>
-      <c r="G26" s="20">
+      <c r="G26" s="18">
         <v>30.599273031761999</v>
       </c>
-      <c r="H26" s="21">
+      <c r="H26" s="19">
         <v>30.298589833863002</v>
       </c>
-      <c r="I26" s="20">
+      <c r="I26" s="18">
         <v>21.527722693741602</v>
       </c>
-      <c r="J26" s="20">
+      <c r="J26" s="18">
         <v>14.1508685650829</v>
       </c>
-      <c r="K26" s="21">
+      <c r="K26" s="19">
         <v>64.321408741175603</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="18">
         <v>65.950588269428906</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="18">
         <v>23.439236337787101</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="19">
         <v>10.6101753927841</v>
       </c>
-      <c r="F27" s="20">
+      <c r="F27" s="18">
         <v>47.344456048647601</v>
       </c>
-      <c r="G27" s="20">
+      <c r="G27" s="18">
         <v>32.144335503492499</v>
       </c>
-      <c r="H27" s="21">
+      <c r="H27" s="19">
         <v>20.5112084478599</v>
       </c>
-      <c r="I27" s="20">
+      <c r="I27" s="18">
         <v>24.448467984622901</v>
       </c>
-      <c r="J27" s="20">
+      <c r="J27" s="18">
         <v>13.6878430152854</v>
       </c>
-      <c r="K27" s="21">
+      <c r="K27" s="19">
         <v>61.863689000091703</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C28" s="18">
         <v>19.4856081623013</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="18">
         <v>47.490840721332503</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="19">
         <v>33.0235511163662</v>
       </c>
-      <c r="F28" s="20">
+      <c r="F28" s="18">
         <v>7.6768917124112503</v>
       </c>
-      <c r="G28" s="20">
+      <c r="G28" s="18">
         <v>42.437978359608003</v>
       </c>
-      <c r="H28" s="21">
+      <c r="H28" s="19">
         <v>49.885129927980799</v>
       </c>
-      <c r="I28" s="20">
+      <c r="I28" s="18">
         <v>6.5255348237946196</v>
       </c>
-      <c r="J28" s="20">
+      <c r="J28" s="18">
         <v>23.704598350002701</v>
       </c>
-      <c r="K28" s="21">
+      <c r="K28" s="19">
         <v>69.769866826202701</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C29" s="18">
         <v>53.178988725451802</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D29" s="18">
         <v>39.126478616924501</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="19">
         <v>7.6945326576237303</v>
       </c>
-      <c r="F29" s="20">
+      <c r="F29" s="18">
         <v>35.1631025347831</v>
       </c>
-      <c r="G29" s="20">
+      <c r="G29" s="18">
         <v>50.492539115489201</v>
       </c>
-      <c r="H29" s="21">
+      <c r="H29" s="19">
         <v>14.344358349727599</v>
       </c>
-      <c r="I29" s="20">
+      <c r="I29" s="18">
         <v>19.766883861824901</v>
       </c>
-      <c r="J29" s="20">
+      <c r="J29" s="18">
         <v>21.8502328162139</v>
       </c>
-      <c r="K29" s="21">
+      <c r="K29" s="19">
         <v>58.382883321961202</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C30" s="18">
         <v>20.894090560245601</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D30" s="18">
         <v>39.533768227168103</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="19">
         <v>39.572141212586402</v>
       </c>
-      <c r="F30" s="20">
+      <c r="F30" s="18">
         <v>12.6742461690559</v>
       </c>
-      <c r="G30" s="20">
+      <c r="G30" s="18">
         <v>35.442412259021303</v>
       </c>
-      <c r="H30" s="21">
+      <c r="H30" s="19">
         <v>51.883341571922898</v>
       </c>
-      <c r="I30" s="20">
+      <c r="I30" s="18">
         <v>12.0718259002635</v>
       </c>
-      <c r="J30" s="20">
+      <c r="J30" s="18">
         <v>27.198204352493399</v>
       </c>
-      <c r="K30" s="21">
+      <c r="K30" s="19">
         <v>60.729969747243103</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="18">
         <v>60.912753021242501</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="18">
         <v>28.395926639477601</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" s="19">
         <v>10.691320339279899</v>
       </c>
-      <c r="F31" s="20">
+      <c r="F31" s="18">
         <v>41.967143646283397</v>
       </c>
-      <c r="G31" s="20">
+      <c r="G31" s="18">
         <v>37.432936564990101</v>
       </c>
-      <c r="H31" s="21">
+      <c r="H31" s="19">
         <v>20.599919788726499</v>
       </c>
-      <c r="I31" s="20">
+      <c r="I31" s="18">
         <v>23.656345385317401</v>
       </c>
-      <c r="J31" s="20">
+      <c r="J31" s="18">
         <v>16.583278265521301</v>
       </c>
-      <c r="K31" s="21">
+      <c r="K31" s="19">
         <v>59.760376349161398</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="18">
         <v>9.4979647218453191</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D32" s="18">
         <v>39.213025780190002</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="19">
         <v>51.289009497964699</v>
       </c>
-      <c r="F32" s="20">
+      <c r="F32" s="18">
         <v>4.1147132169576102</v>
       </c>
-      <c r="G32" s="20">
+      <c r="G32" s="18">
         <v>29.925187032419</v>
       </c>
-      <c r="H32" s="21">
+      <c r="H32" s="19">
         <v>65.960099750623499</v>
       </c>
-      <c r="I32" s="20">
+      <c r="I32" s="18">
         <v>3.9603960396039599</v>
       </c>
-      <c r="J32" s="20">
+      <c r="J32" s="18">
         <v>25.866336633663401</v>
       </c>
-      <c r="K32" s="21">
+      <c r="K32" s="19">
         <v>70.173267326732699</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C33" s="18">
         <v>64.087963648373204</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D33" s="18">
         <v>24.343746085253201</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33" s="19">
         <v>11.5682902663736</v>
       </c>
-      <c r="F33" s="20">
+      <c r="F33" s="18">
         <v>42.312480739599401</v>
       </c>
-      <c r="G33" s="20">
+      <c r="G33" s="18">
         <v>36.416640986132499</v>
       </c>
-      <c r="H33" s="21">
+      <c r="H33" s="19">
         <v>21.2708782742681</v>
       </c>
-      <c r="I33" s="20">
+      <c r="I33" s="18">
         <v>18.3649801470299</v>
       </c>
-      <c r="J33" s="20">
+      <c r="J33" s="18">
         <v>15.8207859941555</v>
       </c>
-      <c r="K33" s="21">
+      <c r="K33" s="19">
         <v>65.814233858814603</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="15">
         <v>62.909130319597303</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="15">
         <v>13.2318585775872</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="16">
         <v>23.859011102815401</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F34" s="15">
         <v>43.158680035243698</v>
       </c>
-      <c r="G34" s="16">
+      <c r="G34" s="15">
         <v>14.642193338435501</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H34" s="16">
         <v>42.199126626320798</v>
       </c>
-      <c r="I34" s="16">
+      <c r="I34" s="15">
         <v>21.017506724280899</v>
       </c>
-      <c r="J34" s="16">
+      <c r="J34" s="15">
         <v>3.3928126032236099</v>
       </c>
-      <c r="K34" s="17">
+      <c r="K34" s="16">
         <v>75.589680672495504</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="20">
+      <c r="C35" s="18">
         <v>50.897011246341101</v>
       </c>
-      <c r="D35" s="20">
+      <c r="D35" s="18">
         <v>21.192035125558501</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E35" s="19">
         <v>27.910953628100501</v>
       </c>
-      <c r="F35" s="20">
+      <c r="F35" s="18">
         <v>24.548179160183601</v>
       </c>
-      <c r="G35" s="20">
+      <c r="G35" s="18">
         <v>25.404312174675599</v>
       </c>
-      <c r="H35" s="21">
+      <c r="H35" s="19">
         <v>50.047508665140903</v>
       </c>
-      <c r="I35" s="20">
+      <c r="I35" s="18">
         <v>18.284092051050099</v>
       </c>
-      <c r="J35" s="20">
+      <c r="J35" s="18">
         <v>14.104612601748601</v>
       </c>
-      <c r="K35" s="21">
+      <c r="K35" s="19">
         <v>67.611295347201306</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="20">
+      <c r="C36" s="18">
         <v>21.471669384299801</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D36" s="18">
         <v>70.818869275215803</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36" s="19">
         <v>7.7094613404843999</v>
       </c>
-      <c r="F36" s="20">
+      <c r="F36" s="18">
         <v>8.4672273605658805</v>
       </c>
-      <c r="G36" s="20">
+      <c r="G36" s="18">
         <v>75.455006745342104</v>
       </c>
-      <c r="H36" s="21">
+      <c r="H36" s="19">
         <v>16.077765894092099</v>
       </c>
-      <c r="I36" s="20">
+      <c r="I36" s="18">
         <v>6.5408835380124</v>
       </c>
-      <c r="J36" s="20">
+      <c r="J36" s="18">
         <v>32.569627073933802</v>
       </c>
-      <c r="K36" s="21">
+      <c r="K36" s="19">
         <v>60.889489388053804</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="20">
+      <c r="C37" s="18">
         <v>40.363160178157102</v>
       </c>
-      <c r="D37" s="20">
+      <c r="D37" s="18">
         <v>48.694669219348903</v>
       </c>
-      <c r="E37" s="21">
+      <c r="E37" s="19">
         <v>10.942170602494</v>
       </c>
-      <c r="F37" s="20">
+      <c r="F37" s="18">
         <v>22.193325977925699</v>
       </c>
-      <c r="G37" s="20">
+      <c r="G37" s="18">
         <v>57.193750328366399</v>
       </c>
-      <c r="H37" s="21">
+      <c r="H37" s="19">
         <v>20.612923693707899</v>
       </c>
-      <c r="I37" s="20">
+      <c r="I37" s="18">
         <v>11.7501546072975</v>
       </c>
-      <c r="J37" s="20">
+      <c r="J37" s="18">
         <v>21.838118591365301</v>
       </c>
-      <c r="K37" s="21">
+      <c r="K37" s="19">
         <v>66.411726801337196</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="27">
+      <c r="C38" s="25">
         <v>46.8200198686948</v>
       </c>
-      <c r="D38" s="27">
+      <c r="D38" s="25">
         <v>37.367565961535703</v>
       </c>
-      <c r="E38" s="28">
+      <c r="E38" s="26">
         <v>15.8124141697695</v>
       </c>
-      <c r="F38" s="27">
+      <c r="F38" s="25">
         <v>28.740475050754402</v>
       </c>
-      <c r="G38" s="27">
+      <c r="G38" s="25">
         <v>43.809729694753102</v>
       </c>
-      <c r="H38" s="28">
+      <c r="H38" s="26">
         <v>27.4497952544925</v>
       </c>
-      <c r="I38" s="27">
+      <c r="I38" s="25">
         <v>16.134050504445</v>
       </c>
-      <c r="J38" s="27">
+      <c r="J38" s="25">
         <v>19.523397113264</v>
       </c>
-      <c r="K38" s="28">
+      <c r="K38" s="26">
         <v>64.342552382291004</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="12">
         <v>16.818978467701498</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D39" s="12">
         <v>35.636349260733198</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E39" s="13">
         <v>47.544672271565297</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="12">
         <v>6.5829311794408296</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G39" s="12">
         <v>27.079658059844402</v>
       </c>
-      <c r="H39" s="14">
+      <c r="H39" s="13">
         <v>66.337410760714803</v>
       </c>
-      <c r="I39" s="13">
+      <c r="I39" s="12">
         <v>7.0522176373325296</v>
       </c>
-      <c r="J39" s="13">
+      <c r="J39" s="12">
         <v>23.676375749758801</v>
       </c>
-      <c r="K39" s="14">
+      <c r="K39" s="13">
         <v>69.271406612908706</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="20">
+      <c r="C40" s="18">
         <v>25.473552115270898</v>
       </c>
-      <c r="D40" s="20">
+      <c r="D40" s="18">
         <v>15.538863882076701</v>
       </c>
-      <c r="E40" s="21">
+      <c r="E40" s="19">
         <v>58.987584002652298</v>
       </c>
-      <c r="F40" s="20">
+      <c r="F40" s="18">
         <v>10.6839031727768</v>
       </c>
-      <c r="G40" s="20">
+      <c r="G40" s="18">
         <v>12.5163748657602</v>
       </c>
-      <c r="H40" s="21">
+      <c r="H40" s="19">
         <v>76.799721961463007</v>
       </c>
-      <c r="I40" s="20">
+      <c r="I40" s="18">
         <v>10.9831039627166</v>
       </c>
-      <c r="J40" s="20">
+      <c r="J40" s="18">
         <v>11.0898465172976</v>
       </c>
-      <c r="K40" s="21">
+      <c r="K40" s="19">
         <v>77.9270495199858</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="13">
+      <c r="C41" s="12">
         <v>25.550751918581799</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D41" s="12">
         <v>34.1579959870095</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E41" s="13">
         <v>40.291252094408698</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F41" s="12">
         <v>13.158268051636901</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G41" s="12">
         <v>28.920448276405601</v>
       </c>
-      <c r="H41" s="14">
+      <c r="H41" s="13">
         <v>57.921283671957497</v>
       </c>
-      <c r="I41" s="13">
+      <c r="I41" s="12">
         <v>13.061757944131299</v>
       </c>
-      <c r="J41" s="13">
+      <c r="J41" s="12">
         <v>21.517651875413399</v>
       </c>
-      <c r="K41" s="14">
+      <c r="K41" s="13">
         <v>65.420590180455406</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C42" s="12">
         <v>53.758328706274298</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D42" s="12">
         <v>33.498750694058899</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E42" s="13">
         <v>12.742920599666901</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F42" s="12">
         <v>36.0151302647796</v>
       </c>
-      <c r="G42" s="13">
+      <c r="G42" s="12">
         <v>41.835607123124703</v>
       </c>
-      <c r="H42" s="14">
+      <c r="H42" s="13">
         <v>22.149262612095701</v>
       </c>
-      <c r="I42" s="13">
+      <c r="I42" s="12">
         <v>19.8241817086504</v>
       </c>
-      <c r="J42" s="13">
+      <c r="J42" s="12">
         <v>17.778174434949499</v>
       </c>
-      <c r="K42" s="14">
+      <c r="K42" s="13">
         <v>62.397643856400201</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="20">
+      <c r="C43" s="18">
         <v>41.452523068264298</v>
       </c>
-      <c r="D43" s="20">
+      <c r="D43" s="18">
         <v>33.904424070974699</v>
       </c>
-      <c r="E43" s="21">
+      <c r="E43" s="19">
         <v>24.643052860760999</v>
       </c>
-      <c r="F43" s="20">
+      <c r="F43" s="18">
         <v>22.390863460422501</v>
       </c>
-      <c r="G43" s="20">
+      <c r="G43" s="18">
         <v>34.419962549281202</v>
       </c>
-      <c r="H43" s="21">
+      <c r="H43" s="19">
         <v>43.189173990296297</v>
       </c>
-      <c r="I43" s="20">
+      <c r="I43" s="18">
         <v>22.112507212192401</v>
       </c>
-      <c r="J43" s="20">
+      <c r="J43" s="18">
         <v>21.7382205839709</v>
       </c>
-      <c r="K43" s="21">
+      <c r="K43" s="19">
         <v>56.149272203836802</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B44" s="19" t="s">
+      <c r="B44" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="20">
+      <c r="C44" s="18">
         <v>17.054125998225398</v>
       </c>
-      <c r="D44" s="20">
+      <c r="D44" s="18">
         <v>50.695430346051502</v>
       </c>
-      <c r="E44" s="21">
+      <c r="E44" s="19">
         <v>32.250443655723203</v>
       </c>
-      <c r="F44" s="20">
+      <c r="F44" s="18">
         <v>7.0430744180882998</v>
       </c>
-      <c r="G44" s="20">
+      <c r="G44" s="18">
         <v>41.139954853273103</v>
       </c>
-      <c r="H44" s="21">
+      <c r="H44" s="19">
         <v>51.816970728638601</v>
       </c>
-      <c r="I44" s="20">
+      <c r="I44" s="18">
         <v>7.4580702174273297</v>
       </c>
-      <c r="J44" s="20">
+      <c r="J44" s="18">
         <v>33.966345711287502</v>
       </c>
-      <c r="K44" s="21">
+      <c r="K44" s="19">
         <v>58.575584071285199</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="26" t="s">
+      <c r="B45" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="27">
+      <c r="C45" s="25">
         <v>26.6971386973207</v>
       </c>
-      <c r="D45" s="27">
+      <c r="D45" s="25">
         <v>26.491837473947999</v>
       </c>
-      <c r="E45" s="28">
+      <c r="E45" s="26">
         <v>46.811023828731301</v>
       </c>
-      <c r="F45" s="27">
+      <c r="F45" s="25">
         <v>12.310713121512499</v>
       </c>
-      <c r="G45" s="27">
+      <c r="G45" s="25">
         <v>22.144925313033301</v>
       </c>
-      <c r="H45" s="28">
+      <c r="H45" s="26">
         <v>65.544361565454196</v>
       </c>
-      <c r="I45" s="27">
+      <c r="I45" s="25">
         <v>12.1311935304117</v>
       </c>
-      <c r="J45" s="27">
+      <c r="J45" s="25">
         <v>17.324268646733</v>
       </c>
-      <c r="K45" s="28">
+      <c r="K45" s="26">
         <v>70.544537822855403</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B46" s="19" t="s">
+      <c r="B46" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="C46" s="20">
+      <c r="C46" s="18">
         <v>55.124071417411201</v>
       </c>
-      <c r="D46" s="20">
+      <c r="D46" s="18">
         <v>34.093717597261502</v>
       </c>
-      <c r="E46" s="21">
+      <c r="E46" s="19">
         <v>10.7822109853273</v>
       </c>
-      <c r="F46" s="20">
+      <c r="F46" s="18">
         <v>43.677363399826497</v>
       </c>
-      <c r="G46" s="20">
+      <c r="G46" s="18">
         <v>37.301449634493899</v>
       </c>
-      <c r="H46" s="21">
+      <c r="H46" s="19">
         <v>19.0211869656796</v>
       </c>
-      <c r="I46" s="20">
+      <c r="I46" s="18">
         <v>20.6727115716753</v>
       </c>
-      <c r="J46" s="20">
+      <c r="J46" s="18">
         <v>17.499136442141602</v>
       </c>
-      <c r="K46" s="21">
+      <c r="K46" s="19">
         <v>61.828151986183101</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="C47" s="20">
+      <c r="C47" s="18">
         <v>70.741263799665902</v>
       </c>
-      <c r="D47" s="20">
+      <c r="D47" s="18">
         <v>21.441365413430201</v>
       </c>
-      <c r="E47" s="21">
+      <c r="E47" s="19">
         <v>7.8173707869038802</v>
       </c>
-      <c r="F47" s="20">
+      <c r="F47" s="18">
         <v>50.549824554675702</v>
       </c>
-      <c r="G47" s="20">
+      <c r="G47" s="18">
         <v>33.758844170038202</v>
       </c>
-      <c r="H47" s="21">
+      <c r="H47" s="19">
         <v>15.691331275286201</v>
       </c>
-      <c r="I47" s="20">
+      <c r="I47" s="18">
         <v>21.418713067658999</v>
       </c>
-      <c r="J47" s="20">
+      <c r="J47" s="18">
         <v>15.8637822806551</v>
       </c>
-      <c r="K47" s="21">
+      <c r="K47" s="19">
         <v>62.7175046516859</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="C48" s="20">
+      <c r="C48" s="12">
         <v>40.166204986149602</v>
       </c>
-      <c r="D48" s="20">
+      <c r="D48" s="12">
         <v>45.630823470158703</v>
       </c>
-      <c r="E48" s="21">
+      <c r="E48" s="13">
         <v>14.202971543691801</v>
       </c>
-      <c r="F48" s="20">
+      <c r="F48" s="12">
         <v>28.2071873117848</v>
       </c>
-      <c r="G48" s="20">
+      <c r="G48" s="12">
         <v>49.5282071873118</v>
       </c>
-      <c r="H48" s="21">
+      <c r="H48" s="13">
         <v>22.2646055009034</v>
       </c>
-      <c r="I48" s="20">
+      <c r="I48" s="12">
         <v>19.0960912052117</v>
       </c>
-      <c r="J48" s="20">
+      <c r="J48" s="12">
         <v>25.366449511400699</v>
       </c>
-      <c r="K48" s="21">
+      <c r="K48" s="13">
         <v>55.537459283387598</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C49" s="20">
+      <c r="C49" s="18">
         <v>52.195125137154498</v>
       </c>
-      <c r="D49" s="20">
+      <c r="D49" s="18">
         <v>33.841893515857699</v>
       </c>
-      <c r="E49" s="21">
+      <c r="E49" s="19">
         <v>13.962981346987799</v>
       </c>
-      <c r="F49" s="20">
+      <c r="F49" s="18">
         <v>33.6208563345158</v>
       </c>
-      <c r="G49" s="20">
+      <c r="G49" s="18">
         <v>40.703707941869297</v>
       </c>
-      <c r="H49" s="21">
+      <c r="H49" s="19">
         <v>25.6754357236149</v>
       </c>
-      <c r="I49" s="20">
+      <c r="I49" s="18">
         <v>17.745961182650198</v>
       </c>
-      <c r="J49" s="20">
+      <c r="J49" s="18">
         <v>17.671455712706901</v>
       </c>
-      <c r="K49" s="21">
+      <c r="K49" s="19">
         <v>64.582583104643007</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B50" s="19" t="s">
+      <c r="B50" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="C50" s="20">
+      <c r="C50" s="18">
         <v>51.284662384458699</v>
       </c>
-      <c r="D50" s="20">
+      <c r="D50" s="18">
         <v>28.7012376625411</v>
       </c>
-      <c r="E50" s="21">
+      <c r="E50" s="19">
         <v>20.014099953000201</v>
       </c>
-      <c r="F50" s="20">
+      <c r="F50" s="18">
         <v>32.685774022127397</v>
       </c>
-      <c r="G50" s="20">
+      <c r="G50" s="18">
         <v>33.953306037111297</v>
       </c>
-      <c r="H50" s="21">
+      <c r="H50" s="19">
         <v>33.360919940761399</v>
       </c>
-      <c r="I50" s="20">
+      <c r="I50" s="18">
         <v>17.753064003631401</v>
       </c>
-      <c r="J50" s="20">
+      <c r="J50" s="18">
         <v>15.442578302315001</v>
       </c>
-      <c r="K50" s="21">
+      <c r="K50" s="19">
         <v>66.804357694053607</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C51" s="16">
+      <c r="C51" s="15">
         <v>29.0127265312098</v>
       </c>
-      <c r="D51" s="16">
+      <c r="D51" s="15">
         <v>47.177575370972598</v>
       </c>
-      <c r="E51" s="17">
+      <c r="E51" s="16">
         <v>23.809698097817598</v>
       </c>
-      <c r="F51" s="16">
+      <c r="F51" s="15">
         <v>16.404515296964501</v>
       </c>
-      <c r="G51" s="16">
+      <c r="G51" s="15">
         <v>46.528100942681299</v>
       </c>
-      <c r="H51" s="17">
+      <c r="H51" s="16">
         <v>37.067383760354197</v>
       </c>
-      <c r="I51" s="16">
+      <c r="I51" s="15">
         <v>10.2736280697886</v>
       </c>
-      <c r="J51" s="16">
+      <c r="J51" s="15">
         <v>23.690774785700501</v>
       </c>
-      <c r="K51" s="17">
+      <c r="K51" s="16">
         <v>66.035597144510902</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A52" s="18" t="s">
+      <c r="A52" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B52" s="19" t="s">
+      <c r="B52" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C52" s="20">
+      <c r="C52" s="18">
         <v>60.177786656012799</v>
       </c>
-      <c r="D52" s="20">
+      <c r="D52" s="18">
         <v>23.067319216939701</v>
       </c>
-      <c r="E52" s="21">
+      <c r="E52" s="19">
         <v>16.7548941270475</v>
       </c>
-      <c r="F52" s="20">
+      <c r="F52" s="18">
         <v>42.506643314409999</v>
       </c>
-      <c r="G52" s="20">
+      <c r="G52" s="18">
         <v>28.898417683295101</v>
       </c>
-      <c r="H52" s="21">
+      <c r="H52" s="19">
         <v>28.594939002295</v>
       </c>
-      <c r="I52" s="20">
+      <c r="I52" s="18">
         <v>20.382905275884301</v>
       </c>
-      <c r="J52" s="20">
+      <c r="J52" s="18">
         <v>14.605123962998</v>
       </c>
-      <c r="K52" s="21">
+      <c r="K52" s="19">
         <v>65.011970761117695</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A53" s="18" t="s">
+      <c r="A53" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B53" s="19" t="s">
+      <c r="B53" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C53" s="20">
+      <c r="C53" s="18">
         <v>57.343078245915699</v>
       </c>
-      <c r="D53" s="20">
+      <c r="D53" s="18">
         <v>27.102321582115199</v>
       </c>
-      <c r="E53" s="21">
+      <c r="E53" s="19">
         <v>15.554600171969099</v>
       </c>
-      <c r="F53" s="20">
+      <c r="F53" s="18">
         <v>35.115558995908401</v>
       </c>
-      <c r="G53" s="20">
+      <c r="G53" s="18">
         <v>36.038925135463899</v>
       </c>
-      <c r="H53" s="21">
+      <c r="H53" s="19">
         <v>28.8455158686277</v>
       </c>
-      <c r="I53" s="20">
+      <c r="I53" s="18">
         <v>20.3684513529073</v>
       </c>
-      <c r="J53" s="20">
+      <c r="J53" s="18">
         <v>15.699481865285</v>
       </c>
-      <c r="K53" s="21">
+      <c r="K53" s="19">
         <v>63.932066781807698</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A54" s="18" t="s">
+      <c r="A54" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B54" s="19" t="s">
+      <c r="B54" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="C54" s="20">
+      <c r="C54" s="18">
         <v>48.338338668690803</v>
       </c>
-      <c r="D54" s="20">
+      <c r="D54" s="18">
         <v>29.216857529454501</v>
       </c>
-      <c r="E54" s="21">
+      <c r="E54" s="19">
         <v>22.4448038018547</v>
       </c>
-      <c r="F54" s="20">
+      <c r="F54" s="18">
         <v>29.276763690182499</v>
       </c>
-      <c r="G54" s="20">
+      <c r="G54" s="18">
         <v>34.443019240256497</v>
       </c>
-      <c r="H54" s="21">
+      <c r="H54" s="19">
         <v>36.280217069560898</v>
       </c>
-      <c r="I54" s="20">
+      <c r="I54" s="18">
         <v>16.0419975659564</v>
       </c>
-      <c r="J54" s="20">
+      <c r="J54" s="18">
         <v>16.458672827409799</v>
       </c>
-      <c r="K54" s="21">
+      <c r="K54" s="19">
         <v>67.499329606633793</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A55" s="18" t="s">
+      <c r="A55" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B55" s="19" t="s">
+      <c r="B55" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="C55" s="20">
+      <c r="C55" s="18">
         <v>75.807139150418905</v>
       </c>
-      <c r="D55" s="20">
+      <c r="D55" s="18">
         <v>17.087997627696598</v>
       </c>
-      <c r="E55" s="21">
+      <c r="E55" s="19">
         <v>7.1048632218845</v>
       </c>
-      <c r="F55" s="20">
+      <c r="F55" s="18">
         <v>62.310659939011899</v>
       </c>
-      <c r="G55" s="20">
+      <c r="G55" s="18">
         <v>23.969016854072802</v>
       </c>
-      <c r="H55" s="21">
+      <c r="H55" s="19">
         <v>13.7203232069153</v>
       </c>
-      <c r="I55" s="20">
+      <c r="I55" s="18">
         <v>23.719915708529001</v>
       </c>
-      <c r="J55" s="20">
+      <c r="J55" s="18">
         <v>13.3773099612872</v>
       </c>
-      <c r="K55" s="21">
+      <c r="K55" s="19">
         <v>62.902774330183902</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A56" s="18" t="s">
+      <c r="A56" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B56" s="19" t="s">
+      <c r="B56" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="C56" s="20">
+      <c r="C56" s="18">
         <v>76.735843585601302</v>
       </c>
-      <c r="D56" s="20">
+      <c r="D56" s="18">
         <v>20.004970796570099</v>
       </c>
-      <c r="E56" s="21">
+      <c r="E56" s="19">
         <v>3.2591856178285901</v>
       </c>
-      <c r="F56" s="20">
+      <c r="F56" s="18">
         <v>61.256552652778502</v>
       </c>
-      <c r="G56" s="20">
+      <c r="G56" s="18">
         <v>31.213393680654701</v>
       </c>
-      <c r="H56" s="21">
+      <c r="H56" s="19">
         <v>7.5300536665667801</v>
       </c>
-      <c r="I56" s="20">
+      <c r="I56" s="18">
         <v>22.2452151327415</v>
       </c>
-      <c r="J56" s="20">
+      <c r="J56" s="18">
         <v>15.610908858657501</v>
       </c>
-      <c r="K56" s="21">
+      <c r="K56" s="19">
         <v>62.143876008601097</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B57" s="30" t="s">
+      <c r="B57" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="C57" s="13">
+      <c r="C57" s="12">
         <v>34.150291809630801</v>
       </c>
-      <c r="D57" s="13">
+      <c r="D57" s="12">
         <v>29.399627593696799</v>
       </c>
-      <c r="E57" s="14">
+      <c r="E57" s="13">
         <v>36.450080596672301</v>
       </c>
-      <c r="F57" s="13">
+      <c r="F57" s="12">
         <v>16.939723950853701</v>
       </c>
-      <c r="G57" s="13">
+      <c r="G57" s="12">
         <v>29.751376256582098</v>
       </c>
-      <c r="H57" s="14">
+      <c r="H57" s="13">
         <v>53.308899792564198</v>
       </c>
-      <c r="I57" s="13">
+      <c r="I57" s="12">
         <v>10.7809442370624</v>
       </c>
-      <c r="J57" s="13">
+      <c r="J57" s="12">
         <v>16.311964529443699</v>
       </c>
-      <c r="K57" s="14">
+      <c r="K57" s="13">
         <v>72.907091233494</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A58" s="18" t="s">
+      <c r="A58" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B58" s="19" t="s">
+      <c r="B58" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="C58" s="20">
+      <c r="C58" s="18">
         <v>53.213966519717601</v>
       </c>
-      <c r="D58" s="20">
+      <c r="D58" s="18">
         <v>34.071760677237599</v>
       </c>
-      <c r="E58" s="21">
+      <c r="E58" s="19">
         <v>12.7142728030448</v>
       </c>
-      <c r="F58" s="20">
+      <c r="F58" s="18">
         <v>35.121614135680097</v>
       </c>
-      <c r="G58" s="20">
+      <c r="G58" s="18">
         <v>42.651467993124101</v>
       </c>
-      <c r="H58" s="21">
+      <c r="H58" s="19">
         <v>22.226917871195798</v>
       </c>
-      <c r="I58" s="20">
+      <c r="I58" s="18">
         <v>18.339871238209302</v>
       </c>
-      <c r="J58" s="20">
+      <c r="J58" s="18">
         <v>17.8116484503668</v>
       </c>
-      <c r="K58" s="21">
+      <c r="K58" s="19">
         <v>63.848480311423899</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A59" s="18" t="s">
+      <c r="A59" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B59" s="19" t="s">
+      <c r="B59" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="C59" s="20">
+      <c r="C59" s="18">
         <v>58.016386915613701</v>
       </c>
-      <c r="D59" s="20">
+      <c r="D59" s="18">
         <v>26.8477190335492</v>
       </c>
-      <c r="E59" s="21">
+      <c r="E59" s="19">
         <v>15.1358940508372</v>
       </c>
-      <c r="F59" s="20">
+      <c r="F59" s="18">
         <v>39.346834374917599</v>
       </c>
-      <c r="G59" s="20">
+      <c r="G59" s="18">
         <v>35.035466603380499</v>
       </c>
-      <c r="H59" s="21">
+      <c r="H59" s="19">
         <v>25.617699021701899</v>
       </c>
-      <c r="I59" s="20">
+      <c r="I59" s="18">
         <v>18.7783785294159</v>
       </c>
-      <c r="J59" s="20">
+      <c r="J59" s="18">
         <v>15.284239350629401</v>
       </c>
-      <c r="K59" s="21">
+      <c r="K59" s="19">
         <v>65.937382119954805</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="B60" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C60" s="16">
+      <c r="C60" s="15">
         <v>46.243099468031701</v>
       </c>
-      <c r="D60" s="16">
+      <c r="D60" s="15">
         <v>39.921710328214402</v>
       </c>
-      <c r="E60" s="17">
+      <c r="E60" s="16">
         <v>13.8351902037539</v>
       </c>
-      <c r="F60" s="16">
+      <c r="F60" s="15">
         <v>30.908552899256499</v>
       </c>
-      <c r="G60" s="16">
+      <c r="G60" s="15">
         <v>47.388018296817798</v>
       </c>
-      <c r="H60" s="17">
+      <c r="H60" s="16">
         <v>21.7034288039257</v>
       </c>
-      <c r="I60" s="16">
+      <c r="I60" s="15">
         <v>17.780329123612699</v>
       </c>
-      <c r="J60" s="16">
+      <c r="J60" s="15">
         <v>21.535910192626599</v>
       </c>
-      <c r="K60" s="17">
+      <c r="K60" s="16">
         <v>60.683760683760703</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="25" t="s">
+      <c r="A61" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B61" s="26" t="s">
+      <c r="B61" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="C61" s="27">
+      <c r="C61" s="25">
         <v>44.671278671283098</v>
       </c>
-      <c r="D61" s="27">
+      <c r="D61" s="25">
         <v>30.021719580986598</v>
       </c>
-      <c r="E61" s="28">
+      <c r="E61" s="26">
         <v>25.3070017477303</v>
       </c>
-      <c r="F61" s="27">
+      <c r="F61" s="25">
         <v>28.600022415936401</v>
       </c>
-      <c r="G61" s="27">
+      <c r="G61" s="25">
         <v>33.158159784684202</v>
       </c>
-      <c r="H61" s="28">
+      <c r="H61" s="26">
         <v>38.241817799379398</v>
       </c>
-      <c r="I61" s="27">
+      <c r="I61" s="25">
         <v>14.5449501517122</v>
       </c>
-      <c r="J61" s="27">
+      <c r="J61" s="25">
         <v>16.896989096729001</v>
       </c>
-      <c r="K61" s="28">
+      <c r="K61" s="26">
         <v>68.558060751558799</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="31" t="s">
+      <c r="A62" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B62" s="32" t="s">
+      <c r="B62" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="C62" s="33">
+      <c r="C62" s="31">
         <v>39.0836231788441</v>
       </c>
-      <c r="D62" s="33">
+      <c r="D62" s="31">
         <v>34.420018297432698</v>
       </c>
-      <c r="E62" s="34">
+      <c r="E62" s="32">
         <v>26.496358523723199</v>
       </c>
-      <c r="F62" s="33">
+      <c r="F62" s="31">
         <v>23.822928513987101</v>
       </c>
-      <c r="G62" s="33">
+      <c r="G62" s="31">
         <v>37.4875874068454</v>
       </c>
-      <c r="H62" s="34">
+      <c r="H62" s="32">
         <v>38.689484079167499</v>
       </c>
-      <c r="I62" s="33">
+      <c r="I62" s="31">
         <v>13.725459316176799</v>
       </c>
-      <c r="J62" s="33">
+      <c r="J62" s="31">
         <v>18.8706342083766</v>
       </c>
-      <c r="K62" s="34">
+      <c r="K62" s="32">
         <v>67.403906475446504</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="31" t="s">
+      <c r="A63" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B63" s="32" t="s">
+      <c r="B63" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="C63" s="33">
+      <c r="C63" s="31">
         <v>15.458556839603</v>
       </c>
-      <c r="D63" s="33">
+      <c r="D63" s="31">
         <v>37.938703355681596</v>
       </c>
-      <c r="E63" s="34">
+      <c r="E63" s="32">
         <v>46.602739804715398</v>
       </c>
-      <c r="F63" s="33">
+      <c r="F63" s="31">
         <v>9.6746819584111101</v>
       </c>
-      <c r="G63" s="33">
+      <c r="G63" s="31">
         <v>32.105032016383198</v>
       </c>
-      <c r="H63" s="34">
+      <c r="H63" s="32">
         <v>58.220286025205802</v>
       </c>
-      <c r="I63" s="33">
+      <c r="I63" s="31">
         <v>7.9380078817115498</v>
       </c>
-      <c r="J63" s="33">
+      <c r="J63" s="31">
         <v>24.270360240326202</v>
       </c>
-      <c r="K63" s="34">
+      <c r="K63" s="32">
         <v>67.791631877962303</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A64" s="35" t="s">
+      <c r="A64" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B64" s="36" t="s">
+      <c r="B64" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="C64" s="37">
+      <c r="C64" s="35">
         <v>16.377479433382099</v>
       </c>
-      <c r="D64" s="37">
+      <c r="D64" s="35">
         <v>40.368147260504102</v>
       </c>
-      <c r="E64" s="38">
+      <c r="E64" s="36">
         <v>43.254373306113798</v>
       </c>
-      <c r="F64" s="37">
+      <c r="F64" s="35">
         <v>8.9841946469653209</v>
       </c>
-      <c r="G64" s="37">
+      <c r="G64" s="35">
         <v>35.178916206017298</v>
       </c>
-      <c r="H64" s="38">
+      <c r="H64" s="36">
         <v>55.836889147017402</v>
       </c>
-      <c r="I64" s="37">
+      <c r="I64" s="35">
         <v>8.0509658551124197</v>
       </c>
-      <c r="J64" s="37">
+      <c r="J64" s="35">
         <v>24.9558664340253</v>
       </c>
-      <c r="K64" s="38">
+      <c r="K64" s="36">
         <v>66.993167710862394</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A65" s="35" t="s">
+      <c r="A65" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B65" s="39" t="s">
+      <c r="B65" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="C65" s="40">
+      <c r="C65" s="38">
         <v>20.332256893604001</v>
       </c>
-      <c r="D65" s="40">
+      <c r="D65" s="38">
         <v>43.945455042565001</v>
       </c>
-      <c r="E65" s="41">
+      <c r="E65" s="39">
         <v>35.722288063831101</v>
       </c>
-      <c r="F65" s="40">
+      <c r="F65" s="38">
         <v>12.530160417461801</v>
       </c>
-      <c r="G65" s="40">
+      <c r="G65" s="38">
         <v>37.311519733860699</v>
       </c>
-      <c r="H65" s="41">
+      <c r="H65" s="39">
         <v>50.1583198486775</v>
       </c>
-      <c r="I65" s="40">
+      <c r="I65" s="38">
         <v>10.147394402617699</v>
       </c>
-      <c r="J65" s="40">
+      <c r="J65" s="38">
         <v>27.798257984713299</v>
       </c>
-      <c r="K65" s="41">
+      <c r="K65" s="39">
         <v>62.054347612668998</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="35" t="s">
+      <c r="A66" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B66" s="42" t="s">
+      <c r="B66" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="C66" s="43">
+      <c r="C66" s="41">
         <v>18.766722291109399</v>
       </c>
-      <c r="D66" s="43">
+      <c r="D66" s="41">
         <v>37.445989719356398</v>
       </c>
-      <c r="E66" s="44">
+      <c r="E66" s="42">
         <v>43.7872879895342</v>
       </c>
-      <c r="F66" s="43">
+      <c r="F66" s="41">
         <v>12.339241237572001</v>
       </c>
-      <c r="G66" s="43">
+      <c r="G66" s="41">
         <v>33.118736283898997</v>
       </c>
-      <c r="H66" s="44">
+      <c r="H66" s="42">
         <v>54.542022478528999</v>
       </c>
-      <c r="I66" s="43">
+      <c r="I66" s="41">
         <v>8.9920199965437604</v>
       </c>
-      <c r="J66" s="43">
+      <c r="J66" s="41">
         <v>23.286960773583999</v>
       </c>
-      <c r="K66" s="44">
+      <c r="K66" s="42">
         <v>67.721019229872297</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A67" s="35" t="s">
+      <c r="A67" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B67" s="39" t="s">
+      <c r="B67" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="C67" s="40">
+      <c r="C67" s="38">
         <v>40.084640904880601</v>
       </c>
-      <c r="D67" s="40">
+      <c r="D67" s="38">
         <v>32.289785485742101</v>
       </c>
-      <c r="E67" s="41">
+      <c r="E67" s="39">
         <v>27.625573609377302</v>
       </c>
-      <c r="F67" s="40">
+      <c r="F67" s="38">
         <v>23.474868727371</v>
       </c>
-      <c r="G67" s="40">
+      <c r="G67" s="38">
         <v>36.393551725769001</v>
       </c>
-      <c r="H67" s="41">
+      <c r="H67" s="39">
         <v>40.131579546860003</v>
       </c>
-      <c r="I67" s="40">
+      <c r="I67" s="38">
         <v>14.247093709016999</v>
       </c>
-      <c r="J67" s="40">
+      <c r="J67" s="38">
         <v>17.943750629265399</v>
       </c>
-      <c r="K67" s="41">
+      <c r="K67" s="39">
         <v>67.809155661717597</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A68" s="35" t="s">
+      <c r="A68" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B68" s="39" t="s">
+      <c r="B68" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="C68" s="40">
+      <c r="C68" s="38">
         <v>41.646985030480003</v>
       </c>
-      <c r="D68" s="40">
+      <c r="D68" s="38">
         <v>27.551046163041999</v>
       </c>
-      <c r="E68" s="41">
+      <c r="E68" s="39">
         <v>30.801968806478101</v>
       </c>
-      <c r="F68" s="40">
+      <c r="F68" s="38">
         <v>25.455051618661699</v>
       </c>
-      <c r="G68" s="40">
+      <c r="G68" s="38">
         <v>30.0352678361673</v>
       </c>
-      <c r="H68" s="41">
+      <c r="H68" s="39">
         <v>44.509680545171101</v>
       </c>
-      <c r="I68" s="40">
+      <c r="I68" s="38">
         <v>14.8248227477974</v>
       </c>
-      <c r="J68" s="40">
+      <c r="J68" s="38">
         <v>16.367370418605802</v>
       </c>
-      <c r="K68" s="41">
+      <c r="K68" s="39">
         <v>68.8078068335968</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A69" s="35" t="s">
+      <c r="A69" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B69" s="39" t="s">
+      <c r="B69" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="C69" s="40">
+      <c r="C69" s="38">
         <v>32.595008254445297</v>
       </c>
-      <c r="D69" s="40">
+      <c r="D69" s="38">
         <v>50.549626312897701</v>
       </c>
-      <c r="E69" s="41">
+      <c r="E69" s="39">
         <v>16.855365432656999</v>
       </c>
-      <c r="F69" s="40">
+      <c r="F69" s="38">
         <v>17.394509560234901</v>
       </c>
-      <c r="G69" s="40">
+      <c r="G69" s="38">
         <v>54.475087729999402</v>
       </c>
-      <c r="H69" s="41">
+      <c r="H69" s="39">
         <v>28.130402709765701</v>
       </c>
-      <c r="I69" s="40">
+      <c r="I69" s="38">
         <v>10.520446022221</v>
       </c>
-      <c r="J69" s="40">
+      <c r="J69" s="38">
         <v>23.920484465508199</v>
       </c>
-      <c r="K69" s="41">
+      <c r="K69" s="39">
         <v>65.559069512270796</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A70" s="35" t="s">
+      <c r="A70" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B70" s="39" t="s">
+      <c r="B70" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="C70" s="40">
+      <c r="C70" s="38">
         <v>39.1664587988246</v>
       </c>
-      <c r="D70" s="40">
+      <c r="D70" s="38">
         <v>44.176781427406397</v>
       </c>
-      <c r="E70" s="41">
+      <c r="E70" s="39">
         <v>16.656759773769</v>
       </c>
-      <c r="F70" s="40">
+      <c r="F70" s="38">
         <v>22.0691721052657</v>
       </c>
-      <c r="G70" s="40">
+      <c r="G70" s="38">
         <v>49.205596232511802</v>
       </c>
-      <c r="H70" s="41">
+      <c r="H70" s="39">
         <v>28.725231662222502</v>
       </c>
-      <c r="I70" s="40">
+      <c r="I70" s="38">
         <v>12.941056867781899</v>
       </c>
-      <c r="J70" s="40">
+      <c r="J70" s="38">
         <v>21.8332808762271</v>
       </c>
-      <c r="K70" s="41">
+      <c r="K70" s="39">
         <v>65.225662255990997</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A71" s="35" t="s">
+      <c r="A71" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B71" s="39" t="s">
+      <c r="B71" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="C71" s="40">
+      <c r="C71" s="38">
         <v>44.671278671283098</v>
       </c>
-      <c r="D71" s="40">
+      <c r="D71" s="38">
         <v>30.021719580986598</v>
       </c>
-      <c r="E71" s="41">
+      <c r="E71" s="39">
         <v>25.3070017477303</v>
       </c>
-      <c r="F71" s="40">
+      <c r="F71" s="38">
         <v>28.600022415936401</v>
       </c>
-      <c r="G71" s="40">
+      <c r="G71" s="38">
         <v>33.158159784684202</v>
       </c>
-      <c r="H71" s="41">
+      <c r="H71" s="39">
         <v>38.241817799379398</v>
       </c>
-      <c r="I71" s="40">
+      <c r="I71" s="38">
         <v>14.5449501517122</v>
       </c>
-      <c r="J71" s="40">
+      <c r="J71" s="38">
         <v>16.896989096729001</v>
       </c>
-      <c r="K71" s="41">
+      <c r="K71" s="39">
         <v>68.558060751558799</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A72" s="35" t="s">
+      <c r="A72" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B72" s="39" t="s">
+      <c r="B72" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="C72" s="40">
+      <c r="C72" s="38">
         <v>50.916515240990698</v>
       </c>
-      <c r="D72" s="40">
+      <c r="D72" s="38">
         <v>30.809872790915101</v>
       </c>
-      <c r="E72" s="41">
+      <c r="E72" s="39">
         <v>18.273611968094201</v>
       </c>
-      <c r="F72" s="40">
+      <c r="F72" s="38">
         <v>32.1128343124563</v>
       </c>
-      <c r="G72" s="40">
+      <c r="G72" s="38">
         <v>36.540955022136103</v>
       </c>
-      <c r="H72" s="41">
+      <c r="H72" s="39">
         <v>31.3462106654077</v>
       </c>
-      <c r="I72" s="40">
+      <c r="I72" s="38">
         <v>17.587439407378199</v>
       </c>
-      <c r="J72" s="40">
+      <c r="J72" s="38">
         <v>16.547247697524501</v>
       </c>
-      <c r="K72" s="41">
+      <c r="K72" s="39">
         <v>65.865312895097404</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A73" s="35" t="s">
+      <c r="A73" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B73" s="39" t="s">
+      <c r="B73" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="C73" s="40">
+      <c r="C73" s="38">
         <v>31.380167630285701</v>
       </c>
-      <c r="D73" s="40">
+      <c r="D73" s="38">
         <v>44.9886006638841</v>
       </c>
-      <c r="E73" s="41">
+      <c r="E73" s="39">
         <v>23.631231705830199</v>
       </c>
-      <c r="F73" s="40">
+      <c r="F73" s="38">
         <v>17.899305124504401</v>
       </c>
-      <c r="G73" s="40">
+      <c r="G73" s="38">
         <v>48.271069451926003</v>
       </c>
-      <c r="H73" s="41">
+      <c r="H73" s="39">
         <v>33.829625423569603</v>
       </c>
-      <c r="I73" s="40">
+      <c r="I73" s="38">
         <v>10.522554598877001</v>
       </c>
-      <c r="J73" s="40">
+      <c r="J73" s="38">
         <v>23.0237041599345</v>
       </c>
-      <c r="K73" s="41">
+      <c r="K73" s="39">
         <v>66.453741241188496</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A74" s="35" t="s">
+      <c r="A74" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B74" s="39" t="s">
+      <c r="B74" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="C74" s="40">
+      <c r="C74" s="38">
         <v>27.8328211398902</v>
       </c>
-      <c r="D74" s="40">
+      <c r="D74" s="38">
         <v>36.657934409546897</v>
       </c>
-      <c r="E74" s="41">
+      <c r="E74" s="39">
         <v>35.509244450562903</v>
       </c>
-      <c r="F74" s="40">
+      <c r="F74" s="38">
         <v>13.9827235277101</v>
       </c>
-      <c r="G74" s="40">
+      <c r="G74" s="38">
         <v>32.041002329866402</v>
       </c>
-      <c r="H74" s="41">
+      <c r="H74" s="39">
         <v>53.976274142423598</v>
       </c>
-      <c r="I74" s="40">
+      <c r="I74" s="38">
         <v>13.313961208721</v>
       </c>
-      <c r="J74" s="40">
+      <c r="J74" s="38">
         <v>23.747001850760601</v>
       </c>
-      <c r="K74" s="41">
+      <c r="K74" s="39">
         <v>62.939036940518399</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="35" t="s">
+      <c r="A75" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B75" s="42" t="s">
+      <c r="B75" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="C75" s="43">
+      <c r="C75" s="41">
         <v>58.140865530322799</v>
       </c>
-      <c r="D75" s="43">
+      <c r="D75" s="41">
         <v>33.199650945269497</v>
       </c>
-      <c r="E75" s="44">
+      <c r="E75" s="42">
         <v>8.65948352440771</v>
       </c>
-      <c r="F75" s="43">
+      <c r="F75" s="41">
         <v>39.905385046470499</v>
       </c>
-      <c r="G75" s="43">
+      <c r="G75" s="41">
         <v>42.816177701438903</v>
       </c>
-      <c r="H75" s="44">
+      <c r="H75" s="42">
         <v>17.278437252090601</v>
       </c>
-      <c r="I75" s="43">
+      <c r="I75" s="41">
         <v>19.434618627283299</v>
       </c>
-      <c r="J75" s="43">
+      <c r="J75" s="41">
         <v>18.097228580103899</v>
       </c>
-      <c r="K75" s="44">
+      <c r="K75" s="42">
         <v>62.468152792612898</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A76" s="35" t="s">
+      <c r="A76" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B76" s="39" t="s">
+      <c r="B76" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="C76" s="40">
+      <c r="C76" s="38">
         <v>12.6102542235874</v>
       </c>
-      <c r="D76" s="40">
+      <c r="D76" s="38">
         <v>46.6302271061639</v>
       </c>
-      <c r="E76" s="41">
+      <c r="E76" s="39">
         <v>40.759518670248703</v>
       </c>
-      <c r="F76" s="40">
+      <c r="F76" s="38">
         <v>6.2764259743678403</v>
       </c>
-      <c r="G76" s="40">
+      <c r="G76" s="38">
         <v>36.853215537239002</v>
       </c>
-      <c r="H76" s="41">
+      <c r="H76" s="39">
         <v>56.870358488393201</v>
       </c>
-      <c r="I76" s="40">
+      <c r="I76" s="38">
         <v>5.8147491538389904</v>
       </c>
-      <c r="J76" s="40">
+      <c r="J76" s="38">
         <v>28.357263740214901</v>
       </c>
-      <c r="K76" s="41">
+      <c r="K76" s="39">
         <v>65.827987105946207</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A77" s="35" t="s">
+      <c r="A77" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B77" s="39" t="s">
+      <c r="B77" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="C77" s="40">
+      <c r="C77" s="38">
         <v>15.2191945341165</v>
       </c>
-      <c r="D77" s="40">
+      <c r="D77" s="38">
         <v>37.322837528713102</v>
       </c>
-      <c r="E77" s="41">
+      <c r="E77" s="39">
         <v>47.457967937170402</v>
       </c>
-      <c r="F77" s="40">
+      <c r="F77" s="38">
         <v>8.0684747715634799</v>
       </c>
-      <c r="G77" s="40">
+      <c r="G77" s="38">
         <v>31.227862410777099</v>
       </c>
-      <c r="H77" s="41">
+      <c r="H77" s="39">
         <v>60.703662817659499</v>
       </c>
-      <c r="I77" s="40">
+      <c r="I77" s="38">
         <v>7.6084037945775203</v>
       </c>
-      <c r="J77" s="40">
+      <c r="J77" s="38">
         <v>23.302485799045201</v>
       </c>
-      <c r="K77" s="41">
+      <c r="K77" s="39">
         <v>69.089110406377301</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A78" s="35" t="s">
+      <c r="A78" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B78" s="39" t="s">
+      <c r="B78" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="C78" s="40">
+      <c r="C78" s="38">
         <v>2.4214270202857202</v>
       </c>
-      <c r="D78" s="40">
+      <c r="D78" s="38">
         <v>27.348524255602399</v>
       </c>
-      <c r="E78" s="41">
+      <c r="E78" s="39">
         <v>70.230048724111896</v>
       </c>
-      <c r="F78" s="40">
+      <c r="F78" s="38">
         <v>1.5681617763103</v>
       </c>
-      <c r="G78" s="40">
+      <c r="G78" s="38">
         <v>18.4597241495965</v>
       </c>
-      <c r="H78" s="41">
+      <c r="H78" s="39">
         <v>79.972114074093199</v>
       </c>
-      <c r="I78" s="40">
+      <c r="I78" s="38">
         <v>1.39245358260444</v>
       </c>
-      <c r="J78" s="40">
+      <c r="J78" s="38">
         <v>17.419339650433798</v>
       </c>
-      <c r="K78" s="41">
+      <c r="K78" s="39">
         <v>81.188206766961798</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="35" t="s">
+      <c r="A79" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B79" s="42" t="s">
+      <c r="B79" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="C79" s="43">
+      <c r="C79" s="41">
         <v>3.89192270719168</v>
       </c>
-      <c r="D79" s="43">
+      <c r="D79" s="41">
         <v>25.649643388171601</v>
       </c>
-      <c r="E79" s="44">
+      <c r="E79" s="42">
         <v>70.458433904636806</v>
       </c>
-      <c r="F79" s="43">
+      <c r="F79" s="41">
         <v>2.4142127743470798</v>
       </c>
-      <c r="G79" s="43">
+      <c r="G79" s="41">
         <v>19.9660764105368</v>
       </c>
-      <c r="H79" s="44">
+      <c r="H79" s="42">
         <v>77.619710815116093</v>
       </c>
-      <c r="I79" s="43">
+      <c r="I79" s="41">
         <v>2.2039675116654101</v>
       </c>
-      <c r="J79" s="43">
+      <c r="J79" s="41">
         <v>16.574436323806498</v>
       </c>
-      <c r="K79" s="44">
+      <c r="K79" s="42">
         <v>81.221596164528094</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A80" s="35" t="s">
+      <c r="A80" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B80" s="39" t="s">
+      <c r="B80" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="C80" s="40">
-        <v>34.139646989381198</v>
-      </c>
-      <c r="D80" s="40">
-        <v>32.446891343517798</v>
-      </c>
-      <c r="E80" s="41">
-        <v>33.413461667100997</v>
-      </c>
-      <c r="F80" s="40">
-        <v>19.024515064870201</v>
-      </c>
-      <c r="G80" s="40">
-        <v>32.885484668985903</v>
-      </c>
-      <c r="H80" s="41">
-        <v>48.090000266144003</v>
-      </c>
-      <c r="I80" s="40">
-        <v>11.690424711802001</v>
-      </c>
-      <c r="J80" s="40">
-        <v>18.187207978845301</v>
-      </c>
-      <c r="K80" s="41">
-        <v>70.122367309352697</v>
+      <c r="C80" s="38">
+        <v>34.152426520847598</v>
+      </c>
+      <c r="D80" s="38">
+        <v>32.474848342446997</v>
+      </c>
+      <c r="E80" s="39">
+        <v>33.372725136705398</v>
+      </c>
+      <c r="F80" s="38">
+        <v>19.039158098011502</v>
+      </c>
+      <c r="G80" s="38">
+        <v>32.912023777738099</v>
+      </c>
+      <c r="H80" s="39">
+        <v>48.048818124250502</v>
+      </c>
+      <c r="I80" s="38">
+        <v>11.7024202329549</v>
+      </c>
+      <c r="J80" s="38">
+        <v>18.198836742271599</v>
+      </c>
+      <c r="K80" s="39">
+        <v>70.098743024773498</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A81" s="35" t="s">
+      <c r="A81" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B81" s="39" t="s">
+      <c r="B81" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="C81" s="40">
-        <v>11.689532439532201</v>
-      </c>
-      <c r="D81" s="40">
-        <v>24.660651674873801</v>
-      </c>
-      <c r="E81" s="41">
-        <v>63.649815885594002</v>
-      </c>
-      <c r="F81" s="40">
-        <v>8.2910218580513195</v>
-      </c>
-      <c r="G81" s="40">
-        <v>21.846355376291999</v>
-      </c>
-      <c r="H81" s="41">
-        <v>69.862622765656695</v>
-      </c>
-      <c r="I81" s="40">
-        <v>6.2908722226611298</v>
-      </c>
-      <c r="J81" s="40">
-        <v>15.778815958124699</v>
-      </c>
-      <c r="K81" s="41">
-        <v>77.930311819214197</v>
+      <c r="C81" s="38">
+        <v>11.961026209530701</v>
+      </c>
+      <c r="D81" s="38">
+        <v>25.0999375126549</v>
+      </c>
+      <c r="E81" s="39">
+        <v>62.939036277814402</v>
+      </c>
+      <c r="F81" s="38">
+        <v>8.3876216707698408</v>
+      </c>
+      <c r="G81" s="38">
+        <v>22.404678293257</v>
+      </c>
+      <c r="H81" s="39">
+        <v>69.207700035973204</v>
+      </c>
+      <c r="I81" s="38">
+        <v>6.3842877956944202</v>
+      </c>
+      <c r="J81" s="38">
+        <v>16.001704378252501</v>
+      </c>
+      <c r="K81" s="39">
+        <v>77.614007826053097</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A82" s="35" t="s">
+      <c r="A82" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B82" s="39" t="s">
+      <c r="B82" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="C82" s="40">
-        <v>40.571314930934697</v>
-      </c>
-      <c r="D82" s="40">
-        <v>35.013751880013999</v>
-      </c>
-      <c r="E82" s="41">
-        <v>24.4149331890513</v>
-      </c>
-      <c r="F82" s="40">
-        <v>25.285402951952801</v>
-      </c>
-      <c r="G82" s="40">
-        <v>38.890229694006003</v>
-      </c>
-      <c r="H82" s="41">
-        <v>35.8243673540412</v>
-      </c>
-      <c r="I82" s="40">
-        <v>14.3522073900692</v>
-      </c>
-      <c r="J82" s="40">
-        <v>19.0811151859902</v>
-      </c>
-      <c r="K82" s="41">
-        <v>66.566677423940604</v>
+      <c r="C82" s="38">
+        <v>40.571574142749199</v>
+      </c>
+      <c r="D82" s="38">
+        <v>35.006958488671401</v>
+      </c>
+      <c r="E82" s="39">
+        <v>24.421467368579499</v>
+      </c>
+      <c r="F82" s="38">
+        <v>25.2839799506466</v>
+      </c>
+      <c r="G82" s="38">
+        <v>38.885048662826399</v>
+      </c>
+      <c r="H82" s="39">
+        <v>35.830971386526898</v>
+      </c>
+      <c r="I82" s="38">
+        <v>14.3498358453905</v>
+      </c>
+      <c r="J82" s="38">
+        <v>19.077973045129699</v>
+      </c>
+      <c r="K82" s="39">
+        <v>66.572191109479803</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="35" t="s">
+      <c r="A83" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B83" s="42" t="s">
+      <c r="B83" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="C83" s="43">
-        <v>15.7534818760502</v>
-      </c>
-      <c r="D83" s="43">
-        <v>38.977706943940902</v>
-      </c>
-      <c r="E83" s="44">
-        <v>45.268811180008797</v>
-      </c>
-      <c r="F83" s="43">
-        <v>9.7917565905832902</v>
-      </c>
-      <c r="G83" s="43">
-        <v>32.973042009516398</v>
-      </c>
-      <c r="H83" s="44">
-        <v>57.235201399900298</v>
-      </c>
-      <c r="I83" s="43">
-        <v>8.0767887072408495</v>
-      </c>
-      <c r="J83" s="43">
-        <v>24.985822575821899</v>
-      </c>
-      <c r="K83" s="44">
-        <v>66.937388716937207</v>
+      <c r="C83" s="41">
+        <v>15.737895229084501</v>
+      </c>
+      <c r="D83" s="41">
+        <v>38.964101144248303</v>
+      </c>
+      <c r="E83" s="42">
+        <v>45.298003626667203</v>
+      </c>
+      <c r="F83" s="41">
+        <v>9.7862405891463506</v>
+      </c>
+      <c r="G83" s="41">
+        <v>32.945830376328402</v>
+      </c>
+      <c r="H83" s="42">
+        <v>57.267929034525302</v>
+      </c>
+      <c r="I83" s="41">
+        <v>8.0720427537210693</v>
+      </c>
+      <c r="J83" s="41">
+        <v>24.9836729149437</v>
+      </c>
+      <c r="K83" s="42">
+        <v>66.944284331335197</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A84" s="35" t="s">
+      <c r="A84" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B84" s="39" t="s">
+      <c r="B84" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="C84" s="40">
+      <c r="C84" s="38">
         <v>55.238423500403201</v>
       </c>
-      <c r="D84" s="40">
+      <c r="D84" s="38">
         <v>30.760540905194802</v>
       </c>
-      <c r="E84" s="41">
+      <c r="E84" s="39">
         <v>14.001035594402</v>
       </c>
-      <c r="F84" s="40">
+      <c r="F84" s="38">
         <v>35.963325780172703</v>
       </c>
-      <c r="G84" s="40">
+      <c r="G84" s="38">
         <v>38.984678659192603</v>
       </c>
-      <c r="H84" s="41">
+      <c r="H84" s="39">
         <v>25.051995560634701</v>
       </c>
-      <c r="I84" s="40">
+      <c r="I84" s="38">
         <v>18.287066618448101</v>
       </c>
-      <c r="J84" s="40">
+      <c r="J84" s="38">
         <v>17.235295991425598</v>
       </c>
-      <c r="K84" s="41">
+      <c r="K84" s="39">
         <v>64.477637390126304</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A85" s="35" t="s">
+      <c r="A85" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B85" s="39" t="s">
+      <c r="B85" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="C85" s="40">
+      <c r="C85" s="38">
         <v>40.543877371045603</v>
       </c>
-      <c r="D85" s="40">
+      <c r="D85" s="38">
         <v>15.396363461446001</v>
       </c>
-      <c r="E85" s="41">
+      <c r="E85" s="39">
         <v>44.059759167508503</v>
       </c>
-      <c r="F85" s="40">
+      <c r="F85" s="38">
         <v>32.829096231088798</v>
       </c>
-      <c r="G85" s="40">
+      <c r="G85" s="38">
         <v>15.7839916818291</v>
       </c>
-      <c r="H85" s="41">
+      <c r="H85" s="39">
         <v>51.386912087082102</v>
       </c>
-      <c r="I85" s="40">
+      <c r="I85" s="38">
         <v>17.753749402430302</v>
       </c>
-      <c r="J85" s="40">
+      <c r="J85" s="38">
         <v>4.8568056240109998</v>
       </c>
-      <c r="K85" s="41">
+      <c r="K85" s="39">
         <v>77.389444973558696</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A86" s="35" t="s">
+      <c r="A86" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B86" s="39" t="s">
+      <c r="B86" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="C86" s="40">
+      <c r="C86" s="38">
         <v>30.3364321502427</v>
       </c>
-      <c r="D86" s="40">
+      <c r="D86" s="38">
         <v>36.444829413471197</v>
       </c>
-      <c r="E86" s="41">
+      <c r="E86" s="39">
         <v>33.218738436286102</v>
       </c>
-      <c r="F86" s="40">
+      <c r="F86" s="38">
         <v>15.849054990804801</v>
       </c>
-      <c r="G86" s="40">
+      <c r="G86" s="38">
         <v>36.877930835749297</v>
       </c>
-      <c r="H86" s="41">
+      <c r="H86" s="39">
         <v>47.273014173446001</v>
       </c>
-      <c r="I86" s="40">
+      <c r="I86" s="38">
         <v>11.0013463311506</v>
       </c>
-      <c r="J86" s="40">
+      <c r="J86" s="38">
         <v>19.7796831461729</v>
       </c>
-      <c r="K86" s="41">
+      <c r="K86" s="39">
         <v>69.2189705226765</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A87" s="35" t="s">
+      <c r="A87" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B87" s="39" t="s">
+      <c r="B87" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="C87" s="40">
+      <c r="C87" s="38">
         <v>27.483644651620299</v>
       </c>
-      <c r="D87" s="40">
+      <c r="D87" s="38">
         <v>34.985762374444</v>
       </c>
-      <c r="E87" s="41">
+      <c r="E87" s="39">
         <v>37.530592973935697</v>
       </c>
-      <c r="F87" s="40">
+      <c r="F87" s="38">
         <v>16.442198156727599</v>
       </c>
-      <c r="G87" s="40">
+      <c r="G87" s="38">
         <v>32.532740019418199</v>
       </c>
-      <c r="H87" s="41">
+      <c r="H87" s="39">
         <v>51.025061823854202</v>
       </c>
-      <c r="I87" s="40">
+      <c r="I87" s="38">
         <v>13.3448700582254</v>
       </c>
-      <c r="J87" s="40">
+      <c r="J87" s="38">
         <v>20.941012045376201</v>
       </c>
-      <c r="K87" s="41">
+      <c r="K87" s="39">
         <v>65.714117896398406</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A88" s="35" t="s">
+      <c r="A88" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B88" s="39" t="s">
+      <c r="B88" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="C88" s="40">
+      <c r="C88" s="38">
         <v>14.066931896217101</v>
       </c>
-      <c r="D88" s="40">
+      <c r="D88" s="38">
         <v>39.737407816558701</v>
       </c>
-      <c r="E88" s="41">
+      <c r="E88" s="39">
         <v>46.1956602872242</v>
       </c>
-      <c r="F88" s="40">
+      <c r="F88" s="38">
         <v>5.6999818873392503</v>
       </c>
-      <c r="G88" s="40">
+      <c r="G88" s="38">
         <v>31.4587936967941</v>
       </c>
-      <c r="H88" s="41">
+      <c r="H88" s="39">
         <v>62.841224415866698</v>
       </c>
-      <c r="I88" s="40">
+      <c r="I88" s="38">
         <v>5.4320826913757099</v>
       </c>
-      <c r="J88" s="40">
+      <c r="J88" s="38">
         <v>22.507070575555701</v>
       </c>
-      <c r="K88" s="41">
+      <c r="K88" s="39">
         <v>72.060846733068601</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A89" s="35" t="s">
+      <c r="A89" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B89" s="39" t="s">
+      <c r="B89" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="C89" s="40">
+      <c r="C89" s="38">
         <v>9.3265423664600906</v>
       </c>
-      <c r="D89" s="40">
+      <c r="D89" s="38">
         <v>49.770386148907797</v>
       </c>
-      <c r="E89" s="41">
+      <c r="E89" s="39">
         <v>40.9030714846321</v>
       </c>
-      <c r="F89" s="40">
+      <c r="F89" s="38">
         <v>4.7662034848108403</v>
       </c>
-      <c r="G89" s="40">
+      <c r="G89" s="38">
         <v>40.640057691483896</v>
       </c>
-      <c r="H89" s="41">
+      <c r="H89" s="39">
         <v>54.593738823705301</v>
       </c>
-      <c r="I89" s="40">
+      <c r="I89" s="38">
         <v>4.5710145798849</v>
       </c>
-      <c r="J89" s="40">
+      <c r="J89" s="38">
         <v>34.025702053918799</v>
       </c>
-      <c r="K89" s="41">
+      <c r="K89" s="39">
         <v>61.403283366196298</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="35" t="s">
+      <c r="A90" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B90" s="42" t="s">
+      <c r="B90" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="C90" s="43">
+      <c r="C90" s="41">
         <v>2.64475234592908</v>
       </c>
-      <c r="D90" s="43">
+      <c r="D90" s="41">
         <v>21.450460991861799</v>
       </c>
-      <c r="E90" s="44">
+      <c r="E90" s="42">
         <v>75.904786662209204</v>
       </c>
-      <c r="F90" s="43">
+      <c r="F90" s="41">
         <v>1.97129730381207</v>
       </c>
-      <c r="G90" s="43">
+      <c r="G90" s="41">
         <v>15.544830601490199</v>
       </c>
-      <c r="H90" s="44">
+      <c r="H90" s="42">
         <v>82.483872094697702</v>
       </c>
-      <c r="I90" s="43">
+      <c r="I90" s="41">
         <v>1.74809738876862</v>
       </c>
-      <c r="J90" s="43">
+      <c r="J90" s="41">
         <v>13.899488670298799</v>
       </c>
-      <c r="K90" s="44">
+      <c r="K90" s="42">
         <v>84.352413940932607</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A91" s="35" t="s">
+      <c r="A91" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B91" s="39" t="s">
+      <c r="B91" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="C91" s="40">
+      <c r="C91" s="38">
         <v>51.311414859508602</v>
       </c>
-      <c r="D91" s="40">
+      <c r="D91" s="38">
         <v>35.282851910064501</v>
       </c>
-      <c r="E91" s="41">
+      <c r="E91" s="39">
         <v>13.4057332304269</v>
       </c>
-      <c r="F91" s="40">
+      <c r="F91" s="38">
         <v>32.929029009768598</v>
       </c>
-      <c r="G91" s="40">
+      <c r="G91" s="38">
         <v>43.039502014775202</v>
       </c>
-      <c r="H91" s="41">
+      <c r="H91" s="39">
         <v>24.0314689754562</v>
       </c>
-      <c r="I91" s="40">
+      <c r="I91" s="38">
         <v>17.0299913883503</v>
       </c>
-      <c r="J91" s="40">
+      <c r="J91" s="38">
         <v>18.9112560706272</v>
       </c>
-      <c r="K91" s="41">
+      <c r="K91" s="39">
         <v>64.0587525410225</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A92" s="35" t="s">
+      <c r="A92" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B92" s="39" t="s">
+      <c r="B92" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="C92" s="40">
+      <c r="C92" s="38">
         <v>41.082589163124297</v>
       </c>
-      <c r="D92" s="40">
+      <c r="D92" s="38">
         <v>36.381018285325197</v>
       </c>
-      <c r="E92" s="41">
+      <c r="E92" s="39">
         <v>22.536392551550598</v>
       </c>
-      <c r="F92" s="40">
+      <c r="F92" s="38">
         <v>28.3603779574272</v>
       </c>
-      <c r="G92" s="40">
+      <c r="G92" s="38">
         <v>35.705586675526398</v>
       </c>
-      <c r="H92" s="41">
+      <c r="H92" s="39">
         <v>35.934035367046498</v>
       </c>
-      <c r="I92" s="40">
+      <c r="I92" s="38">
         <v>19.7658005951027</v>
       </c>
-      <c r="J92" s="40">
+      <c r="J92" s="38">
         <v>19.945098549946401</v>
       </c>
-      <c r="K92" s="41">
+      <c r="K92" s="39">
         <v>60.289100854950902</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A93" s="35" t="s">
+      <c r="A93" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B93" s="39" t="s">
+      <c r="B93" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="C93" s="40">
+      <c r="C93" s="38">
         <v>38.260687091552299</v>
       </c>
-      <c r="D93" s="40">
+      <c r="D93" s="38">
         <v>36.432040290185299</v>
       </c>
-      <c r="E93" s="41">
+      <c r="E93" s="39">
         <v>25.307272618262498</v>
       </c>
-      <c r="F93" s="40">
+      <c r="F93" s="38">
         <v>24.328825078200602</v>
       </c>
-      <c r="G93" s="40">
+      <c r="G93" s="38">
         <v>38.911267637329303</v>
       </c>
-      <c r="H93" s="41">
+      <c r="H93" s="39">
         <v>36.759907284470202</v>
       </c>
-      <c r="I93" s="40">
+      <c r="I93" s="38">
         <v>16.213357857224999</v>
       </c>
-      <c r="J93" s="40">
+      <c r="J93" s="38">
         <v>20.797792849752799</v>
       </c>
-      <c r="K93" s="41">
+      <c r="K93" s="39">
         <v>62.988849293022199</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A94" s="35" t="s">
+      <c r="A94" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B94" s="39" t="s">
+      <c r="B94" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="C94" s="40">
+      <c r="C94" s="38">
         <v>19.481869831311599</v>
       </c>
-      <c r="D94" s="40">
+      <c r="D94" s="38">
         <v>37.699563472042499</v>
       </c>
-      <c r="E94" s="41">
+      <c r="E94" s="39">
         <v>42.818566696646002</v>
       </c>
-      <c r="F94" s="40">
+      <c r="F94" s="38">
         <v>11.240870883285099</v>
       </c>
-      <c r="G94" s="40">
+      <c r="G94" s="38">
         <v>33.309218685407203</v>
       </c>
-      <c r="H94" s="41">
+      <c r="H94" s="39">
         <v>55.4499104313077</v>
       </c>
-      <c r="I94" s="40">
+      <c r="I94" s="38">
         <v>9.0068728459706104</v>
       </c>
-      <c r="J94" s="40">
+      <c r="J94" s="38">
         <v>22.957966468676702</v>
       </c>
-      <c r="K94" s="41">
+      <c r="K94" s="39">
         <v>68.035160685352693</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A95" s="35" t="s">
+      <c r="A95" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B95" s="39" t="s">
+      <c r="B95" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="C95" s="40">
+      <c r="C95" s="38">
         <v>55.818625491722301</v>
       </c>
-      <c r="D95" s="40">
+      <c r="D95" s="38">
         <v>29.9846134890416</v>
       </c>
-      <c r="E95" s="41">
+      <c r="E95" s="39">
         <v>14.196761019236099</v>
       </c>
-      <c r="F95" s="40">
+      <c r="F95" s="38">
         <v>38.517778613299299</v>
       </c>
-      <c r="G95" s="40">
+      <c r="G95" s="38">
         <v>37.477915651336801</v>
       </c>
-      <c r="H95" s="41">
+      <c r="H95" s="39">
         <v>24.0043057353639</v>
       </c>
-      <c r="I95" s="40">
+      <c r="I95" s="38">
         <v>18.7031424898598</v>
       </c>
-      <c r="J95" s="40">
+      <c r="J95" s="38">
         <v>16.414777824060501</v>
       </c>
-      <c r="K95" s="41">
+      <c r="K95" s="39">
         <v>64.882079686079706</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="35" t="s">
+      <c r="A96" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B96" s="42" t="s">
+      <c r="B96" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="C96" s="43">
+      <c r="C96" s="41">
         <v>19.328038854544701</v>
       </c>
-      <c r="D96" s="43">
+      <c r="D96" s="41">
         <v>22.963586021603401</v>
       </c>
-      <c r="E96" s="44">
+      <c r="E96" s="42">
         <v>57.708375123851901</v>
       </c>
-      <c r="F96" s="43">
+      <c r="F96" s="41">
         <v>14.631258315596201</v>
       </c>
-      <c r="G96" s="43">
+      <c r="G96" s="41">
         <v>19.8826079497798</v>
       </c>
-      <c r="H96" s="44">
+      <c r="H96" s="42">
         <v>65.486133734624005</v>
       </c>
-      <c r="I96" s="43">
+      <c r="I96" s="41">
         <v>8.7187726189444099</v>
       </c>
-      <c r="J96" s="43">
+      <c r="J96" s="41">
         <v>11.760679107021399</v>
       </c>
-      <c r="K96" s="44">
+      <c r="K96" s="42">
         <v>79.520548274034198</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A97" s="35" t="s">
+      <c r="A97" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B97" s="39" t="s">
+      <c r="B97" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="C97" s="40">
+      <c r="C97" s="44">
         <v>43.932738849649198</v>
       </c>
-      <c r="D97" s="40">
+      <c r="D97" s="44">
         <v>35.408239286000402</v>
       </c>
-      <c r="E97" s="41">
+      <c r="E97" s="45">
         <v>20.6590218643504</v>
       </c>
-      <c r="F97" s="40">
+      <c r="F97" s="44">
         <v>26.807947699425601</v>
       </c>
-      <c r="G97" s="40">
+      <c r="G97" s="44">
         <v>40.2507888394993</v>
       </c>
-      <c r="H97" s="41">
+      <c r="H97" s="45">
         <v>32.941263461075103</v>
       </c>
-      <c r="I97" s="40">
+      <c r="I97" s="44">
         <v>14.5000132852366</v>
       </c>
-      <c r="J97" s="40">
+      <c r="J97" s="44">
         <v>18.808025379441101</v>
       </c>
-      <c r="K97" s="41">
+      <c r="K97" s="45">
         <v>66.691961335322304</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A98" s="35" t="s">
+    <row r="98" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B98" s="39" t="s">
+      <c r="B98" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="C98" s="40">
+      <c r="C98" s="46">
         <v>35.064747265404101</v>
       </c>
-      <c r="D98" s="40">
+      <c r="D98" s="46">
         <v>33.677131125602699</v>
       </c>
-      <c r="E98" s="41">
+      <c r="E98" s="47">
         <v>31.2581216089932</v>
       </c>
-      <c r="F98" s="40">
+      <c r="F98" s="46">
         <v>22.883976642512099</v>
       </c>
-      <c r="G98" s="40">
+      <c r="G98" s="46">
         <v>33.587915595913401</v>
       </c>
-      <c r="H98" s="41">
+      <c r="H98" s="47">
         <v>43.528107761574503</v>
       </c>
-      <c r="I98" s="40">
+      <c r="I98" s="46">
         <v>16.029252657298301</v>
       </c>
-      <c r="J98" s="40">
+      <c r="J98" s="46">
         <v>19.0524901456305</v>
       </c>
-      <c r="K98" s="41">
+      <c r="K98" s="47">
         <v>64.918257197071199</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="B99" s="42" t="s">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A99" s="48"/>
+      <c r="B99" s="48"/>
+      <c r="C99" s="48"/>
+      <c r="D99" s="48"/>
+      <c r="E99" s="48"/>
+      <c r="F99" s="48"/>
+      <c r="G99" s="48"/>
+      <c r="H99" s="48"/>
+      <c r="I99" s="48"/>
+      <c r="J99" s="48"/>
+      <c r="K99" s="48"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C99" s="43">
-        <v>45.509238912254098</v>
-      </c>
-      <c r="D99" s="43">
-        <v>32.179816653368299</v>
-      </c>
-      <c r="E99" s="44">
-        <v>22.3109444343775</v>
-      </c>
-      <c r="F99" s="43">
-        <v>27.0964482336631</v>
-      </c>
-      <c r="G99" s="43">
-        <v>35.676456575350102</v>
-      </c>
-      <c r="H99" s="44">
-        <v>37.227095190986802</v>
-      </c>
-      <c r="I99" s="43">
-        <v>16.004493125032301</v>
-      </c>
-      <c r="J99" s="43">
-        <v>15.749224039130899</v>
-      </c>
-      <c r="K99" s="44">
-        <v>68.246282835836794</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A100" s="45"/>
-      <c r="B100" s="46"/>
-      <c r="C100" s="47"/>
-      <c r="D100" s="47"/>
-      <c r="E100" s="47"/>
-      <c r="F100" s="47"/>
-      <c r="G100" s="47"/>
-      <c r="H100" s="47"/>
-      <c r="I100" s="47"/>
-      <c r="J100" s="47"/>
-      <c r="K100" s="47"/>
+      <c r="C100" s="49"/>
+      <c r="D100" s="49"/>
+      <c r="E100" s="49"/>
+      <c r="F100" s="49"/>
+      <c r="G100" s="49"/>
+      <c r="H100" s="49"/>
+      <c r="I100" s="49"/>
+      <c r="J100" s="49"/>
+      <c r="K100" s="49"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A101" s="48" t="s">
+      <c r="A101" s="1" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A102" s="48" t="s">
+      <c r="A102" s="1" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A103" s="48" t="s">
+      <c r="A103" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A104" s="48" t="s">
+      <c r="A104" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A105" s="48" t="s">
+    <row r="107" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B107" s="51" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B108" s="51" t="s">
+      <c r="B108" s="51"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B109" s="2" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B109" s="51"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
@@ -4799,32 +4824,27 @@
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="2"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B112" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B112" s="2"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B114" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B110" r:id="rId1"/>
-    <hyperlink ref="B111" r:id="rId2" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators"/>
-    <hyperlink ref="B114" r:id="rId3"/>
-    <hyperlink ref="B113" r:id="rId4"/>
-    <hyperlink ref="B108" r:id="rId5" display="If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{6BE5EABE-2419-40A4-BA8C-5579B1434C59}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{BFA381EB-FA00-4C6E-9B1F-7DA0EADDAF1D}"/>
+    <hyperlink ref="B107" r:id="rId1" display="If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{CDD31916-B2E1-4F3B-89C9-4EE5DC1D9C0C}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{5B5731A7-3233-46A6-8FBA-849B7F2B5D5E}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{CE62467B-B319-4F52-9D9E-B35CFEEFEF8B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/AfDD_2023_Annex_Table_Tab07.xlsx
+++ b/AfDD_2023_Annex_Table_Tab07.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF972251-D4F0-495B-838C-9174B865465F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18500099-6B3F-4996-8195-368BC63485D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DD8C06DB-B676-462D-876A-95943908042E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{31FD5624-1682-40C8-A33B-B3F48D219A59}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab07" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab07'!$A$2:$M$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab07'!$A$1:$E$98</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -48,13 +48,13 @@
     <t>Country (Resource-rich countries are shaded)</t>
   </si>
   <si>
-    <t>Employment as a % of population 15+, 2021</t>
-  </si>
-  <si>
-    <t>Employment as a % of population 15+, females, 2021</t>
-  </si>
-  <si>
-    <t>Employment as a % of population 15+, males, 2021</t>
+    <t>Employment as a % of population 15+, 2022</t>
+  </si>
+  <si>
+    <t>Employment as a % of population 15+, females, 2022</t>
+  </si>
+  <si>
+    <t>Employment as a % of population 15+, males, 2022</t>
   </si>
   <si>
     <t>Percentage of informal employment in total employment, most recent measure 2013-21</t>
@@ -270,7 +270,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>South Sudan</t>
+    <t>South Sudan*</t>
   </si>
   <si>
     <t>SDN</t>
@@ -402,7 +402,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigeria*</t>
+    <t>Nigeria</t>
   </si>
   <si>
     <t>SEN</t>
@@ -549,7 +549,7 @@
     <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Pa&gt;ses Africanos de L&gt;ngua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Com&gt;n del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
-    <t>Source: International Labour Organization - ILOSTAT (retrieved 26/09/2022).</t>
+    <t>Source: International Labour Organization - ILOSTAT (retrieved 14/05/2023).</t>
   </si>
   <si>
     <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
@@ -1388,11 +1388,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF09C9E7-8953-4119-9261-2E7958CCFFC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE1E12B-7F8B-4A0B-B0C0-76B7B6CAB04B}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N114"/>
+  <dimension ref="A1:P114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1444,10 +1444,10 @@
       <c r="H2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="K2" s="7" t="s">
@@ -1468,13 +1468,13 @@
         <v>15</v>
       </c>
       <c r="C3" s="11">
-        <v>76.501000000000005</v>
+        <v>76.873000000000005</v>
       </c>
       <c r="D3" s="12">
-        <v>74.463999999999999</v>
+        <v>74.884</v>
       </c>
       <c r="E3" s="13">
-        <v>78.644999999999996</v>
+        <v>78.965000000000003</v>
       </c>
       <c r="F3" s="11">
         <v>90.3</v>
@@ -1485,10 +1485,10 @@
       <c r="H3" s="12">
         <v>84.8</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="13">
         <v>61.325234952045697</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="12">
         <v>34.147803426918799</v>
       </c>
       <c r="K3" s="12">
@@ -1509,13 +1509,13 @@
         <v>17</v>
       </c>
       <c r="C4" s="15">
-        <v>64.296999999999997</v>
+        <v>64.962999999999994</v>
       </c>
       <c r="D4" s="16">
-        <v>59.195999999999998</v>
+        <v>60.015000000000001</v>
       </c>
       <c r="E4" s="17">
-        <v>69.662999999999997</v>
+        <v>70.16</v>
       </c>
       <c r="F4" s="15">
         <v>71.599999999999994</v>
@@ -1526,10 +1526,10 @@
       <c r="H4" s="16">
         <v>74.5</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="17">
         <v>26.0135181188231</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="16">
         <v>71.729410428263094</v>
       </c>
       <c r="K4" s="16">
@@ -1550,13 +1550,13 @@
         <v>19</v>
       </c>
       <c r="C5" s="19">
-        <v>50.338000000000001</v>
+        <v>50.481999999999999</v>
       </c>
       <c r="D5" s="20">
-        <v>46.881</v>
+        <v>47.075000000000003</v>
       </c>
       <c r="E5" s="21">
-        <v>53.887999999999998</v>
+        <v>53.987000000000002</v>
       </c>
       <c r="F5" s="19">
         <v>58.8</v>
@@ -1567,10 +1567,10 @@
       <c r="H5" s="20">
         <v>54.8</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="21">
         <v>32.057409761835203</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="20">
         <v>65.948138126092104</v>
       </c>
       <c r="K5" s="20">
@@ -1591,13 +1591,13 @@
         <v>21</v>
       </c>
       <c r="C6" s="19">
-        <v>64.108999999999995</v>
+        <v>64.334000000000003</v>
       </c>
       <c r="D6" s="20">
-        <v>57.125</v>
+        <v>57.386000000000003</v>
       </c>
       <c r="E6" s="21">
-        <v>71.379000000000005</v>
+        <v>71.575000000000003</v>
       </c>
       <c r="F6" s="19">
         <v>80.900000000000006</v>
@@ -1608,10 +1608,10 @@
       <c r="H6" s="20">
         <v>80.7</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="21">
         <v>52.095366639960098</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="20">
         <v>45.0883793334188</v>
       </c>
       <c r="K6" s="20">
@@ -1632,13 +1632,13 @@
         <v>23</v>
       </c>
       <c r="C7" s="19">
-        <v>67.641999999999996</v>
+        <v>67.634</v>
       </c>
       <c r="D7" s="20">
-        <v>63.152000000000001</v>
+        <v>63.295999999999999</v>
       </c>
       <c r="E7" s="21">
-        <v>72.585999999999999</v>
+        <v>72.408000000000001</v>
       </c>
       <c r="F7" s="19">
         <v>87.1</v>
@@ -1649,10 +1649,10 @@
       <c r="H7" s="20">
         <v>83.2</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="21">
         <v>59.953374977997299</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="20">
         <v>38.622552151694897</v>
       </c>
       <c r="K7" s="20">
@@ -1673,13 +1673,13 @@
         <v>25</v>
       </c>
       <c r="C8" s="19">
-        <v>78.161000000000001</v>
+        <v>78.483999999999995</v>
       </c>
       <c r="D8" s="20">
-        <v>77.826999999999998</v>
+        <v>78.22</v>
       </c>
       <c r="E8" s="21">
-        <v>78.52</v>
+        <v>78.768000000000001</v>
       </c>
       <c r="F8" s="19">
         <v>95.7</v>
@@ -1690,10 +1690,10 @@
       <c r="H8" s="20">
         <v>92.7</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="21">
         <v>82.596221606270802</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="20">
         <v>14.867289365174001</v>
       </c>
       <c r="K8" s="20">
@@ -1714,13 +1714,13 @@
         <v>27</v>
       </c>
       <c r="C9" s="19">
-        <v>58.47</v>
+        <v>58.866</v>
       </c>
       <c r="D9" s="20">
-        <v>55.170999999999999</v>
+        <v>55.643000000000001</v>
       </c>
       <c r="E9" s="21">
-        <v>62.131999999999998</v>
+        <v>62.448999999999998</v>
       </c>
       <c r="F9" s="19">
         <v>55.8</v>
@@ -1731,10 +1731,10 @@
       <c r="H9" s="20">
         <v>53.2</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="21">
         <v>32.035836273931899</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="20">
         <v>61.5345483321356</v>
       </c>
       <c r="K9" s="20">
@@ -1755,13 +1755,13 @@
         <v>29</v>
       </c>
       <c r="C10" s="19">
-        <v>55.76</v>
+        <v>56.805</v>
       </c>
       <c r="D10" s="20">
-        <v>49.637999999999998</v>
+        <v>50.607999999999997</v>
       </c>
       <c r="E10" s="21">
-        <v>62.457999999999998</v>
+        <v>63.564999999999998</v>
       </c>
       <c r="F10" s="19">
         <v>41.6</v>
@@ -1772,10 +1772,10 @@
       <c r="H10" s="20">
         <v>39.700000000000003</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="21">
         <v>10.4663099912175</v>
       </c>
-      <c r="J10" s="21">
+      <c r="J10" s="20">
         <v>83.482078196829903</v>
       </c>
       <c r="K10" s="20">
@@ -1796,13 +1796,13 @@
         <v>31</v>
       </c>
       <c r="C11" s="15">
-        <v>60.64</v>
+        <v>60.661999999999999</v>
       </c>
       <c r="D11" s="16">
-        <v>54.029000000000003</v>
+        <v>54.058</v>
       </c>
       <c r="E11" s="17">
-        <v>67.561999999999998</v>
+        <v>67.575999999999993</v>
       </c>
       <c r="F11" s="15">
         <v>86</v>
@@ -1813,10 +1813,10 @@
       <c r="H11" s="16">
         <v>82.4</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="17">
         <v>76.462562102587995</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="16">
         <v>23.2591221730749</v>
       </c>
       <c r="K11" s="16">
@@ -1837,13 +1837,13 @@
         <v>33</v>
       </c>
       <c r="C12" s="19">
-        <v>65.593000000000004</v>
+        <v>66.061000000000007</v>
       </c>
       <c r="D12" s="20">
-        <v>60.662999999999997</v>
+        <v>61.210999999999999</v>
       </c>
       <c r="E12" s="21">
-        <v>71.554000000000002</v>
+        <v>71.915999999999997</v>
       </c>
       <c r="F12" s="19">
         <v>88.4</v>
@@ -1854,10 +1854,10 @@
       <c r="H12" s="20">
         <v>85.4</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="21">
         <v>67.732262720096102</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J12" s="20">
         <v>31.9634433248562</v>
       </c>
       <c r="K12" s="20">
@@ -1878,13 +1878,13 @@
         <v>35</v>
       </c>
       <c r="C13" s="24">
-        <v>64.1511</v>
+        <v>64.516400000000004</v>
       </c>
       <c r="D13" s="25">
-        <v>59.814599999999999</v>
+        <v>60.239600000000003</v>
       </c>
       <c r="E13" s="26">
-        <v>68.838700000000003</v>
+        <v>69.136899999999997</v>
       </c>
       <c r="F13" s="24">
         <v>75.62</v>
@@ -1895,10 +1895,10 @@
       <c r="H13" s="25">
         <v>73.14</v>
       </c>
-      <c r="I13" s="25">
+      <c r="I13" s="26">
         <v>50.073809714476603</v>
       </c>
-      <c r="J13" s="26">
+      <c r="J13" s="25">
         <v>47.064276485845802</v>
       </c>
       <c r="K13" s="25">
@@ -1919,13 +1919,13 @@
         <v>37</v>
       </c>
       <c r="C14" s="19">
-        <v>79.11</v>
+        <v>79.733999999999995</v>
       </c>
       <c r="D14" s="20">
-        <v>80.692999999999998</v>
+        <v>81.456999999999994</v>
       </c>
       <c r="E14" s="21">
-        <v>77.471000000000004</v>
+        <v>77.95</v>
       </c>
       <c r="F14" s="19">
         <v>98.3</v>
@@ -1936,10 +1936,10 @@
       <c r="H14" s="20">
         <v>97.4</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="21">
         <v>86.9216695761951</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="20">
         <v>11.8142787669669</v>
       </c>
       <c r="K14" s="20">
@@ -1960,13 +1960,13 @@
         <v>39</v>
       </c>
       <c r="C15" s="19">
-        <v>71.290000000000006</v>
+        <v>71.771000000000001</v>
       </c>
       <c r="D15" s="20">
-        <v>66.891999999999996</v>
+        <v>67.447000000000003</v>
       </c>
       <c r="E15" s="21">
-        <v>75.774000000000001</v>
+        <v>76.180000000000007</v>
       </c>
       <c r="F15" s="19">
         <v>87.1</v>
@@ -1977,10 +1977,10 @@
       <c r="H15" s="20">
         <v>82.8</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="21">
         <v>72.325842453063999</v>
       </c>
-      <c r="J15" s="21">
+      <c r="J15" s="20">
         <v>24.763997654365799</v>
       </c>
       <c r="K15" s="20">
@@ -2001,13 +2001,13 @@
         <v>41</v>
       </c>
       <c r="C16" s="19">
-        <v>70.209000000000003</v>
+        <v>70.584000000000003</v>
       </c>
       <c r="D16" s="20">
-        <v>63.195</v>
+        <v>63.65</v>
       </c>
       <c r="E16" s="21">
-        <v>77.349999999999994</v>
+        <v>77.650999999999996</v>
       </c>
       <c r="F16" s="19" t="s">
         <v>42</v>
@@ -2018,10 +2018,10 @@
       <c r="H16" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16" s="21">
         <v>93.634041810777305</v>
       </c>
-      <c r="J16" s="21">
+      <c r="J16" s="20">
         <v>5.5386383254149898</v>
       </c>
       <c r="K16" s="20">
@@ -2042,13 +2042,13 @@
         <v>44</v>
       </c>
       <c r="C17" s="28">
-        <v>59.322000000000003</v>
+        <v>59.561999999999998</v>
       </c>
       <c r="D17" s="29">
-        <v>48.15</v>
+        <v>48.42</v>
       </c>
       <c r="E17" s="30">
-        <v>70.617999999999995</v>
+        <v>70.826999999999998</v>
       </c>
       <c r="F17" s="28">
         <v>96.9</v>
@@ -2059,10 +2059,10 @@
       <c r="H17" s="29">
         <v>95.2</v>
       </c>
-      <c r="I17" s="29">
+      <c r="I17" s="30">
         <v>90.6054985293692</v>
       </c>
-      <c r="J17" s="30">
+      <c r="J17" s="29">
         <v>8.0434784264326709</v>
       </c>
       <c r="K17" s="29">
@@ -2083,13 +2083,13 @@
         <v>46</v>
       </c>
       <c r="C18" s="28">
-        <v>67.253</v>
+        <v>67.590999999999994</v>
       </c>
       <c r="D18" s="29">
-        <v>66.466999999999999</v>
+        <v>66.856999999999999</v>
       </c>
       <c r="E18" s="30">
-        <v>68.052000000000007</v>
+        <v>68.337000000000003</v>
       </c>
       <c r="F18" s="28" t="s">
         <v>42</v>
@@ -2100,10 +2100,10 @@
       <c r="H18" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="29">
+      <c r="I18" s="30">
         <v>75.279424410874398</v>
       </c>
-      <c r="J18" s="30">
+      <c r="J18" s="29">
         <v>23.764577874842502</v>
       </c>
       <c r="K18" s="29">
@@ -2124,13 +2124,13 @@
         <v>48</v>
       </c>
       <c r="C19" s="15">
-        <v>65.768000000000001</v>
+        <v>66.233000000000004</v>
       </c>
       <c r="D19" s="16">
-        <v>62.524000000000001</v>
+        <v>63.076999999999998</v>
       </c>
       <c r="E19" s="17">
-        <v>69.117999999999995</v>
+        <v>69.494</v>
       </c>
       <c r="F19" s="15">
         <v>96.8</v>
@@ -2141,10 +2141,10 @@
       <c r="H19" s="16">
         <v>95.7</v>
       </c>
-      <c r="I19" s="16">
+      <c r="I19" s="17">
         <v>78.165108739692499</v>
       </c>
-      <c r="J19" s="17">
+      <c r="J19" s="16">
         <v>19.305749150206001</v>
       </c>
       <c r="K19" s="16">
@@ -2165,13 +2165,13 @@
         <v>50</v>
       </c>
       <c r="C20" s="28">
-        <v>54.472000000000001</v>
+        <v>55.03</v>
       </c>
       <c r="D20" s="29">
-        <v>50.404000000000003</v>
+        <v>50.991999999999997</v>
       </c>
       <c r="E20" s="30">
-        <v>57.887999999999998</v>
+        <v>58.435000000000002</v>
       </c>
       <c r="F20" s="28" t="s">
         <v>42</v>
@@ -2182,10 +2182,10 @@
       <c r="H20" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="I20" s="29">
+      <c r="I20" s="30">
         <v>79.259503024332005</v>
       </c>
-      <c r="J20" s="30">
+      <c r="J20" s="29">
         <v>12.214222839561</v>
       </c>
       <c r="K20" s="29">
@@ -2206,13 +2206,13 @@
         <v>52</v>
       </c>
       <c r="C21" s="28">
-        <v>46.941000000000003</v>
+        <v>47.654000000000003</v>
       </c>
       <c r="D21" s="29">
-        <v>38.225000000000001</v>
+        <v>39.000999999999998</v>
       </c>
       <c r="E21" s="30">
-        <v>55.216000000000001</v>
+        <v>55.899000000000001</v>
       </c>
       <c r="F21" s="28" t="s">
         <v>42</v>
@@ -2223,10 +2223,10 @@
       <c r="H21" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="29">
+      <c r="I21" s="30">
         <v>31.154120813725701</v>
       </c>
-      <c r="J21" s="30">
+      <c r="J21" s="29">
         <v>66.384194239466794</v>
       </c>
       <c r="K21" s="29">
@@ -2247,13 +2247,13 @@
         <v>54</v>
       </c>
       <c r="C22" s="19">
-        <v>53.587000000000003</v>
+        <v>53.765999999999998</v>
       </c>
       <c r="D22" s="20">
-        <v>37.616999999999997</v>
+        <v>37.866</v>
       </c>
       <c r="E22" s="21">
-        <v>69.766000000000005</v>
+        <v>69.903000000000006</v>
       </c>
       <c r="F22" s="19" t="s">
         <v>42</v>
@@ -2264,10 +2264,10 @@
       <c r="H22" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="I22" s="20">
+      <c r="I22" s="21">
         <v>59.429578857180502</v>
       </c>
-      <c r="J22" s="21">
+      <c r="J22" s="20">
         <v>38.367494892242803</v>
       </c>
       <c r="K22" s="20">
@@ -2288,13 +2288,13 @@
         <v>55</v>
       </c>
       <c r="C23" s="24">
-        <v>63.105777777777803</v>
+        <v>63.547222222222203</v>
       </c>
       <c r="D23" s="25">
-        <v>57.129666666666701</v>
+        <v>57.640777777777799</v>
       </c>
       <c r="E23" s="26">
-        <v>69.028111111111102</v>
+        <v>69.408444444444498</v>
       </c>
       <c r="F23" s="24">
         <v>94.775000000000006</v>
@@ -2305,10 +2305,10 @@
       <c r="H23" s="25">
         <v>92.775000000000006</v>
       </c>
-      <c r="I23" s="25">
+      <c r="I23" s="26">
         <v>74.0860875794679</v>
       </c>
-      <c r="J23" s="26">
+      <c r="J23" s="25">
         <v>23.3551813521666</v>
       </c>
       <c r="K23" s="25">
@@ -2329,13 +2329,13 @@
         <v>57</v>
       </c>
       <c r="C24" s="19">
-        <v>43.817</v>
+        <v>44.161999999999999</v>
       </c>
       <c r="D24" s="20">
-        <v>32.904000000000003</v>
+        <v>33.252000000000002</v>
       </c>
       <c r="E24" s="21">
-        <v>54.744</v>
+        <v>55.082000000000001</v>
       </c>
       <c r="F24" s="19">
         <v>87.5</v>
@@ -2346,10 +2346,10 @@
       <c r="H24" s="20">
         <v>85.5</v>
       </c>
-      <c r="I24" s="20">
+      <c r="I24" s="21">
         <v>57.838984098110302</v>
       </c>
-      <c r="J24" s="21">
+      <c r="J24" s="20">
         <v>41.219853388234498</v>
       </c>
       <c r="K24" s="20">
@@ -2370,13 +2370,13 @@
         <v>59</v>
       </c>
       <c r="C25" s="19">
-        <v>31.143999999999998</v>
+        <v>31.387</v>
       </c>
       <c r="D25" s="20">
-        <v>17.925000000000001</v>
+        <v>18.193000000000001</v>
       </c>
       <c r="E25" s="21">
-        <v>44.771000000000001</v>
+        <v>45.002000000000002</v>
       </c>
       <c r="F25" s="19">
         <v>50.5</v>
@@ -2387,10 +2387,10 @@
       <c r="H25" s="20">
         <v>45.7</v>
       </c>
-      <c r="I25" s="20">
+      <c r="I25" s="21">
         <v>47.031421051405701</v>
       </c>
-      <c r="J25" s="21">
+      <c r="J25" s="20">
         <v>48.590827568537001</v>
       </c>
       <c r="K25" s="20">
@@ -2411,13 +2411,13 @@
         <v>61</v>
       </c>
       <c r="C26" s="19">
-        <v>77.001999999999995</v>
+        <v>77.596000000000004</v>
       </c>
       <c r="D26" s="20">
-        <v>70.204999999999998</v>
+        <v>70.912999999999997</v>
       </c>
       <c r="E26" s="21">
-        <v>84.198999999999998</v>
+        <v>84.66</v>
       </c>
       <c r="F26" s="19" t="s">
         <v>42</v>
@@ -2428,10 +2428,10 @@
       <c r="H26" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="I26" s="20">
+      <c r="I26" s="21">
         <v>85.615926582377199</v>
       </c>
-      <c r="J26" s="21">
+      <c r="J26" s="20">
         <v>13.1307888827884</v>
       </c>
       <c r="K26" s="20">
@@ -2452,13 +2452,13 @@
         <v>63</v>
       </c>
       <c r="C27" s="19">
-        <v>80.396000000000001</v>
+        <v>80.582999999999998</v>
       </c>
       <c r="D27" s="20">
-        <v>74.753</v>
+        <v>75.027000000000001</v>
       </c>
       <c r="E27" s="21">
-        <v>86.091999999999999</v>
+        <v>86.194999999999993</v>
       </c>
       <c r="F27" s="19">
         <v>85.2</v>
@@ -2469,10 +2469,10 @@
       <c r="H27" s="20">
         <v>83.6</v>
       </c>
-      <c r="I27" s="20">
+      <c r="I27" s="21">
         <v>85.190964649014205</v>
       </c>
-      <c r="J27" s="21">
+      <c r="J27" s="20">
         <v>14.3722036233621</v>
       </c>
       <c r="K27" s="20">
@@ -2493,13 +2493,13 @@
         <v>65</v>
       </c>
       <c r="C28" s="19">
-        <v>73.853999999999999</v>
+        <v>74.363</v>
       </c>
       <c r="D28" s="20">
-        <v>72.137</v>
+        <v>72.722999999999999</v>
       </c>
       <c r="E28" s="21">
-        <v>75.628</v>
+        <v>76.058000000000007</v>
       </c>
       <c r="F28" s="19">
         <v>86.5</v>
@@ -2510,10 +2510,10 @@
       <c r="H28" s="20">
         <v>83.1</v>
       </c>
-      <c r="I28" s="20">
+      <c r="I28" s="21">
         <v>60.560118885647498</v>
       </c>
-      <c r="J28" s="21">
+      <c r="J28" s="20">
         <v>37.946950584549199</v>
       </c>
       <c r="K28" s="20">
@@ -2534,13 +2534,13 @@
         <v>67</v>
       </c>
       <c r="C29" s="19">
-        <v>85.174000000000007</v>
+        <v>85.900999999999996</v>
       </c>
       <c r="D29" s="20">
-        <v>82.837999999999994</v>
+        <v>83.725999999999999</v>
       </c>
       <c r="E29" s="21">
-        <v>87.531000000000006</v>
+        <v>88.096999999999994</v>
       </c>
       <c r="F29" s="19">
         <v>95.2</v>
@@ -2551,10 +2551,10 @@
       <c r="H29" s="20">
         <v>93.8</v>
       </c>
-      <c r="I29" s="20">
+      <c r="I29" s="21">
         <v>84.332857448939606</v>
       </c>
-      <c r="J29" s="21">
+      <c r="J29" s="20">
         <v>10.715107747487499</v>
       </c>
       <c r="K29" s="20">
@@ -2575,13 +2575,13 @@
         <v>69</v>
       </c>
       <c r="C30" s="19">
-        <v>58.19</v>
+        <v>58.537999999999997</v>
       </c>
       <c r="D30" s="20">
-        <v>45.378</v>
+        <v>45.825000000000003</v>
       </c>
       <c r="E30" s="21">
-        <v>71.472999999999999</v>
+        <v>71.742000000000004</v>
       </c>
       <c r="F30" s="19">
         <v>30.1</v>
@@ -2592,10 +2592,10 @@
       <c r="H30" s="20">
         <v>33.200000000000003</v>
       </c>
-      <c r="I30" s="20">
+      <c r="I30" s="21">
         <v>15.834629497546601</v>
       </c>
-      <c r="J30" s="21">
+      <c r="J30" s="20">
         <v>81.192413787177003</v>
       </c>
       <c r="K30" s="20">
@@ -2616,13 +2616,13 @@
         <v>71</v>
       </c>
       <c r="C31" s="19">
-        <v>55.777999999999999</v>
+        <v>54.902000000000001</v>
       </c>
       <c r="D31" s="20">
-        <v>49.445</v>
+        <v>48.584000000000003</v>
       </c>
       <c r="E31" s="21">
-        <v>62.667000000000002</v>
+        <v>61.756</v>
       </c>
       <c r="F31" s="19">
         <v>87.1</v>
@@ -2633,10 +2633,10 @@
       <c r="H31" s="20">
         <v>85.4</v>
       </c>
-      <c r="I31" s="20">
+      <c r="I31" s="21">
         <v>66.337557376035406</v>
       </c>
-      <c r="J31" s="21">
+      <c r="J31" s="20">
         <v>33.612514348722598</v>
       </c>
       <c r="K31" s="20">
@@ -2674,10 +2674,10 @@
       <c r="H32" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="I32" s="20" t="s">
+      <c r="I32" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="J32" s="21" t="s">
+      <c r="J32" s="20" t="s">
         <v>42</v>
       </c>
       <c r="K32" s="20" t="s">
@@ -2698,13 +2698,13 @@
         <v>75</v>
       </c>
       <c r="C33" s="19">
-        <v>33.866</v>
+        <v>33.966999999999999</v>
       </c>
       <c r="D33" s="20">
-        <v>21.094000000000001</v>
+        <v>21.192</v>
       </c>
       <c r="E33" s="21">
-        <v>46.841000000000001</v>
+        <v>46.945999999999998</v>
       </c>
       <c r="F33" s="19">
         <v>82.5</v>
@@ -2715,10 +2715,10 @@
       <c r="H33" s="20">
         <v>81.099999999999994</v>
       </c>
-      <c r="I33" s="20">
+      <c r="I33" s="21">
         <v>88.482697026928506</v>
       </c>
-      <c r="J33" s="21">
+      <c r="J33" s="20">
         <v>10.3911246215551</v>
       </c>
       <c r="K33" s="20">
@@ -2735,40 +2735,40 @@
       <c r="A34" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="15">
-        <v>70.299000000000007</v>
-      </c>
-      <c r="D34" s="16">
-        <v>70.14</v>
-      </c>
-      <c r="E34" s="17">
-        <v>70.465999999999994</v>
-      </c>
-      <c r="F34" s="15" t="s">
+      <c r="C34" s="28">
+        <v>70.929000000000002</v>
+      </c>
+      <c r="D34" s="29">
+        <v>70.852000000000004</v>
+      </c>
+      <c r="E34" s="30">
+        <v>71.010000000000005</v>
+      </c>
+      <c r="F34" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="G34" s="16" t="s">
+      <c r="G34" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="H34" s="16" t="s">
+      <c r="H34" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="I34" s="16">
+      <c r="I34" s="30">
         <v>89.934336624480295</v>
       </c>
-      <c r="J34" s="17">
+      <c r="J34" s="29">
         <v>8.7215716266481902</v>
       </c>
-      <c r="K34" s="16">
+      <c r="K34" s="29">
         <v>1.34411941874451</v>
       </c>
-      <c r="L34" s="16">
+      <c r="L34" s="29">
         <v>46.6432155270045</v>
       </c>
-      <c r="M34" s="17">
+      <c r="M34" s="30">
         <v>43.291121097475703</v>
       </c>
     </row>
@@ -2780,13 +2780,13 @@
         <v>79</v>
       </c>
       <c r="C35" s="19">
-        <v>48.488999999999997</v>
+        <v>48.762999999999998</v>
       </c>
       <c r="D35" s="20">
-        <v>29.009</v>
+        <v>29.353999999999999</v>
       </c>
       <c r="E35" s="21">
-        <v>68.384</v>
+        <v>68.590999999999994</v>
       </c>
       <c r="F35" s="19" t="s">
         <v>42</v>
@@ -2797,10 +2797,10 @@
       <c r="H35" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="I35" s="20">
+      <c r="I35" s="21">
         <v>47.551667467301499</v>
       </c>
-      <c r="J35" s="21">
+      <c r="J35" s="20">
         <v>47.7212025282887</v>
       </c>
       <c r="K35" s="20">
@@ -2821,13 +2821,13 @@
         <v>81</v>
       </c>
       <c r="C36" s="19">
-        <v>81.828000000000003</v>
+        <v>82.597999999999999</v>
       </c>
       <c r="D36" s="20">
-        <v>77.834999999999994</v>
+        <v>78.855000000000004</v>
       </c>
       <c r="E36" s="21">
-        <v>86.057000000000002</v>
+        <v>86.558000000000007</v>
       </c>
       <c r="F36" s="19">
         <v>93.3</v>
@@ -2838,10 +2838,10 @@
       <c r="H36" s="20">
         <v>90.9</v>
       </c>
-      <c r="I36" s="20">
+      <c r="I36" s="21">
         <v>81.921985722162702</v>
       </c>
-      <c r="J36" s="21">
+      <c r="J36" s="20">
         <v>15.0896310339308</v>
       </c>
       <c r="K36" s="20">
@@ -2862,13 +2862,13 @@
         <v>83</v>
       </c>
       <c r="C37" s="19">
-        <v>69.5</v>
+        <v>69.745999999999995</v>
       </c>
       <c r="D37" s="20">
-        <v>67.319999999999993</v>
+        <v>67.611999999999995</v>
       </c>
       <c r="E37" s="21">
-        <v>71.787999999999997</v>
+        <v>71.980999999999995</v>
       </c>
       <c r="F37" s="19">
         <v>95.2</v>
@@ -2879,10 +2879,10 @@
       <c r="H37" s="20">
         <v>93.1</v>
       </c>
-      <c r="I37" s="20">
+      <c r="I37" s="21">
         <v>74.068361112980497</v>
       </c>
-      <c r="J37" s="21">
+      <c r="J37" s="20">
         <v>21.898599427208399</v>
       </c>
       <c r="K37" s="20">
@@ -2903,13 +2903,13 @@
         <v>84</v>
       </c>
       <c r="C38" s="24">
-        <v>62.256692307692298</v>
+        <v>62.571923076923099</v>
       </c>
       <c r="D38" s="25">
-        <v>54.691000000000003</v>
+        <v>55.085230769230797</v>
       </c>
       <c r="E38" s="26">
-        <v>70.049307692307707</v>
+        <v>70.282923076923097</v>
       </c>
       <c r="F38" s="24">
         <v>79.31</v>
@@ -2920,10 +2920,10 @@
       <c r="H38" s="25">
         <v>77.540000000000006</v>
       </c>
-      <c r="I38" s="25">
+      <c r="I38" s="26">
         <v>68.053962118686897</v>
       </c>
-      <c r="J38" s="26">
+      <c r="J38" s="25">
         <v>29.5848299360377</v>
       </c>
       <c r="K38" s="25">
@@ -2944,13 +2944,13 @@
         <v>86</v>
       </c>
       <c r="C39" s="28">
-        <v>40.055</v>
+        <v>40.582000000000001</v>
       </c>
       <c r="D39" s="29">
-        <v>15.909000000000001</v>
+        <v>16.359000000000002</v>
       </c>
       <c r="E39" s="30">
-        <v>63.387</v>
+        <v>63.997999999999998</v>
       </c>
       <c r="F39" s="28" t="s">
         <v>42</v>
@@ -2961,10 +2961,10 @@
       <c r="H39" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="I39" s="29">
+      <c r="I39" s="30">
         <v>26.071179577490799</v>
       </c>
-      <c r="J39" s="30">
+      <c r="J39" s="29">
         <v>69.474112921470507</v>
       </c>
       <c r="K39" s="29">
@@ -2985,13 +2985,13 @@
         <v>88</v>
       </c>
       <c r="C40" s="19">
-        <v>41.317</v>
+        <v>41.823999999999998</v>
       </c>
       <c r="D40" s="20">
-        <v>14.635999999999999</v>
+        <v>15.122999999999999</v>
       </c>
       <c r="E40" s="21">
-        <v>67.712999999999994</v>
+        <v>68.253</v>
       </c>
       <c r="F40" s="19">
         <v>67</v>
@@ -3002,10 +3002,10 @@
       <c r="H40" s="20">
         <v>69.7</v>
       </c>
-      <c r="I40" s="20">
+      <c r="I40" s="21">
         <v>18.1331574977633</v>
       </c>
-      <c r="J40" s="21">
+      <c r="J40" s="20">
         <v>72.880766125316498</v>
       </c>
       <c r="K40" s="20">
@@ -3026,13 +3026,13 @@
         <v>90</v>
       </c>
       <c r="C41" s="28">
-        <v>47.000999999999998</v>
+        <v>47.470999999999997</v>
       </c>
       <c r="D41" s="29">
-        <v>33.847000000000001</v>
+        <v>34.368000000000002</v>
       </c>
       <c r="E41" s="30">
-        <v>59.99</v>
+        <v>60.415999999999997</v>
       </c>
       <c r="F41" s="28" t="s">
         <v>42</v>
@@ -3043,10 +3043,10 @@
       <c r="H41" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="I41" s="29">
+      <c r="I41" s="30">
         <v>26.494751382760398</v>
       </c>
-      <c r="J41" s="30">
+      <c r="J41" s="29">
         <v>70.743251178631994</v>
       </c>
       <c r="K41" s="29">
@@ -3067,13 +3067,13 @@
         <v>92</v>
       </c>
       <c r="C42" s="28">
-        <v>40.557000000000002</v>
+        <v>40.840000000000003</v>
       </c>
       <c r="D42" s="29">
-        <v>26.100999999999999</v>
+        <v>26.36</v>
       </c>
       <c r="E42" s="30">
-        <v>56.338000000000001</v>
+        <v>56.616</v>
       </c>
       <c r="F42" s="28">
         <v>89.4</v>
@@ -3084,10 +3084,10 @@
       <c r="H42" s="29">
         <v>88.2</v>
       </c>
-      <c r="I42" s="29">
+      <c r="I42" s="30">
         <v>53.047375931307101</v>
       </c>
-      <c r="J42" s="30">
+      <c r="J42" s="29">
         <v>43.036928260016197</v>
       </c>
       <c r="K42" s="29">
@@ -3108,13 +3108,13 @@
         <v>94</v>
       </c>
       <c r="C43" s="19">
-        <v>45.3</v>
+        <v>45.573</v>
       </c>
       <c r="D43" s="20">
-        <v>20.733000000000001</v>
+        <v>21.436</v>
       </c>
       <c r="E43" s="21">
-        <v>69.837999999999994</v>
+        <v>69.698999999999998</v>
       </c>
       <c r="F43" s="19" t="s">
         <v>42</v>
@@ -3125,10 +3125,10 @@
       <c r="H43" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="I43" s="20">
+      <c r="I43" s="21">
         <v>45.6346644603898</v>
       </c>
-      <c r="J43" s="21">
+      <c r="J43" s="20">
         <v>52.086377450409103</v>
       </c>
       <c r="K43" s="20">
@@ -3149,13 +3149,13 @@
         <v>96</v>
       </c>
       <c r="C44" s="19">
-        <v>45.234000000000002</v>
+        <v>45.734999999999999</v>
       </c>
       <c r="D44" s="20">
-        <v>25.687000000000001</v>
+        <v>26.209</v>
       </c>
       <c r="E44" s="21">
-        <v>65.811000000000007</v>
+        <v>66.322999999999993</v>
       </c>
       <c r="F44" s="19">
         <v>61.3</v>
@@ -3166,10 +3166,10 @@
       <c r="H44" s="20">
         <v>61.6</v>
       </c>
-      <c r="I44" s="20">
+      <c r="I44" s="21">
         <v>16.1848358491075</v>
       </c>
-      <c r="J44" s="21">
+      <c r="J44" s="20">
         <v>78.553830837440003</v>
       </c>
       <c r="K44" s="20">
@@ -3190,13 +3190,13 @@
         <v>97</v>
       </c>
       <c r="C45" s="24">
-        <v>43.244</v>
+        <v>43.670833333333299</v>
       </c>
       <c r="D45" s="25">
-        <v>22.818833333333298</v>
+        <v>23.309166666666702</v>
       </c>
       <c r="E45" s="26">
-        <v>63.846166666666697</v>
+        <v>64.217500000000001</v>
       </c>
       <c r="F45" s="24">
         <v>72.566666666666706</v>
@@ -3207,10 +3207,10 @@
       <c r="H45" s="25">
         <v>73.1666666666667</v>
       </c>
-      <c r="I45" s="25">
+      <c r="I45" s="26">
         <v>30.927660783136499</v>
       </c>
-      <c r="J45" s="26">
+      <c r="J45" s="25">
         <v>64.462544462213998</v>
       </c>
       <c r="K45" s="25">
@@ -3231,13 +3231,13 @@
         <v>99</v>
       </c>
       <c r="C46" s="19">
-        <v>62.277000000000001</v>
+        <v>62.588000000000001</v>
       </c>
       <c r="D46" s="20">
-        <v>55.9</v>
+        <v>56.250999999999998</v>
       </c>
       <c r="E46" s="21">
-        <v>68.745000000000005</v>
+        <v>69.007999999999996</v>
       </c>
       <c r="F46" s="19">
         <v>96.9</v>
@@ -3248,10 +3248,10 @@
       <c r="H46" s="20">
         <v>95.3</v>
       </c>
-      <c r="I46" s="20">
+      <c r="I46" s="21">
         <v>88.405165513633307</v>
       </c>
-      <c r="J46" s="21">
+      <c r="J46" s="20">
         <v>10.1686660340696</v>
       </c>
       <c r="K46" s="20">
@@ -3272,13 +3272,13 @@
         <v>101</v>
       </c>
       <c r="C47" s="19">
-        <v>65.349000000000004</v>
+        <v>65.552999999999997</v>
       </c>
       <c r="D47" s="20">
-        <v>58.033999999999999</v>
+        <v>58.27</v>
       </c>
       <c r="E47" s="21">
-        <v>72.944999999999993</v>
+        <v>73.105999999999995</v>
       </c>
       <c r="F47" s="19">
         <v>95.7</v>
@@ -3289,10 +3289,10 @@
       <c r="H47" s="20">
         <v>93.8</v>
       </c>
-      <c r="I47" s="20">
+      <c r="I47" s="21">
         <v>86.460040770043904</v>
       </c>
-      <c r="J47" s="21">
+      <c r="J47" s="20">
         <v>12.9082836057195</v>
       </c>
       <c r="K47" s="20">
@@ -3313,13 +3313,13 @@
         <v>103</v>
       </c>
       <c r="C48" s="28">
-        <v>55.302</v>
+        <v>56.131</v>
       </c>
       <c r="D48" s="29">
-        <v>48.875999999999998</v>
+        <v>49.87</v>
       </c>
       <c r="E48" s="30">
-        <v>61.892000000000003</v>
+        <v>62.552</v>
       </c>
       <c r="F48" s="28">
         <v>63.8</v>
@@ -3330,10 +3330,10 @@
       <c r="H48" s="29">
         <v>63.7</v>
       </c>
-      <c r="I48" s="29">
+      <c r="I48" s="30">
         <v>27.055828173073198</v>
       </c>
-      <c r="J48" s="30">
+      <c r="J48" s="29">
         <v>68.735638898625197</v>
       </c>
       <c r="K48" s="29">
@@ -3354,13 +3354,13 @@
         <v>105</v>
       </c>
       <c r="C49" s="19">
-        <v>64.751999999999995</v>
+        <v>65.453999999999994</v>
       </c>
       <c r="D49" s="20">
-        <v>56.685000000000002</v>
+        <v>57.521000000000001</v>
       </c>
       <c r="E49" s="21">
-        <v>72.619</v>
+        <v>73.197999999999993</v>
       </c>
       <c r="F49" s="19">
         <v>91.7</v>
@@ -3371,10 +3371,10 @@
       <c r="H49" s="20">
         <v>88.5</v>
       </c>
-      <c r="I49" s="20">
+      <c r="I49" s="21">
         <v>71.019314031821295</v>
       </c>
-      <c r="J49" s="21">
+      <c r="J49" s="20">
         <v>27.413568371163901</v>
       </c>
       <c r="K49" s="20">
@@ -3395,13 +3395,13 @@
         <v>107</v>
       </c>
       <c r="C50" s="19">
-        <v>60.868000000000002</v>
+        <v>61.484000000000002</v>
       </c>
       <c r="D50" s="20">
-        <v>56.512</v>
+        <v>57.262</v>
       </c>
       <c r="E50" s="21">
-        <v>65.378</v>
+        <v>65.849999999999994</v>
       </c>
       <c r="F50" s="19">
         <v>79.5</v>
@@ -3412,10 +3412,10 @@
       <c r="H50" s="20">
         <v>72.599999999999994</v>
       </c>
-      <c r="I50" s="20">
+      <c r="I50" s="21">
         <v>72.598267829175697</v>
       </c>
-      <c r="J50" s="21">
+      <c r="J50" s="20">
         <v>25.6994703327201</v>
       </c>
       <c r="K50" s="20">
@@ -3436,13 +3436,13 @@
         <v>109</v>
       </c>
       <c r="C51" s="15">
-        <v>68.638000000000005</v>
+        <v>68.83</v>
       </c>
       <c r="D51" s="16">
-        <v>65.075999999999993</v>
+        <v>65.296999999999997</v>
       </c>
       <c r="E51" s="17">
-        <v>72.281000000000006</v>
+        <v>72.444000000000003</v>
       </c>
       <c r="F51" s="15">
         <v>78.099999999999994</v>
@@ -3453,10 +3453,10 @@
       <c r="H51" s="16">
         <v>77.2</v>
       </c>
-      <c r="I51" s="16">
+      <c r="I51" s="17">
         <v>69.830650470367104</v>
       </c>
-      <c r="J51" s="17">
+      <c r="J51" s="16">
         <v>24.954916773050801</v>
       </c>
       <c r="K51" s="16">
@@ -3477,13 +3477,13 @@
         <v>111</v>
       </c>
       <c r="C52" s="19">
-        <v>52.265999999999998</v>
+        <v>52.366999999999997</v>
       </c>
       <c r="D52" s="20">
-        <v>41.575000000000003</v>
+        <v>41.665999999999997</v>
       </c>
       <c r="E52" s="21">
-        <v>63.658999999999999</v>
+        <v>63.731000000000002</v>
       </c>
       <c r="F52" s="19" t="s">
         <v>42</v>
@@ -3494,10 +3494,10 @@
       <c r="H52" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="I52" s="20">
+      <c r="I52" s="21">
         <v>91.260612865134902</v>
       </c>
-      <c r="J52" s="21">
+      <c r="J52" s="20">
         <v>7.3894061699478</v>
       </c>
       <c r="K52" s="20">
@@ -3518,13 +3518,13 @@
         <v>113</v>
       </c>
       <c r="C53" s="19">
-        <v>55.555</v>
+        <v>55.920999999999999</v>
       </c>
       <c r="D53" s="20">
-        <v>48.667999999999999</v>
+        <v>49.073</v>
       </c>
       <c r="E53" s="21">
-        <v>62.866</v>
+        <v>63.177999999999997</v>
       </c>
       <c r="F53" s="19">
         <v>94.8</v>
@@ -3535,10 +3535,10 @@
       <c r="H53" s="20">
         <v>92.5</v>
       </c>
-      <c r="I53" s="20">
+      <c r="I53" s="21">
         <v>81.175366586813595</v>
       </c>
-      <c r="J53" s="21">
+      <c r="J53" s="20">
         <v>17.6707813906648</v>
       </c>
       <c r="K53" s="20">
@@ -3559,13 +3559,13 @@
         <v>115</v>
       </c>
       <c r="C54" s="19">
-        <v>76.263000000000005</v>
+        <v>76.591999999999999</v>
       </c>
       <c r="D54" s="20">
-        <v>72.013000000000005</v>
+        <v>72.397000000000006</v>
       </c>
       <c r="E54" s="21">
-        <v>80.653000000000006</v>
+        <v>80.917000000000002</v>
       </c>
       <c r="F54" s="19">
         <v>89.6</v>
@@ -3576,10 +3576,10 @@
       <c r="H54" s="20">
         <v>85.7</v>
       </c>
-      <c r="I54" s="20">
+      <c r="I54" s="21">
         <v>78.9295853252884</v>
       </c>
-      <c r="J54" s="21">
+      <c r="J54" s="20">
         <v>19.484641488088698</v>
       </c>
       <c r="K54" s="20">
@@ -3600,13 +3600,13 @@
         <v>117</v>
       </c>
       <c r="C55" s="19">
-        <v>66.86</v>
+        <v>67.503</v>
       </c>
       <c r="D55" s="20">
-        <v>52.906999999999996</v>
+        <v>54.244999999999997</v>
       </c>
       <c r="E55" s="21">
-        <v>80.575000000000003</v>
+        <v>80.540000000000006</v>
       </c>
       <c r="F55" s="19">
         <v>94</v>
@@ -3617,10 +3617,10 @@
       <c r="H55" s="20">
         <v>93</v>
       </c>
-      <c r="I55" s="20">
+      <c r="I55" s="21">
         <v>80.711589823793005</v>
       </c>
-      <c r="J55" s="21">
+      <c r="J55" s="20">
         <v>18.6719134585836</v>
       </c>
       <c r="K55" s="20">
@@ -3641,13 +3641,13 @@
         <v>119</v>
       </c>
       <c r="C56" s="19">
-        <v>72.852999999999994</v>
+        <v>73.454999999999998</v>
       </c>
       <c r="D56" s="20">
-        <v>61.703000000000003</v>
+        <v>62.45</v>
       </c>
       <c r="E56" s="21">
-        <v>83.724000000000004</v>
+        <v>84.185000000000002</v>
       </c>
       <c r="F56" s="19">
         <v>73.599999999999994</v>
@@ -3658,10 +3658,10 @@
       <c r="H56" s="20">
         <v>68.8</v>
       </c>
-      <c r="I56" s="20">
+      <c r="I56" s="21">
         <v>94.316919794196593</v>
       </c>
-      <c r="J56" s="21">
+      <c r="J56" s="20">
         <v>4.8975555863514799</v>
       </c>
       <c r="K56" s="20">
@@ -3678,40 +3678,40 @@
       <c r="A57" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B57" s="31" t="s">
+      <c r="B57" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="C57" s="28">
-        <v>58.35</v>
-      </c>
-      <c r="D57" s="29">
-        <v>51.536999999999999</v>
-      </c>
-      <c r="E57" s="30">
-        <v>65.06</v>
-      </c>
-      <c r="F57" s="28" t="s">
+      <c r="C57" s="19">
+        <v>58.866999999999997</v>
+      </c>
+      <c r="D57" s="20">
+        <v>52.088000000000001</v>
+      </c>
+      <c r="E57" s="21">
+        <v>65.539000000000001</v>
+      </c>
+      <c r="F57" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="G57" s="29" t="s">
+      <c r="G57" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="H57" s="29" t="s">
+      <c r="H57" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="I57" s="29">
+      <c r="I57" s="21">
         <v>78.635315880367997</v>
       </c>
-      <c r="J57" s="30">
+      <c r="J57" s="20">
         <v>19.417447666394501</v>
       </c>
-      <c r="K57" s="29">
+      <c r="K57" s="20">
         <v>1.94723795863411</v>
       </c>
-      <c r="L57" s="29">
+      <c r="L57" s="20">
         <v>65.404122197252704</v>
       </c>
-      <c r="M57" s="30">
+      <c r="M57" s="21">
         <v>13.231193683115199</v>
       </c>
     </row>
@@ -3723,13 +3723,13 @@
         <v>123</v>
       </c>
       <c r="C58" s="19">
-        <v>50.851999999999997</v>
+        <v>51.276000000000003</v>
       </c>
       <c r="D58" s="20">
-        <v>37.959000000000003</v>
+        <v>38.56</v>
       </c>
       <c r="E58" s="21">
-        <v>64.748000000000005</v>
+        <v>64.956999999999994</v>
       </c>
       <c r="F58" s="19">
         <v>90.2</v>
@@ -3740,10 +3740,10 @@
       <c r="H58" s="20">
         <v>89.2</v>
       </c>
-      <c r="I58" s="20">
+      <c r="I58" s="21">
         <v>64.607405131432998</v>
       </c>
-      <c r="J58" s="21">
+      <c r="J58" s="20">
         <v>33.481032091722497</v>
       </c>
       <c r="K58" s="20">
@@ -3764,13 +3764,13 @@
         <v>125</v>
       </c>
       <c r="C59" s="19">
-        <v>53.168999999999997</v>
+        <v>53.331000000000003</v>
       </c>
       <c r="D59" s="20">
-        <v>50.927999999999997</v>
+        <v>51.115000000000002</v>
       </c>
       <c r="E59" s="21">
-        <v>55.426000000000002</v>
+        <v>55.561999999999998</v>
       </c>
       <c r="F59" s="19">
         <v>93.1</v>
@@ -3781,10 +3781,10 @@
       <c r="H59" s="20">
         <v>89.3</v>
       </c>
-      <c r="I59" s="20">
+      <c r="I59" s="21">
         <v>88.102482193921603</v>
       </c>
-      <c r="J59" s="21">
+      <c r="J59" s="20">
         <v>9.0288000618376891</v>
       </c>
       <c r="K59" s="20">
@@ -3805,13 +3805,13 @@
         <v>127</v>
       </c>
       <c r="C60" s="15">
-        <v>57.665999999999997</v>
+        <v>58.024000000000001</v>
       </c>
       <c r="D60" s="16">
-        <v>55.991</v>
+        <v>56.405999999999999</v>
       </c>
       <c r="E60" s="17">
-        <v>59.332999999999998</v>
+        <v>59.634</v>
       </c>
       <c r="F60" s="15">
         <v>90.1</v>
@@ -3822,10 +3822,10 @@
       <c r="H60" s="16">
         <v>83.6</v>
       </c>
-      <c r="I60" s="16">
+      <c r="I60" s="17">
         <v>76.309097890504702</v>
       </c>
-      <c r="J60" s="17">
+      <c r="J60" s="16">
         <v>22.264929237383701</v>
       </c>
       <c r="K60" s="16">
@@ -3846,13 +3846,13 @@
         <v>128</v>
       </c>
       <c r="C61" s="24">
-        <v>61.401333333333298</v>
+        <v>61.8250666666667</v>
       </c>
       <c r="D61" s="25">
-        <v>54.2909333333333</v>
+        <v>54.831400000000002</v>
       </c>
       <c r="E61" s="26">
-        <v>68.660266666666701</v>
+        <v>68.960066666666705</v>
       </c>
       <c r="F61" s="24">
         <v>87.007692307692295</v>
@@ -3863,10 +3863,10 @@
       <c r="H61" s="25">
         <v>84.092307692307699</v>
       </c>
-      <c r="I61" s="25">
+      <c r="I61" s="26">
         <v>76.627842818637902</v>
       </c>
-      <c r="J61" s="26">
+      <c r="J61" s="25">
         <v>21.479136744421599</v>
       </c>
       <c r="K61" s="25">
@@ -3887,13 +3887,13 @@
         <v>129</v>
       </c>
       <c r="C62" s="34">
-        <v>60.363849056603797</v>
+        <v>60.753301886792499</v>
       </c>
       <c r="D62" s="35">
-        <v>52.350433962264198</v>
+        <v>52.822584905660399</v>
       </c>
       <c r="E62" s="36">
-        <v>68.552113207547194</v>
+        <v>68.857150943396206</v>
       </c>
       <c r="F62" s="34">
         <v>81.93</v>
@@ -3904,10 +3904,10 @@
       <c r="H62" s="35">
         <v>79.765000000000001</v>
       </c>
-      <c r="I62" s="35">
+      <c r="I62" s="36">
         <v>63.909396224175403</v>
       </c>
-      <c r="J62" s="36">
+      <c r="J62" s="35">
         <v>33.479330266718001</v>
       </c>
       <c r="K62" s="35">
@@ -3928,13 +3928,13 @@
         <v>130</v>
       </c>
       <c r="C63" s="38">
-        <v>60.218520325203301</v>
+        <v>60.798785123967001</v>
       </c>
       <c r="D63" s="39">
-        <v>49.716463414634198</v>
+        <v>50.409214876033097</v>
       </c>
       <c r="E63" s="40">
-        <v>70.276406504065093</v>
+        <v>70.7301570247934</v>
       </c>
       <c r="F63" s="38">
         <v>41.4413793103448</v>
@@ -3945,10 +3945,10 @@
       <c r="H63" s="39">
         <v>41.820689655172401</v>
       </c>
-      <c r="I63" s="39">
+      <c r="I63" s="40">
         <v>26.748740704452398</v>
       </c>
-      <c r="J63" s="40">
+      <c r="J63" s="39">
         <v>69.887651817271902</v>
       </c>
       <c r="K63" s="39">
@@ -3969,13 +3969,13 @@
         <v>131</v>
       </c>
       <c r="C64" s="34">
-        <v>62.102620689655197</v>
+        <v>62.818068965517298</v>
       </c>
       <c r="D64" s="35">
-        <v>51.332034482758601</v>
+        <v>52.307172413793097</v>
       </c>
       <c r="E64" s="36">
-        <v>73.291896551724193</v>
+        <v>73.748448275862103</v>
       </c>
       <c r="F64" s="34">
         <v>56.890909090909098</v>
@@ -3986,10 +3986,10 @@
       <c r="H64" s="35">
         <v>58.145454545454598</v>
       </c>
-      <c r="I64" s="35">
+      <c r="I64" s="36">
         <v>33.914648463266602</v>
       </c>
-      <c r="J64" s="36">
+      <c r="J64" s="35">
         <v>62.358781035746901</v>
       </c>
       <c r="K64" s="35">
@@ -4010,13 +4010,13 @@
         <v>132</v>
       </c>
       <c r="C65" s="43">
-        <v>55.559035714285699</v>
+        <v>55.938749999999999</v>
       </c>
       <c r="D65" s="44">
-        <v>40.6650357142857</v>
+        <v>41.1044642857143</v>
       </c>
       <c r="E65" s="45">
-        <v>70.390714285714296</v>
+        <v>70.724785714285701</v>
       </c>
       <c r="F65" s="43">
         <v>73.224999999999994</v>
@@ -4027,10 +4027,10 @@
       <c r="H65" s="44">
         <v>73.034999999999997</v>
       </c>
-      <c r="I65" s="44">
+      <c r="I65" s="45">
         <v>44.855917145794798</v>
       </c>
-      <c r="J65" s="45">
+      <c r="J65" s="44">
         <v>52.152316710359202</v>
       </c>
       <c r="K65" s="44">
@@ -4051,13 +4051,13 @@
         <v>133</v>
       </c>
       <c r="C66" s="47">
-        <v>60.262284090909098</v>
+        <v>60.784931034482803</v>
       </c>
       <c r="D66" s="48">
-        <v>50.5096477272727</v>
+        <v>51.144321839080497</v>
       </c>
       <c r="E66" s="49">
-        <v>69.757159090909099</v>
+        <v>70.159643678160904</v>
       </c>
       <c r="F66" s="47">
         <v>54.193700787401603</v>
@@ -4068,10 +4068,10 @@
       <c r="H66" s="48">
         <v>53.771653543307103</v>
       </c>
-      <c r="I66" s="48">
+      <c r="I66" s="49">
         <v>37.939165378005299</v>
       </c>
-      <c r="J66" s="49">
+      <c r="J66" s="48">
         <v>58.923782259434702</v>
       </c>
       <c r="K66" s="48">
@@ -4092,13 +4092,13 @@
         <v>134</v>
       </c>
       <c r="C67" s="51">
-        <v>58.992649999999998</v>
+        <v>59.287199999999999</v>
       </c>
       <c r="D67" s="52">
-        <v>50.256</v>
+        <v>50.613750000000003</v>
       </c>
       <c r="E67" s="53">
-        <v>67.990549999999999</v>
+        <v>68.221649999999997</v>
       </c>
       <c r="F67" s="51">
         <v>79.029411764705898</v>
@@ -4109,10 +4109,10 @@
       <c r="H67" s="52">
         <v>77.335294117647095</v>
       </c>
-      <c r="I67" s="52">
+      <c r="I67" s="53">
         <v>58.7475158902161</v>
       </c>
-      <c r="J67" s="53">
+      <c r="J67" s="52">
         <v>38.694135917109499</v>
       </c>
       <c r="K67" s="52">
@@ -4133,13 +4133,13 @@
         <v>135</v>
       </c>
       <c r="C68" s="43">
-        <v>54.908520000000003</v>
+        <v>55.284680000000002</v>
       </c>
       <c r="D68" s="44">
-        <v>43.878439999999998</v>
+        <v>44.346960000000003</v>
       </c>
       <c r="E68" s="45">
-        <v>66.158240000000006</v>
+        <v>66.439920000000001</v>
       </c>
       <c r="F68" s="43">
         <v>84.044444444444494</v>
@@ -4150,10 +4150,10 @@
       <c r="H68" s="44">
         <v>81.711111111111094</v>
       </c>
-      <c r="I68" s="44">
+      <c r="I68" s="45">
         <v>68.5474900187522</v>
       </c>
-      <c r="J68" s="45">
+      <c r="J68" s="44">
         <v>29.036153534907001</v>
       </c>
       <c r="K68" s="44">
@@ -4174,37 +4174,37 @@
         <v>136</v>
       </c>
       <c r="C69" s="43">
-        <v>71.728166666666695</v>
+        <v>71.215000000000003</v>
       </c>
       <c r="D69" s="44">
-        <v>69.594999999999999</v>
+        <v>69.022857142857205</v>
       </c>
       <c r="E69" s="45">
-        <v>74.012833333333404</v>
+        <v>73.543857142857206</v>
       </c>
       <c r="F69" s="43">
-        <v>92.08</v>
+        <v>92.866666666666703</v>
       </c>
       <c r="G69" s="44">
-        <v>94.34</v>
+        <v>94.9166666666667</v>
       </c>
       <c r="H69" s="44">
-        <v>89.98</v>
-      </c>
-      <c r="I69" s="44">
-        <v>76.624004882916907</v>
-      </c>
-      <c r="J69" s="45">
-        <v>21.513924298004302</v>
+        <v>90.933333333333394</v>
+      </c>
+      <c r="I69" s="45">
+        <v>76.844162576741994</v>
+      </c>
+      <c r="J69" s="44">
+        <v>21.198470705461698</v>
       </c>
       <c r="K69" s="44">
-        <v>1.86207428526892</v>
+        <v>1.95736968881642</v>
       </c>
       <c r="L69" s="44">
-        <v>48.023791845141098</v>
+        <v>50.047148934867202</v>
       </c>
       <c r="M69" s="45">
-        <v>28.600213037775799</v>
+        <v>26.797013641874798</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.35">
@@ -4215,13 +4215,13 @@
         <v>137</v>
       </c>
       <c r="C70" s="43">
-        <v>63.657363636363598</v>
+        <v>63.972727272727298</v>
       </c>
       <c r="D70" s="44">
-        <v>58.006909090909097</v>
+        <v>58.384999999999998</v>
       </c>
       <c r="E70" s="45">
-        <v>69.324090909090899</v>
+        <v>69.581545454545505</v>
       </c>
       <c r="F70" s="43">
         <v>92.75</v>
@@ -4232,10 +4232,10 @@
       <c r="H70" s="44">
         <v>90.216666666666697</v>
       </c>
-      <c r="I70" s="44">
+      <c r="I70" s="45">
         <v>72.221598231208404</v>
       </c>
-      <c r="J70" s="45">
+      <c r="J70" s="44">
         <v>25.2688136313764</v>
       </c>
       <c r="K70" s="44">
@@ -4256,13 +4256,13 @@
         <v>138</v>
       </c>
       <c r="C71" s="43">
-        <v>61.401333333333298</v>
+        <v>61.8250666666667</v>
       </c>
       <c r="D71" s="44">
-        <v>54.290933333333399</v>
+        <v>54.831400000000002</v>
       </c>
       <c r="E71" s="45">
-        <v>68.660266666666701</v>
+        <v>68.960066666666705</v>
       </c>
       <c r="F71" s="43">
         <v>87.007692307692295</v>
@@ -4273,10 +4273,10 @@
       <c r="H71" s="44">
         <v>84.092307692307699</v>
       </c>
-      <c r="I71" s="44">
+      <c r="I71" s="45">
         <v>76.627842818637902</v>
       </c>
-      <c r="J71" s="45">
+      <c r="J71" s="44">
         <v>21.479136744421599</v>
       </c>
       <c r="K71" s="44">
@@ -4297,13 +4297,13 @@
         <v>139</v>
       </c>
       <c r="C72" s="43">
-        <v>60.568750000000001</v>
+        <v>60.91675</v>
       </c>
       <c r="D72" s="44">
-        <v>52.822875000000003</v>
+        <v>53.233249999999998</v>
       </c>
       <c r="E72" s="45">
-        <v>68.521124999999998</v>
+        <v>68.805374999999998</v>
       </c>
       <c r="F72" s="43">
         <v>79.98</v>
@@ -4314,10 +4314,10 @@
       <c r="H72" s="44">
         <v>77.319999999999993</v>
       </c>
-      <c r="I72" s="44">
+      <c r="I72" s="45">
         <v>72.304436675016902</v>
       </c>
-      <c r="J72" s="45">
+      <c r="J72" s="44">
         <v>25.346658607867099</v>
       </c>
       <c r="K72" s="44">
@@ -4338,13 +4338,13 @@
         <v>140</v>
       </c>
       <c r="C73" s="43">
-        <v>65.085866666666703</v>
+        <v>65.506399999999999</v>
       </c>
       <c r="D73" s="44">
-        <v>59.975000000000001</v>
+        <v>60.4754</v>
       </c>
       <c r="E73" s="45">
-        <v>70.487333333333297</v>
+        <v>70.822800000000001</v>
       </c>
       <c r="F73" s="43">
         <v>77.273333333333397</v>
@@ -4355,10 +4355,10 @@
       <c r="H73" s="44">
         <v>75.366666666666703</v>
       </c>
-      <c r="I73" s="44">
+      <c r="I73" s="45">
         <v>54.588777510081201</v>
       </c>
-      <c r="J73" s="45">
+      <c r="J73" s="44">
         <v>42.544367997699602</v>
       </c>
       <c r="K73" s="44">
@@ -4379,13 +4379,13 @@
         <v>141</v>
       </c>
       <c r="C74" s="43">
-        <v>43.629399999999997</v>
+        <v>44.040199999999999</v>
       </c>
       <c r="D74" s="44">
-        <v>24.455400000000001</v>
+        <v>24.946400000000001</v>
       </c>
       <c r="E74" s="45">
-        <v>63.072800000000001</v>
+        <v>63.410400000000003</v>
       </c>
       <c r="F74" s="43">
         <v>75.349999999999994</v>
@@ -4396,10 +4396,10 @@
       <c r="H74" s="44">
         <v>74.900000000000006</v>
       </c>
-      <c r="I74" s="44">
+      <c r="I74" s="45">
         <v>33.486561440211098</v>
       </c>
-      <c r="J74" s="45">
+      <c r="J74" s="44">
         <v>62.778900129593502</v>
       </c>
       <c r="K74" s="44">
@@ -4420,13 +4420,13 @@
         <v>142</v>
       </c>
       <c r="C75" s="47">
-        <v>63.821199999999997</v>
+        <v>64.234999999999999</v>
       </c>
       <c r="D75" s="48">
-        <v>57.490400000000001</v>
+        <v>57.982599999999998</v>
       </c>
       <c r="E75" s="49">
-        <v>70.337800000000001</v>
+        <v>70.673199999999994</v>
       </c>
       <c r="F75" s="47">
         <v>86.15</v>
@@ -4437,10 +4437,10 @@
       <c r="H75" s="48">
         <v>83.424999999999997</v>
       </c>
-      <c r="I75" s="48">
+      <c r="I75" s="49">
         <v>62.316446035076801</v>
       </c>
-      <c r="J75" s="49">
+      <c r="J75" s="48">
         <v>34.757801594725102</v>
       </c>
       <c r="K75" s="48">
@@ -4461,13 +4461,13 @@
         <v>143</v>
       </c>
       <c r="C76" s="51">
-        <v>66.428222222222303</v>
+        <v>66.647666666666694</v>
       </c>
       <c r="D76" s="52">
-        <v>57.808999999999997</v>
+        <v>58.102444444444501</v>
       </c>
       <c r="E76" s="53">
-        <v>74.965999999999994</v>
+        <v>75.116444444444397</v>
       </c>
       <c r="F76" s="51">
         <v>72.242857142857204</v>
@@ -4478,10 +4478,10 @@
       <c r="H76" s="52">
         <v>71.585714285714303</v>
       </c>
-      <c r="I76" s="52">
+      <c r="I76" s="53">
         <v>38.352725910099302</v>
       </c>
-      <c r="J76" s="53">
+      <c r="J76" s="52">
         <v>59.3315224368231</v>
       </c>
       <c r="K76" s="52">
@@ -4502,37 +4502,37 @@
         <v>144</v>
       </c>
       <c r="C77" s="43">
-        <v>61.729833333333403</v>
+        <v>63.0251818181818</v>
       </c>
       <c r="D77" s="44">
-        <v>51.322083333333303</v>
+        <v>53.187272727272699</v>
       </c>
       <c r="E77" s="45">
-        <v>72.538499999999999</v>
+        <v>73.235727272727303</v>
       </c>
       <c r="F77" s="43">
-        <v>54.566666666666698</v>
+        <v>54.227272727272798</v>
       </c>
       <c r="G77" s="44">
-        <v>53.283333333333303</v>
+        <v>53.209090909090897</v>
       </c>
       <c r="H77" s="44">
-        <v>55.358333333333299</v>
-      </c>
-      <c r="I77" s="44">
-        <v>37.403850161948</v>
-      </c>
-      <c r="J77" s="45">
-        <v>59.172608108567204</v>
+        <v>54.8272727272727</v>
+      </c>
+      <c r="I77" s="45">
+        <v>37.171059079748801</v>
+      </c>
+      <c r="J77" s="44">
+        <v>59.253427252857598</v>
       </c>
       <c r="K77" s="44">
-        <v>3.4235378973560699</v>
+        <v>3.5755094868894899</v>
       </c>
       <c r="L77" s="44">
-        <v>31.257705070248001</v>
+        <v>30.523330652815499</v>
       </c>
       <c r="M77" s="45">
-        <v>6.1461450916999798</v>
+        <v>6.6477284269333099</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.35">
@@ -4543,13 +4543,13 @@
         <v>145</v>
       </c>
       <c r="C78" s="43">
-        <v>58.846814814814799</v>
+        <v>59.615259259259297</v>
       </c>
       <c r="D78" s="44">
-        <v>53.135074074074097</v>
+        <v>54.032814814814799</v>
       </c>
       <c r="E78" s="45">
-        <v>64.9087777777778</v>
+        <v>65.533740740740797</v>
       </c>
       <c r="F78" s="43">
         <v>8.0346153846153907</v>
@@ -4560,10 +4560,10 @@
       <c r="H78" s="44">
         <v>8.6807692307692292</v>
       </c>
-      <c r="I78" s="44">
+      <c r="I78" s="45">
         <v>10.2640458362676</v>
       </c>
-      <c r="J78" s="45">
+      <c r="J78" s="44">
         <v>85.788970278080598</v>
       </c>
       <c r="K78" s="44">
@@ -4584,13 +4584,13 @@
         <v>146</v>
       </c>
       <c r="C79" s="47">
-        <v>60.993184210526302</v>
+        <v>61.667236842105297</v>
       </c>
       <c r="D79" s="48">
-        <v>54.597578947368397</v>
+        <v>55.474263157894796</v>
       </c>
       <c r="E79" s="49">
-        <v>67.707394736842105</v>
+        <v>68.169868421052598</v>
       </c>
       <c r="F79" s="47">
         <v>14.715151515151501</v>
@@ -4601,10 +4601,10 @@
       <c r="H79" s="48">
         <v>15.012121212121199</v>
       </c>
-      <c r="I79" s="48">
+      <c r="I79" s="49">
         <v>12.673306256677799</v>
       </c>
-      <c r="J79" s="49">
+      <c r="J79" s="48">
         <v>83.367834330291004</v>
       </c>
       <c r="K79" s="48">
@@ -4625,13 +4625,13 @@
         <v>147</v>
       </c>
       <c r="C80" s="51">
-        <v>54.575400000000002</v>
+        <v>56.266300000000001</v>
       </c>
       <c r="D80" s="52">
-        <v>45.398000000000003</v>
+        <v>47.796300000000002</v>
       </c>
       <c r="E80" s="53">
-        <v>63.708599999999997</v>
+        <v>64.705500000000001</v>
       </c>
       <c r="F80" s="51">
         <v>85.1</v>
@@ -4642,20 +4642,20 @@
       <c r="H80" s="52">
         <v>82.974999999999994</v>
       </c>
-      <c r="I80" s="52">
-        <v>54.892823267534602</v>
-      </c>
-      <c r="J80" s="53">
-        <v>41.596165573236</v>
+      <c r="I80" s="53">
+        <v>56.0227253419459</v>
+      </c>
+      <c r="J80" s="52">
+        <v>40.526577969261403</v>
       </c>
       <c r="K80" s="52">
-        <v>3.51097468321906</v>
+        <v>3.4506628292301</v>
       </c>
       <c r="L80" s="52">
-        <v>48.823043533271402</v>
+        <v>46.946952866246598</v>
       </c>
       <c r="M80" s="53">
-        <v>6.0697797342632196</v>
+        <v>9.0757724756992708</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.35">
@@ -4666,13 +4666,13 @@
         <v>148</v>
       </c>
       <c r="C81" s="43">
-        <v>59.903590909090902</v>
+        <v>60.311523809523798</v>
       </c>
       <c r="D81" s="44">
-        <v>43.651363636363598</v>
+        <v>43.782809523809497</v>
       </c>
       <c r="E81" s="45">
-        <v>72.404499999999999</v>
+        <v>72.946142857142902</v>
       </c>
       <c r="F81" s="43">
         <v>59.774999999999999</v>
@@ -4683,10 +4683,10 @@
       <c r="H81" s="44">
         <v>61.024999999999999</v>
       </c>
-      <c r="I81" s="44">
+      <c r="I81" s="45">
         <v>26.516339767375499</v>
       </c>
-      <c r="J81" s="45">
+      <c r="J81" s="44">
         <v>70.196903042819997</v>
       </c>
       <c r="K81" s="44">
@@ -4707,13 +4707,13 @@
         <v>149</v>
       </c>
       <c r="C82" s="43">
-        <v>61.71</v>
+        <v>61.796790697674403</v>
       </c>
       <c r="D82" s="44">
-        <v>53.9672790697674</v>
+        <v>53.991488372093002</v>
       </c>
       <c r="E82" s="45">
-        <v>69.678511627907</v>
+        <v>69.822651162790706</v>
       </c>
       <c r="F82" s="43">
         <v>81.577777777777797</v>
@@ -4724,20 +4724,20 @@
       <c r="H82" s="44">
         <v>79.408333333333402</v>
       </c>
-      <c r="I82" s="44">
-        <v>66.006273655952299</v>
-      </c>
-      <c r="J82" s="45">
-        <v>31.5916941489231</v>
+      <c r="I82" s="45">
+        <v>65.743505731670595</v>
+      </c>
+      <c r="J82" s="44">
+        <v>31.8404354521731</v>
       </c>
       <c r="K82" s="44">
-        <v>2.4020259146709599</v>
+        <v>2.4160519272265302</v>
       </c>
       <c r="L82" s="44">
-        <v>49.129048673460403</v>
+        <v>49.565348828582401</v>
       </c>
       <c r="M82" s="45">
-        <v>16.877224982491899</v>
+        <v>16.178156903088102</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4748,13 +4748,13 @@
         <v>150</v>
       </c>
       <c r="C83" s="47">
-        <v>60.2871188118812</v>
+        <v>60.901110000000003</v>
       </c>
       <c r="D83" s="48">
-        <v>51.037574257425803</v>
+        <v>51.800759999999997</v>
       </c>
       <c r="E83" s="49">
-        <v>69.812861386138593</v>
+        <v>70.264799999999994</v>
       </c>
       <c r="F83" s="47">
         <v>39.584810126582298</v>
@@ -4765,10 +4765,10 @@
       <c r="H83" s="48">
         <v>39.875949367088602</v>
       </c>
-      <c r="I83" s="48">
+      <c r="I83" s="49">
         <v>26.799362690746399</v>
       </c>
-      <c r="J83" s="49">
+      <c r="J83" s="48">
         <v>69.820290164182197</v>
       </c>
       <c r="K83" s="48">
@@ -4789,37 +4789,37 @@
         <v>151</v>
       </c>
       <c r="C84" s="51">
-        <v>65.285434782608704</v>
+        <v>65.396249999999995</v>
       </c>
       <c r="D84" s="52">
-        <v>59.072869565217403</v>
+        <v>59.2634166666667</v>
       </c>
       <c r="E84" s="53">
-        <v>71.660434782608704</v>
+        <v>71.692208333333298</v>
       </c>
       <c r="F84" s="51">
-        <v>90.577777777777797</v>
+        <v>90.336842105263202</v>
       </c>
       <c r="G84" s="52">
-        <v>93.85</v>
+        <v>93.657894736842096</v>
       </c>
       <c r="H84" s="52">
-        <v>87.8055555555556</v>
-      </c>
-      <c r="I84" s="52">
-        <v>81.011054200314405</v>
-      </c>
-      <c r="J84" s="53">
-        <v>17.250907840141199</v>
+        <v>87.521052631578996</v>
+      </c>
+      <c r="I84" s="53">
+        <v>80.821533696242497</v>
+      </c>
+      <c r="J84" s="52">
+        <v>17.501250104013401</v>
       </c>
       <c r="K84" s="52">
-        <v>1.7380416020088001</v>
+        <v>1.6772196904391501</v>
       </c>
       <c r="L84" s="52">
-        <v>58.190918193815101</v>
+        <v>57.729399012364297</v>
       </c>
       <c r="M84" s="53">
-        <v>22.8201360064993</v>
+        <v>23.0921346838782</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.35">
@@ -4830,13 +4830,13 @@
         <v>152</v>
       </c>
       <c r="C85" s="43">
-        <v>52.082666666666697</v>
+        <v>52.508000000000003</v>
       </c>
       <c r="D85" s="44">
-        <v>30.5966666666667</v>
+        <v>30.996666666666702</v>
       </c>
       <c r="E85" s="45">
-        <v>73.761333333333297</v>
+        <v>74.210666666666697</v>
       </c>
       <c r="F85" s="43">
         <v>81.900000000000006</v>
@@ -4847,10 +4847,10 @@
       <c r="H85" s="44">
         <v>80</v>
       </c>
-      <c r="I85" s="44">
+      <c r="I85" s="45">
         <v>57.800856410458799</v>
       </c>
-      <c r="J85" s="45">
+      <c r="J85" s="44">
         <v>39.001688775554001</v>
       </c>
       <c r="K85" s="44">
@@ -4871,37 +4871,37 @@
         <v>153</v>
       </c>
       <c r="C86" s="43">
-        <v>57.069043478260902</v>
+        <v>57.322181818181797</v>
       </c>
       <c r="D86" s="44">
-        <v>47.132086956521803</v>
+        <v>47.310136363636403</v>
       </c>
       <c r="E86" s="45">
-        <v>67.228347826087003</v>
+        <v>67.552272727272793</v>
       </c>
       <c r="F86" s="43">
-        <v>80.427777777777806</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="G86" s="44">
-        <v>82.627777777777794</v>
+        <v>82.182352941176504</v>
       </c>
       <c r="H86" s="44">
-        <v>78.3055555555556</v>
-      </c>
-      <c r="I86" s="44">
-        <v>56.638481920509697</v>
-      </c>
-      <c r="J86" s="45">
-        <v>40.450152383075697</v>
+        <v>78.064705882352996</v>
+      </c>
+      <c r="I86" s="45">
+        <v>55.737387366778897</v>
+      </c>
+      <c r="J86" s="44">
+        <v>41.2315628471667</v>
       </c>
       <c r="K86" s="44">
-        <v>2.9113338947759302</v>
+        <v>3.03101653888679</v>
       </c>
       <c r="L86" s="44">
-        <v>46.072260067635199</v>
+        <v>46.024887441664198</v>
       </c>
       <c r="M86" s="45">
-        <v>10.5662218528746</v>
+        <v>9.71249992511469</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.35">
@@ -4912,37 +4912,37 @@
         <v>154</v>
       </c>
       <c r="C87" s="43">
-        <v>59.180071428571402</v>
+        <v>59.125481481481501</v>
       </c>
       <c r="D87" s="44">
-        <v>47.124178571428601</v>
+        <v>46.841703703703701</v>
       </c>
       <c r="E87" s="45">
-        <v>71.536678571428595</v>
+        <v>71.7444814814815</v>
       </c>
       <c r="F87" s="43">
-        <v>76.1944444444445</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="G87" s="44">
-        <v>76.75</v>
+        <v>75.636842105263199</v>
       </c>
       <c r="H87" s="44">
-        <v>75.983333333333405</v>
-      </c>
-      <c r="I87" s="44">
-        <v>50.0955264638296</v>
-      </c>
-      <c r="J87" s="45">
-        <v>47.073096908063299</v>
+        <v>74.900000000000006</v>
+      </c>
+      <c r="I87" s="45">
+        <v>50.052898719465396</v>
+      </c>
+      <c r="J87" s="44">
+        <v>46.9671030610454</v>
       </c>
       <c r="K87" s="44">
-        <v>2.8312926382338999</v>
+        <v>2.97991422961592</v>
       </c>
       <c r="L87" s="44">
-        <v>36.682035012452303</v>
+        <v>36.700136692552398</v>
       </c>
       <c r="M87" s="45">
-        <v>13.413491451377199</v>
+        <v>13.352762026913</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.35">
@@ -4953,13 +4953,13 @@
         <v>155</v>
       </c>
       <c r="C88" s="43">
-        <v>55.018714285714303</v>
+        <v>55.6181428571429</v>
       </c>
       <c r="D88" s="44">
-        <v>47.408428571428601</v>
+        <v>48.064571428571398</v>
       </c>
       <c r="E88" s="45">
-        <v>62.6885714285714</v>
+        <v>63.238</v>
       </c>
       <c r="F88" s="43">
         <v>49.774999999999999</v>
@@ -4970,10 +4970,10 @@
       <c r="H88" s="44">
         <v>50.15</v>
       </c>
-      <c r="I88" s="44">
+      <c r="I88" s="45">
         <v>31.6083813003339</v>
       </c>
-      <c r="J88" s="45">
+      <c r="J88" s="44">
         <v>63.897159857437899</v>
       </c>
       <c r="K88" s="44">
@@ -4994,37 +4994,37 @@
         <v>156</v>
       </c>
       <c r="C89" s="43">
-        <v>58.666785714285702</v>
+        <v>59.518205128205203</v>
       </c>
       <c r="D89" s="44">
-        <v>47.815047619047597</v>
+        <v>48.828128205128202</v>
       </c>
       <c r="E89" s="45">
-        <v>69.796595238095307</v>
+        <v>70.399461538461594</v>
       </c>
       <c r="F89" s="43">
-        <v>50.838709677419402</v>
+        <v>50.5137931034483</v>
       </c>
       <c r="G89" s="44">
-        <v>48.916129032258098</v>
+        <v>48.6034482758621</v>
       </c>
       <c r="H89" s="44">
-        <v>51.532258064516199</v>
-      </c>
-      <c r="I89" s="44">
-        <v>28.253101618150399</v>
-      </c>
-      <c r="J89" s="45">
-        <v>68.235395321958094</v>
+        <v>51.151724137931097</v>
+      </c>
+      <c r="I89" s="45">
+        <v>28.302722535834299</v>
+      </c>
+      <c r="J89" s="44">
+        <v>68.207463749558897</v>
       </c>
       <c r="K89" s="44">
-        <v>3.5116309469558402</v>
+        <v>3.48994799602435</v>
       </c>
       <c r="L89" s="44">
-        <v>22.287602788107399</v>
+        <v>22.197627496082799</v>
       </c>
       <c r="M89" s="45">
-        <v>5.9654988300429599</v>
+        <v>6.1050950397514798</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5035,37 +5035,37 @@
         <v>157</v>
       </c>
       <c r="C90" s="47">
-        <v>62.811020408163301</v>
+        <v>63.3095490196079</v>
       </c>
       <c r="D90" s="48">
-        <v>54.208755102040797</v>
+        <v>54.847156862745102</v>
       </c>
       <c r="E90" s="49">
-        <v>69.863571428571504</v>
+        <v>70.337372549019605</v>
       </c>
       <c r="F90" s="47">
-        <v>12.4514285714286</v>
+        <v>13.6527777777778</v>
       </c>
       <c r="G90" s="48">
-        <v>11.9571428571429</v>
+        <v>13.05</v>
       </c>
       <c r="H90" s="48">
-        <v>12.9142857142857</v>
-      </c>
-      <c r="I90" s="48">
-        <v>9.9474076816446093</v>
-      </c>
-      <c r="J90" s="49">
-        <v>86.468554953640805</v>
+        <v>14.186111111111099</v>
+      </c>
+      <c r="I90" s="49">
+        <v>10.649763132779</v>
+      </c>
+      <c r="J90" s="48">
+        <v>85.833628901662493</v>
       </c>
       <c r="K90" s="48">
-        <v>3.5840434476474301</v>
+        <v>3.5166138099450701</v>
       </c>
       <c r="L90" s="48">
-        <v>9.2148332917829006</v>
+        <v>9.7881215982698002</v>
       </c>
       <c r="M90" s="49">
-        <v>0.73257438986170997</v>
+        <v>0.86164153450915004</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.35">
@@ -5076,13 +5076,13 @@
         <v>158</v>
       </c>
       <c r="C91" s="51">
-        <v>62.632636363636401</v>
+        <v>62.9495151515152</v>
       </c>
       <c r="D91" s="52">
-        <v>55.470757575757602</v>
+        <v>55.876636363636401</v>
       </c>
       <c r="E91" s="53">
-        <v>70.028636363636394</v>
+        <v>70.250878787878804</v>
       </c>
       <c r="F91" s="51">
         <v>88.718518518518493</v>
@@ -5093,10 +5093,10 @@
       <c r="H91" s="52">
         <v>86.044444444444494</v>
       </c>
-      <c r="I91" s="52">
+      <c r="I91" s="53">
         <v>75.921797775971498</v>
       </c>
-      <c r="J91" s="53">
+      <c r="J91" s="52">
         <v>22.0975945007701</v>
       </c>
       <c r="K91" s="52">
@@ -5117,13 +5117,13 @@
         <v>159</v>
       </c>
       <c r="C92" s="43">
-        <v>60.811666666666703</v>
+        <v>61.083111111111101</v>
       </c>
       <c r="D92" s="44">
-        <v>50.464777777777797</v>
+        <v>50.762999999999998</v>
       </c>
       <c r="E92" s="45">
-        <v>71.327777777777797</v>
+        <v>71.573888888888902</v>
       </c>
       <c r="F92" s="43">
         <v>84.987499999999997</v>
@@ -5134,10 +5134,10 @@
       <c r="H92" s="44">
         <v>83.1875</v>
       </c>
-      <c r="I92" s="44">
+      <c r="I92" s="45">
         <v>64.9555595060813</v>
       </c>
-      <c r="J92" s="45">
+      <c r="J92" s="44">
         <v>33.280222064890097</v>
       </c>
       <c r="K92" s="44">
@@ -5158,13 +5158,13 @@
         <v>160</v>
       </c>
       <c r="C93" s="43">
-        <v>53.290199999999999</v>
+        <v>53.703600000000002</v>
       </c>
       <c r="D93" s="44">
-        <v>42.688600000000001</v>
+        <v>43.177199999999999</v>
       </c>
       <c r="E93" s="45">
-        <v>64.148200000000003</v>
+        <v>64.491399999999999</v>
       </c>
       <c r="F93" s="43">
         <v>69.05</v>
@@ -5175,10 +5175,10 @@
       <c r="H93" s="44">
         <v>68.724999999999994</v>
       </c>
-      <c r="I93" s="44">
+      <c r="I93" s="45">
         <v>48.266877442544804</v>
       </c>
-      <c r="J93" s="45">
+      <c r="J93" s="44">
         <v>49.4372364713889</v>
       </c>
       <c r="K93" s="44">
@@ -5199,13 +5199,13 @@
         <v>161</v>
       </c>
       <c r="C94" s="43">
-        <v>62.270454545454598</v>
+        <v>62.391428571428598</v>
       </c>
       <c r="D94" s="44">
-        <v>52.3392272727273</v>
+        <v>53.421761904761901</v>
       </c>
       <c r="E94" s="45">
-        <v>71.452227272727299</v>
+        <v>71.199476190476204</v>
       </c>
       <c r="F94" s="43">
         <v>58.8333333333334</v>
@@ -5216,20 +5216,20 @@
       <c r="H94" s="44">
         <v>60.883333333333297</v>
       </c>
-      <c r="I94" s="44">
-        <v>34.024468314711399</v>
-      </c>
-      <c r="J94" s="45">
-        <v>63.1325017000405</v>
+      <c r="I94" s="45">
+        <v>35.594762809549003</v>
+      </c>
+      <c r="J94" s="44">
+        <v>61.501222826724899</v>
       </c>
       <c r="K94" s="44">
-        <v>2.8431904390337399</v>
+        <v>2.9041824581681199</v>
       </c>
       <c r="L94" s="44">
-        <v>26.3831274721577</v>
+        <v>27.6139581540432</v>
       </c>
       <c r="M94" s="45">
-        <v>7.6413408425536504</v>
+        <v>7.9808046555057901</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.35">
@@ -5240,13 +5240,13 @@
         <v>162</v>
       </c>
       <c r="C95" s="43">
-        <v>66.393437500000005</v>
+        <v>66.667937499999994</v>
       </c>
       <c r="D95" s="44">
-        <v>60.461624999999998</v>
+        <v>60.850499999999997</v>
       </c>
       <c r="E95" s="45">
-        <v>72.520499999999998</v>
+        <v>72.676437500000006</v>
       </c>
       <c r="F95" s="43">
         <v>85.628571428571405</v>
@@ -5257,10 +5257,10 @@
       <c r="H95" s="44">
         <v>83.664285714285697</v>
       </c>
-      <c r="I95" s="44">
+      <c r="I95" s="45">
         <v>72.655967149261599</v>
       </c>
-      <c r="J95" s="45">
+      <c r="J95" s="44">
         <v>26.0681301708006</v>
       </c>
       <c r="K95" s="44">
@@ -5281,13 +5281,13 @@
         <v>163</v>
       </c>
       <c r="C96" s="47">
-        <v>57.001800000000003</v>
+        <v>57.250533333333301</v>
       </c>
       <c r="D96" s="48">
-        <v>48.968866666666699</v>
+        <v>49.375466666666703</v>
       </c>
       <c r="E96" s="49">
-        <v>65.440466666666694</v>
+        <v>65.518666666666704</v>
       </c>
       <c r="F96" s="47">
         <v>63.13</v>
@@ -5298,10 +5298,10 @@
       <c r="H96" s="48">
         <v>62.38</v>
       </c>
-      <c r="I96" s="48">
+      <c r="I96" s="49">
         <v>42.2939315357917</v>
       </c>
-      <c r="J96" s="49">
+      <c r="J96" s="48">
         <v>54.3788122400383</v>
       </c>
       <c r="K96" s="48">
@@ -5314,7 +5314,7 @@
         <v>12.747941614858901</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A97" s="41" t="s">
         <v>34</v>
       </c>
@@ -5322,40 +5322,40 @@
         <v>164</v>
       </c>
       <c r="C97" s="51">
-        <v>62.963351351351399</v>
+        <v>63.338052631578897</v>
       </c>
       <c r="D97" s="52">
-        <v>56.539864864864903</v>
+        <v>56.997500000000002</v>
       </c>
       <c r="E97" s="53">
-        <v>69.537459459459498</v>
+        <v>69.824236842105293</v>
       </c>
       <c r="F97" s="51">
-        <v>87.378571428571405</v>
+        <v>87.706896551724199</v>
       </c>
       <c r="G97" s="52">
-        <v>91.1142857142857</v>
+        <v>91.372413793103505</v>
       </c>
       <c r="H97" s="52">
-        <v>84.453571428571394</v>
-      </c>
-      <c r="I97" s="52">
-        <v>73.785140197339999</v>
-      </c>
-      <c r="J97" s="53">
-        <v>24.030917746686999</v>
+        <v>84.827586206896598</v>
+      </c>
+      <c r="I97" s="53">
+        <v>74.169877705663495</v>
+      </c>
+      <c r="J97" s="52">
+        <v>23.666121648986501</v>
       </c>
       <c r="K97" s="52">
-        <v>2.1839428782635499</v>
+        <v>2.1640020222980199</v>
       </c>
       <c r="L97" s="52">
-        <v>55.724220427405299</v>
+        <v>56.2300590860849</v>
       </c>
       <c r="M97" s="53">
-        <v>18.0609197699346</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>17.939818619578599</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="41" t="s">
         <v>34</v>
       </c>
@@ -5363,40 +5363,40 @@
         <v>165</v>
       </c>
       <c r="C98" s="47">
-        <v>56.361470588235299</v>
+        <v>56.732315789473702</v>
       </c>
       <c r="D98" s="48">
-        <v>41.085764705882397</v>
+        <v>42.8692631578947</v>
       </c>
       <c r="E98" s="49">
-        <v>71.905235294117702</v>
+        <v>70.8282105263158</v>
       </c>
       <c r="F98" s="47">
-        <v>81.072727272727306</v>
+        <v>81.033333333333402</v>
       </c>
       <c r="G98" s="48">
-        <v>81.527272727272702</v>
+        <v>81.7</v>
       </c>
       <c r="H98" s="48">
-        <v>80.581818181818207</v>
-      </c>
-      <c r="I98" s="48">
-        <v>50.2351918804574</v>
-      </c>
-      <c r="J98" s="49">
-        <v>46.882932839167097</v>
+        <v>80.4166666666667</v>
+      </c>
+      <c r="I98" s="49">
+        <v>49.820647950872299</v>
+      </c>
+      <c r="J98" s="48">
+        <v>47.3846479110994</v>
       </c>
       <c r="K98" s="48">
-        <v>2.88187455758835</v>
+        <v>2.7947062323122398</v>
       </c>
       <c r="L98" s="48">
-        <v>35.900427948122001</v>
+        <v>35.704174926712803</v>
       </c>
       <c r="M98" s="49">
-        <v>14.3347639323355</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
+        <v>14.1164730241596</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A99" s="54"/>
       <c r="B99" s="55"/>
       <c r="C99" s="56"/>
@@ -5411,7 +5411,7 @@
       <c r="L99" s="56"/>
       <c r="M99" s="56"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>166</v>
       </c>
@@ -5427,7 +5427,7 @@
       <c r="L100" s="57"/>
       <c r="M100" s="57"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>167</v>
       </c>
@@ -5443,7 +5443,7 @@
       <c r="L101" s="57"/>
       <c r="M101" s="57"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>168</v>
       </c>
@@ -5459,7 +5459,7 @@
       <c r="L102" s="57"/>
       <c r="M102" s="57"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>169</v>
       </c>
@@ -5475,7 +5475,7 @@
       <c r="L103" s="57"/>
       <c r="M103" s="57"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>170</v>
       </c>
@@ -5491,7 +5491,7 @@
       <c r="L104" s="57"/>
       <c r="M104" s="57"/>
     </row>
-    <row r="105" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B105" s="58"/>
       <c r="C105" s="57"/>
       <c r="D105" s="57"/>
@@ -5505,7 +5505,7 @@
       <c r="L105" s="57"/>
       <c r="M105" s="57"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C106" s="57"/>
       <c r="D106" s="57"/>
       <c r="E106" s="57"/>
@@ -5518,8 +5518,10 @@
       <c r="L106" s="57"/>
       <c r="M106" s="57"/>
       <c r="N106" s="57"/>
-    </row>
-    <row r="107" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="O106" s="57"/>
+      <c r="P106" s="57"/>
+    </row>
+    <row r="107" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B107" s="58" t="s">
         <v>171</v>
       </c>
@@ -5535,8 +5537,10 @@
       <c r="L107" s="57"/>
       <c r="M107" s="57"/>
       <c r="N107" s="57"/>
-    </row>
-    <row r="108" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="O107" s="57"/>
+      <c r="P107" s="57"/>
+    </row>
+    <row r="108" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" s="58"/>
       <c r="C108" s="57"/>
       <c r="D108" s="57"/>
@@ -5550,8 +5554,10 @@
       <c r="L108" s="57"/>
       <c r="M108" s="57"/>
       <c r="N108" s="57"/>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O108" s="57"/>
+      <c r="P108" s="57"/>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
         <v>172</v>
       </c>
@@ -5567,7 +5573,7 @@
       <c r="L109" s="57"/>
       <c r="M109" s="57"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
         <v>173</v>
       </c>
@@ -5583,7 +5589,7 @@
       <c r="L110" s="57"/>
       <c r="M110" s="57"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B111" s="2"/>
       <c r="C111" s="57"/>
       <c r="D111" s="57"/>
@@ -5597,7 +5603,7 @@
       <c r="L111" s="57"/>
       <c r="M111" s="57"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
         <v>174</v>
       </c>
@@ -5644,14 +5650,13 @@
       <c r="M114" s="57"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:M98" xr:uid="{00000000-0001-0000-0900-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{8F0FF177-2EEF-47B0-876F-D92480B54550}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{8E0A68F6-1503-4EF9-8510-F153352F5C80}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{3B8AFB47-77FC-4C9B-AEDF-116FC993F32B}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{836CFA74-B229-4C7F-8267-4CB9D34EB284}"/>
-    <hyperlink ref="B105" r:id="rId1" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{7AC2B02F-7BDB-458D-A469-5CCC372665FF}"/>
-    <hyperlink ref="B107" r:id="rId2" xr:uid="{F173C56F-20A0-4132-A159-0DCC10D6CD3D}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{A3B60420-BE28-4153-9C60-147B101C4477}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{7FC75E9E-6C4B-44B2-8B65-56C7EB10FF9C}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{F3AEE7C1-5543-4E84-8EA3-76B6C84845CE}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{CEBC24F4-B217-424A-887B-3A1273630B68}"/>
+    <hyperlink ref="B105" r:id="rId1" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{424E889A-CE67-487C-BC7F-537153A04597}"/>
+    <hyperlink ref="B107" r:id="rId2" xr:uid="{94A6D38E-38B5-4CF3-92DF-B1A93674A32B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId3"/>

--- a/AfDD_2023_Annex_Table_Tab07.xlsx
+++ b/AfDD_2023_Annex_Table_Tab07.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18500099-6B3F-4996-8195-368BC63485D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A766AB16-C251-4AE2-907B-75FE73B36374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{31FD5624-1682-40C8-A33B-B3F48D219A59}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{075C9276-45F9-4E5F-ACA3-62AC886C1392}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab07" sheetId="1" r:id="rId1"/>
@@ -1388,7 +1388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE1E12B-7F8B-4A0B-B0C0-76B7B6CAB04B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C573B393-DB20-4DA8-BD2D-AEEA67F15ECC}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1518,13 +1518,13 @@
         <v>70.16</v>
       </c>
       <c r="F4" s="15">
-        <v>71.599999999999994</v>
+        <v>75</v>
       </c>
       <c r="G4" s="16">
-        <v>68.599999999999994</v>
+        <v>73.2</v>
       </c>
       <c r="H4" s="16">
-        <v>74.5</v>
+        <v>76.7</v>
       </c>
       <c r="I4" s="17">
         <v>26.0135181188231</v>
@@ -1764,13 +1764,13 @@
         <v>63.564999999999998</v>
       </c>
       <c r="F10" s="19">
-        <v>41.6</v>
+        <v>42.2</v>
       </c>
       <c r="G10" s="20">
-        <v>43.9</v>
+        <v>43.3</v>
       </c>
       <c r="H10" s="20">
-        <v>39.700000000000003</v>
+        <v>41.3</v>
       </c>
       <c r="I10" s="21">
         <v>10.4663099912175</v>
@@ -1887,13 +1887,13 @@
         <v>69.136899999999997</v>
       </c>
       <c r="F13" s="24">
-        <v>75.62</v>
+        <v>77.955555555555605</v>
       </c>
       <c r="G13" s="25">
-        <v>78.16</v>
+        <v>80.816666666666706</v>
       </c>
       <c r="H13" s="25">
-        <v>73.14</v>
+        <v>75.133333333333397</v>
       </c>
       <c r="I13" s="26">
         <v>50.073809714476603</v>
@@ -2915,7 +2915,7 @@
         <v>79.31</v>
       </c>
       <c r="G38" s="25">
-        <v>82.29</v>
+        <v>82.290000000000106</v>
       </c>
       <c r="H38" s="25">
         <v>77.540000000000006</v>
@@ -3896,13 +3896,13 @@
         <v>68.857150943396206</v>
       </c>
       <c r="F62" s="34">
-        <v>81.93</v>
+        <v>82.630769230769303</v>
       </c>
       <c r="G62" s="35">
-        <v>84.3275000000001</v>
+        <v>85.098717948717905</v>
       </c>
       <c r="H62" s="35">
-        <v>79.765000000000001</v>
+        <v>80.394871794871804</v>
       </c>
       <c r="I62" s="36">
         <v>63.909396224175403</v>
@@ -3937,13 +3937,13 @@
         <v>70.7301570247934</v>
       </c>
       <c r="F63" s="38">
-        <v>41.4413793103448</v>
+        <v>40.226751592356699</v>
       </c>
       <c r="G63" s="39">
-        <v>40.804597701149397</v>
+        <v>39.480254777070101</v>
       </c>
       <c r="H63" s="39">
-        <v>41.820689655172401</v>
+        <v>40.6732484076433</v>
       </c>
       <c r="I63" s="40">
         <v>26.748740704452398</v>
@@ -3978,13 +3978,13 @@
         <v>73.748448275862103</v>
       </c>
       <c r="F64" s="34">
-        <v>56.890909090909098</v>
+        <v>57.809375000000003</v>
       </c>
       <c r="G64" s="35">
-        <v>55.186363636363602</v>
+        <v>55.381250000000001</v>
       </c>
       <c r="H64" s="35">
-        <v>58.145454545454598</v>
+        <v>59.578125</v>
       </c>
       <c r="I64" s="36">
         <v>33.914648463266602</v>
@@ -4019,13 +4019,13 @@
         <v>70.724785714285701</v>
       </c>
       <c r="F65" s="43">
-        <v>73.224999999999994</v>
+        <v>73.073684210526295</v>
       </c>
       <c r="G65" s="44">
-        <v>72.73</v>
+        <v>72.592105263157904</v>
       </c>
       <c r="H65" s="44">
-        <v>73.034999999999997</v>
+        <v>72.842105263157904</v>
       </c>
       <c r="I65" s="45">
         <v>44.855917145794798</v>
@@ -4060,13 +4060,13 @@
         <v>70.159643678160904</v>
       </c>
       <c r="F66" s="47">
-        <v>54.193700787401603</v>
+        <v>54.301276595744703</v>
       </c>
       <c r="G66" s="48">
-        <v>54.512598425196899</v>
+        <v>54.621702127659603</v>
       </c>
       <c r="H66" s="48">
-        <v>53.771653543307103</v>
+        <v>53.857446808510701</v>
       </c>
       <c r="I66" s="49">
         <v>37.939165378005299</v>
@@ -4104,7 +4104,7 @@
         <v>79.029411764705898</v>
       </c>
       <c r="G67" s="52">
-        <v>80.694117647058903</v>
+        <v>80.694117647058803</v>
       </c>
       <c r="H67" s="52">
         <v>77.335294117647095</v>
@@ -4145,7 +4145,7 @@
         <v>84.044444444444494</v>
       </c>
       <c r="G68" s="44">
-        <v>86.8333333333334</v>
+        <v>86.8333333333333</v>
       </c>
       <c r="H68" s="44">
         <v>81.711111111111094</v>
@@ -4347,13 +4347,13 @@
         <v>70.822800000000001</v>
       </c>
       <c r="F73" s="43">
-        <v>77.273333333333397</v>
+        <v>78.892857142857196</v>
       </c>
       <c r="G73" s="44">
-        <v>79.186666666666696</v>
+        <v>80.967857142857198</v>
       </c>
       <c r="H73" s="44">
-        <v>75.366666666666703</v>
+        <v>76.807142857142907</v>
       </c>
       <c r="I73" s="45">
         <v>54.588777510081201</v>
@@ -4470,13 +4470,13 @@
         <v>75.116444444444397</v>
       </c>
       <c r="F76" s="51">
-        <v>72.242857142857204</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="G76" s="52">
-        <v>73.185714285714297</v>
+        <v>72.825000000000003</v>
       </c>
       <c r="H76" s="52">
-        <v>71.585714285714303</v>
+        <v>70.733333333333405</v>
       </c>
       <c r="I76" s="53">
         <v>38.352725910099302</v>
@@ -4511,13 +4511,13 @@
         <v>73.235727272727303</v>
       </c>
       <c r="F77" s="43">
-        <v>54.227272727272798</v>
+        <v>55.193333333333399</v>
       </c>
       <c r="G77" s="44">
-        <v>53.209090909090897</v>
+        <v>53.62</v>
       </c>
       <c r="H77" s="44">
-        <v>54.8272727272727</v>
+        <v>56.1933333333333</v>
       </c>
       <c r="I77" s="45">
         <v>37.171059079748801</v>
@@ -4552,10 +4552,10 @@
         <v>65.533740740740797</v>
       </c>
       <c r="F78" s="43">
-        <v>8.0346153846153907</v>
+        <v>8.0346153846153801</v>
       </c>
       <c r="G78" s="44">
-        <v>7.2923076923077002</v>
+        <v>7.2923076923076904</v>
       </c>
       <c r="H78" s="44">
         <v>8.6807692307692292</v>
@@ -4593,13 +4593,13 @@
         <v>68.169868421052598</v>
       </c>
       <c r="F79" s="47">
-        <v>14.715151515151501</v>
+        <v>12.5129032258065</v>
       </c>
       <c r="G79" s="48">
-        <v>14.530303030302999</v>
+        <v>12.3032258064516</v>
       </c>
       <c r="H79" s="48">
-        <v>15.012121212121199</v>
+        <v>12.8403225806452</v>
       </c>
       <c r="I79" s="49">
         <v>12.673306256677799</v>
@@ -4675,13 +4675,13 @@
         <v>72.946142857142902</v>
       </c>
       <c r="F81" s="43">
-        <v>59.774999999999999</v>
+        <v>59.1933333333333</v>
       </c>
       <c r="G81" s="44">
-        <v>56.487499999999997</v>
+        <v>55.626666666666701</v>
       </c>
       <c r="H81" s="44">
-        <v>61.024999999999999</v>
+        <v>60.566666666666698</v>
       </c>
       <c r="I81" s="45">
         <v>26.516339767375499</v>
@@ -4716,13 +4716,13 @@
         <v>69.822651162790706</v>
       </c>
       <c r="F82" s="43">
-        <v>81.577777777777797</v>
+        <v>82.348571428571503</v>
       </c>
       <c r="G82" s="44">
-        <v>83.9722222222223</v>
+        <v>84.821428571428598</v>
       </c>
       <c r="H82" s="44">
-        <v>79.408333333333402</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="I82" s="45">
         <v>65.743505731670595</v>
@@ -4757,13 +4757,13 @@
         <v>70.264799999999994</v>
       </c>
       <c r="F83" s="47">
-        <v>39.584810126582298</v>
+        <v>38.2232394366197</v>
       </c>
       <c r="G83" s="48">
-        <v>39.216455696202601</v>
+        <v>37.774647887324001</v>
       </c>
       <c r="H83" s="48">
-        <v>39.875949367088602</v>
+        <v>38.571830985915497</v>
       </c>
       <c r="I83" s="49">
         <v>26.799362690746399</v>
@@ -4801,7 +4801,7 @@
         <v>90.336842105263202</v>
       </c>
       <c r="G84" s="52">
-        <v>93.657894736842096</v>
+        <v>93.657894736842195</v>
       </c>
       <c r="H84" s="52">
         <v>87.521052631578996</v>
@@ -4921,13 +4921,13 @@
         <v>71.7444814814815</v>
       </c>
       <c r="F87" s="43">
-        <v>75.099999999999994</v>
+        <v>75.174285714285702</v>
       </c>
       <c r="G87" s="44">
-        <v>75.636842105263199</v>
+        <v>75.7628571428572</v>
       </c>
       <c r="H87" s="44">
-        <v>74.900000000000006</v>
+        <v>74.948571428571398</v>
       </c>
       <c r="I87" s="45">
         <v>50.052898719465396</v>
@@ -4962,13 +4962,13 @@
         <v>63.238</v>
       </c>
       <c r="F88" s="43">
-        <v>49.774999999999999</v>
+        <v>48.1666666666667</v>
       </c>
       <c r="G88" s="44">
-        <v>49.125</v>
+        <v>47.4166666666667</v>
       </c>
       <c r="H88" s="44">
-        <v>50.15</v>
+        <v>48.466666666666697</v>
       </c>
       <c r="I88" s="45">
         <v>31.6083813003339</v>
@@ -5003,13 +5003,13 @@
         <v>70.399461538461594</v>
       </c>
       <c r="F89" s="43">
-        <v>50.5137931034483</v>
+        <v>50.1413043478261</v>
       </c>
       <c r="G89" s="44">
-        <v>48.6034482758621</v>
+        <v>47.5717391304348</v>
       </c>
       <c r="H89" s="44">
-        <v>51.151724137931097</v>
+        <v>51.05</v>
       </c>
       <c r="I89" s="45">
         <v>28.302722535834299</v>
@@ -5044,13 +5044,13 @@
         <v>70.337372549019605</v>
       </c>
       <c r="F90" s="47">
-        <v>13.6527777777778</v>
+        <v>13.34</v>
       </c>
       <c r="G90" s="48">
-        <v>13.05</v>
+        <v>12.7314285714286</v>
       </c>
       <c r="H90" s="48">
-        <v>14.186111111111099</v>
+        <v>13.8828571428571</v>
       </c>
       <c r="I90" s="49">
         <v>10.649763132779</v>
@@ -5088,10 +5088,10 @@
         <v>88.718518518518493</v>
       </c>
       <c r="G91" s="52">
-        <v>92.196296296296296</v>
+        <v>92.196296296296396</v>
       </c>
       <c r="H91" s="52">
-        <v>86.044444444444494</v>
+        <v>86.044444444444395</v>
       </c>
       <c r="I91" s="53">
         <v>75.921797775971498</v>
@@ -5208,13 +5208,13 @@
         <v>71.199476190476204</v>
       </c>
       <c r="F94" s="43">
-        <v>58.8333333333334</v>
+        <v>59.9304347826087</v>
       </c>
       <c r="G94" s="44">
-        <v>56.008333333333297</v>
+        <v>57.056521739130403</v>
       </c>
       <c r="H94" s="44">
-        <v>60.883333333333297</v>
+        <v>61.9652173913044</v>
       </c>
       <c r="I94" s="45">
         <v>35.594762809549003</v>
@@ -5249,13 +5249,13 @@
         <v>72.676437500000006</v>
       </c>
       <c r="F95" s="43">
-        <v>85.628571428571405</v>
+        <v>86.274074074074093</v>
       </c>
       <c r="G95" s="44">
-        <v>88.221428571428604</v>
+        <v>89.118518518518499</v>
       </c>
       <c r="H95" s="44">
-        <v>83.664285714285697</v>
+        <v>84.085185185185196</v>
       </c>
       <c r="I95" s="45">
         <v>72.655967149261599</v>
@@ -5290,13 +5290,13 @@
         <v>65.518666666666704</v>
       </c>
       <c r="F96" s="47">
-        <v>63.13</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="G96" s="48">
-        <v>64.7</v>
+        <v>67.929411764705904</v>
       </c>
       <c r="H96" s="48">
-        <v>62.38</v>
+        <v>65.276470588235298</v>
       </c>
       <c r="I96" s="49">
         <v>42.2939315357917</v>
@@ -5334,7 +5334,7 @@
         <v>87.706896551724199</v>
       </c>
       <c r="G97" s="52">
-        <v>91.372413793103505</v>
+        <v>91.372413793103405</v>
       </c>
       <c r="H97" s="52">
         <v>84.827586206896598</v>
@@ -5372,13 +5372,13 @@
         <v>70.8282105263158</v>
       </c>
       <c r="F98" s="47">
-        <v>81.033333333333402</v>
+        <v>80.895652173913007</v>
       </c>
       <c r="G98" s="48">
-        <v>81.7</v>
+        <v>81.547826086956505</v>
       </c>
       <c r="H98" s="48">
-        <v>80.4166666666667</v>
+        <v>80.273913043478302</v>
       </c>
       <c r="I98" s="49">
         <v>49.820647950872299</v>
@@ -5651,12 +5651,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{A3B60420-BE28-4153-9C60-147B101C4477}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{7FC75E9E-6C4B-44B2-8B65-56C7EB10FF9C}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{F3AEE7C1-5543-4E84-8EA3-76B6C84845CE}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{CEBC24F4-B217-424A-887B-3A1273630B68}"/>
-    <hyperlink ref="B105" r:id="rId1" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{424E889A-CE67-487C-BC7F-537153A04597}"/>
-    <hyperlink ref="B107" r:id="rId2" xr:uid="{94A6D38E-38B5-4CF3-92DF-B1A93674A32B}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{12F61F2F-5D59-45E8-8168-51281A4B7562}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{F8D86044-7753-4906-A9D3-A7292860A9F6}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{E0E147BF-4C47-46C5-9460-2EAE6A7D89B4}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{084C17D0-3A7D-4B8A-928F-2653ED582340}"/>
+    <hyperlink ref="B105" r:id="rId1" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{F6977806-5DBF-40C8-8F89-6E64C5BBE57F}"/>
+    <hyperlink ref="B107" r:id="rId2" xr:uid="{136E57DC-721D-443E-A366-EBBAD54D674F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId3"/>

--- a/AfDD_2023_Annex_Table_Tab07.xlsx
+++ b/AfDD_2023_Annex_Table_Tab07.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A766AB16-C251-4AE2-907B-75FE73B36374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C863B15B-5009-4FD6-A7CB-2411F9F5C3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{075C9276-45F9-4E5F-ACA3-62AC886C1392}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{4E82D0FA-DDB5-4B97-940B-C56133BF1E5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab07" sheetId="1" r:id="rId1"/>
@@ -546,7 +546,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Pa&gt;ses Africanos de L&gt;ngua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Com&gt;n del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Source: International Labour Organization - ILOSTAT (retrieved 14/05/2023).</t>
@@ -1388,7 +1388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C573B393-DB20-4DA8-BD2D-AEEA67F15ECC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDCE4B89-9008-43CE-9109-93E7100A8F27}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1887,13 +1887,13 @@
         <v>69.136899999999997</v>
       </c>
       <c r="F13" s="24">
-        <v>77.955555555555605</v>
+        <v>76.02</v>
       </c>
       <c r="G13" s="25">
-        <v>80.816666666666706</v>
+        <v>78.56</v>
       </c>
       <c r="H13" s="25">
-        <v>75.133333333333397</v>
+        <v>73.52</v>
       </c>
       <c r="I13" s="26">
         <v>50.073809714476603</v>
@@ -2915,7 +2915,7 @@
         <v>79.31</v>
       </c>
       <c r="G38" s="25">
-        <v>82.290000000000106</v>
+        <v>82.29</v>
       </c>
       <c r="H38" s="25">
         <v>77.540000000000006</v>
@@ -3896,13 +3896,13 @@
         <v>68.857150943396206</v>
       </c>
       <c r="F62" s="34">
-        <v>82.630769230769303</v>
+        <v>82.03</v>
       </c>
       <c r="G62" s="35">
-        <v>85.098717948717905</v>
+        <v>84.427500000000094</v>
       </c>
       <c r="H62" s="35">
-        <v>80.394871794871804</v>
+        <v>79.86</v>
       </c>
       <c r="I62" s="36">
         <v>63.909396224175403</v>
@@ -3937,13 +3937,13 @@
         <v>70.7301570247934</v>
       </c>
       <c r="F63" s="38">
-        <v>40.226751592356699</v>
+        <v>41.306896551724101</v>
       </c>
       <c r="G63" s="39">
-        <v>39.480254777070101</v>
+        <v>40.655172413793103</v>
       </c>
       <c r="H63" s="39">
-        <v>40.6732484076433</v>
+        <v>41.704597701149403</v>
       </c>
       <c r="I63" s="40">
         <v>26.748740704452398</v>
@@ -3978,13 +3978,13 @@
         <v>73.748448275862103</v>
       </c>
       <c r="F64" s="34">
-        <v>57.809375000000003</v>
+        <v>56.522727272727302</v>
       </c>
       <c r="G64" s="35">
-        <v>55.381250000000001</v>
+        <v>54.781818181818203</v>
       </c>
       <c r="H64" s="35">
-        <v>59.578125</v>
+        <v>57.818181818181799</v>
       </c>
       <c r="I64" s="36">
         <v>33.914648463266602</v>
@@ -4019,13 +4019,13 @@
         <v>70.724785714285701</v>
       </c>
       <c r="F65" s="43">
-        <v>73.073684210526295</v>
+        <v>73.14</v>
       </c>
       <c r="G65" s="44">
-        <v>72.592105263157904</v>
+        <v>72.665000000000006</v>
       </c>
       <c r="H65" s="44">
-        <v>72.842105263157904</v>
+        <v>72.95</v>
       </c>
       <c r="I65" s="45">
         <v>44.855917145794798</v>
@@ -4060,13 +4060,13 @@
         <v>70.159643678160904</v>
       </c>
       <c r="F66" s="47">
-        <v>54.301276595744703</v>
+        <v>54.1330708661418</v>
       </c>
       <c r="G66" s="48">
-        <v>54.621702127659603</v>
+        <v>54.441732283464603</v>
       </c>
       <c r="H66" s="48">
-        <v>53.857446808510701</v>
+        <v>53.722047244094497</v>
       </c>
       <c r="I66" s="49">
         <v>37.939165378005299</v>
@@ -4104,7 +4104,7 @@
         <v>79.029411764705898</v>
       </c>
       <c r="G67" s="52">
-        <v>80.694117647058803</v>
+        <v>80.694117647058903</v>
       </c>
       <c r="H67" s="52">
         <v>77.335294117647095</v>
@@ -4233,7 +4233,7 @@
         <v>90.216666666666697</v>
       </c>
       <c r="I70" s="45">
-        <v>72.221598231208404</v>
+        <v>72.221598231208304</v>
       </c>
       <c r="J70" s="44">
         <v>25.2688136313764</v>
@@ -4347,13 +4347,13 @@
         <v>70.822800000000001</v>
       </c>
       <c r="F73" s="43">
-        <v>78.892857142857196</v>
+        <v>77.540000000000006</v>
       </c>
       <c r="G73" s="44">
-        <v>80.967857142857198</v>
+        <v>79.453333333333404</v>
       </c>
       <c r="H73" s="44">
-        <v>76.807142857142907</v>
+        <v>75.62</v>
       </c>
       <c r="I73" s="45">
         <v>54.588777510081201</v>
@@ -4470,13 +4470,13 @@
         <v>75.116444444444397</v>
       </c>
       <c r="F76" s="51">
-        <v>71.599999999999994</v>
+        <v>72</v>
       </c>
       <c r="G76" s="52">
-        <v>72.825000000000003</v>
+        <v>73</v>
       </c>
       <c r="H76" s="52">
-        <v>70.733333333333405</v>
+        <v>71.342857142857198</v>
       </c>
       <c r="I76" s="53">
         <v>38.352725910099302</v>
@@ -4511,13 +4511,13 @@
         <v>73.235727272727303</v>
       </c>
       <c r="F77" s="43">
-        <v>55.193333333333399</v>
+        <v>54.127272727272697</v>
       </c>
       <c r="G77" s="44">
-        <v>53.62</v>
+        <v>53.154545454545499</v>
       </c>
       <c r="H77" s="44">
-        <v>56.1933333333333</v>
+        <v>54.727272727272698</v>
       </c>
       <c r="I77" s="45">
         <v>37.171059079748801</v>
@@ -4552,10 +4552,10 @@
         <v>65.533740740740797</v>
       </c>
       <c r="F78" s="43">
-        <v>8.0346153846153801</v>
+        <v>8.0346153846153907</v>
       </c>
       <c r="G78" s="44">
-        <v>7.2923076923076904</v>
+        <v>7.2923076923077002</v>
       </c>
       <c r="H78" s="44">
         <v>8.6807692307692292</v>
@@ -4593,13 +4593,13 @@
         <v>68.169868421052598</v>
       </c>
       <c r="F79" s="47">
-        <v>12.5129032258065</v>
+        <v>14.506060606060601</v>
       </c>
       <c r="G79" s="48">
-        <v>12.3032258064516</v>
+        <v>14.3121212121212</v>
       </c>
       <c r="H79" s="48">
-        <v>12.8403225806452</v>
+        <v>14.8121212121212</v>
       </c>
       <c r="I79" s="49">
         <v>12.673306256677799</v>
@@ -4675,13 +4675,13 @@
         <v>72.946142857142902</v>
       </c>
       <c r="F81" s="43">
-        <v>59.1933333333333</v>
+        <v>59.787500000000001</v>
       </c>
       <c r="G81" s="44">
-        <v>55.626666666666701</v>
+        <v>56.612499999999997</v>
       </c>
       <c r="H81" s="44">
-        <v>60.566666666666698</v>
+        <v>60.95</v>
       </c>
       <c r="I81" s="45">
         <v>26.516339767375499</v>
@@ -4716,13 +4716,13 @@
         <v>69.822651162790706</v>
       </c>
       <c r="F82" s="43">
-        <v>82.348571428571503</v>
+        <v>81.688888888888897</v>
       </c>
       <c r="G82" s="44">
-        <v>84.821428571428598</v>
+        <v>84.0833333333334</v>
       </c>
       <c r="H82" s="44">
-        <v>80.099999999999994</v>
+        <v>79.5138888888889</v>
       </c>
       <c r="I82" s="45">
         <v>65.743505731670595</v>
@@ -4757,13 +4757,13 @@
         <v>70.264799999999994</v>
       </c>
       <c r="F83" s="47">
-        <v>38.2232394366197</v>
+        <v>39.4354430379747</v>
       </c>
       <c r="G83" s="48">
-        <v>37.774647887324001</v>
+        <v>39.039240506329101</v>
       </c>
       <c r="H83" s="48">
-        <v>38.571830985915497</v>
+        <v>39.755696202531702</v>
       </c>
       <c r="I83" s="49">
         <v>26.799362690746399</v>
@@ -4801,7 +4801,7 @@
         <v>90.336842105263202</v>
       </c>
       <c r="G84" s="52">
-        <v>93.657894736842195</v>
+        <v>93.657894736842096</v>
       </c>
       <c r="H84" s="52">
         <v>87.521052631578996</v>
@@ -4921,13 +4921,13 @@
         <v>71.7444814814815</v>
       </c>
       <c r="F87" s="43">
-        <v>75.174285714285702</v>
+        <v>74.931578947368394</v>
       </c>
       <c r="G87" s="44">
-        <v>75.7628571428572</v>
+        <v>75.515789473684194</v>
       </c>
       <c r="H87" s="44">
-        <v>74.948571428571398</v>
+        <v>74.710526315789494</v>
       </c>
       <c r="I87" s="45">
         <v>50.052898719465396</v>
@@ -4962,13 +4962,13 @@
         <v>63.238</v>
       </c>
       <c r="F88" s="43">
-        <v>48.1666666666667</v>
+        <v>50.774999999999999</v>
       </c>
       <c r="G88" s="44">
-        <v>47.4166666666667</v>
+        <v>50.125</v>
       </c>
       <c r="H88" s="44">
-        <v>48.466666666666697</v>
+        <v>51.1</v>
       </c>
       <c r="I88" s="45">
         <v>31.6083813003339</v>
@@ -5003,13 +5003,13 @@
         <v>70.399461538461594</v>
       </c>
       <c r="F89" s="43">
-        <v>50.1413043478261</v>
+        <v>50.010344827586202</v>
       </c>
       <c r="G89" s="44">
-        <v>47.5717391304348</v>
+        <v>48.041379310344901</v>
       </c>
       <c r="H89" s="44">
-        <v>51.05</v>
+        <v>50.696551724137898</v>
       </c>
       <c r="I89" s="45">
         <v>28.302722535834299</v>
@@ -5044,13 +5044,13 @@
         <v>70.337372549019605</v>
       </c>
       <c r="F90" s="47">
-        <v>13.34</v>
+        <v>13.8222222222222</v>
       </c>
       <c r="G90" s="48">
-        <v>12.7314285714286</v>
+        <v>13.2055555555556</v>
       </c>
       <c r="H90" s="48">
-        <v>13.8828571428571</v>
+        <v>14.3722222222222</v>
       </c>
       <c r="I90" s="49">
         <v>10.649763132779</v>
@@ -5088,10 +5088,10 @@
         <v>88.718518518518493</v>
       </c>
       <c r="G91" s="52">
-        <v>92.196296296296396</v>
+        <v>92.196296296296296</v>
       </c>
       <c r="H91" s="52">
-        <v>86.044444444444395</v>
+        <v>86.044444444444494</v>
       </c>
       <c r="I91" s="53">
         <v>75.921797775971498</v>
@@ -5208,13 +5208,13 @@
         <v>71.199476190476204</v>
       </c>
       <c r="F94" s="43">
-        <v>59.9304347826087</v>
+        <v>58.733333333333398</v>
       </c>
       <c r="G94" s="44">
-        <v>57.056521739130403</v>
+        <v>55.608333333333398</v>
       </c>
       <c r="H94" s="44">
-        <v>61.9652173913044</v>
+        <v>60.983333333333398</v>
       </c>
       <c r="I94" s="45">
         <v>35.594762809549003</v>
@@ -5249,13 +5249,13 @@
         <v>72.676437500000006</v>
       </c>
       <c r="F95" s="43">
-        <v>86.274074074074093</v>
+        <v>85.871428571428595</v>
       </c>
       <c r="G95" s="44">
-        <v>89.118518518518499</v>
+        <v>88.55</v>
       </c>
       <c r="H95" s="44">
-        <v>84.085185185185196</v>
+        <v>83.821428571428598</v>
       </c>
       <c r="I95" s="45">
         <v>72.655967149261599</v>
@@ -5290,13 +5290,13 @@
         <v>65.518666666666704</v>
       </c>
       <c r="F96" s="47">
-        <v>66.099999999999994</v>
+        <v>62.88</v>
       </c>
       <c r="G96" s="48">
-        <v>67.929411764705904</v>
+        <v>64.45</v>
       </c>
       <c r="H96" s="48">
-        <v>65.276470588235298</v>
+        <v>62.16</v>
       </c>
       <c r="I96" s="49">
         <v>42.2939315357917</v>
@@ -5322,37 +5322,37 @@
         <v>164</v>
       </c>
       <c r="C97" s="51">
-        <v>63.338052631578897</v>
+        <v>63.459178571428602</v>
       </c>
       <c r="D97" s="52">
-        <v>56.997500000000002</v>
+        <v>57.112178571428601</v>
       </c>
       <c r="E97" s="53">
-        <v>69.824236842105293</v>
+        <v>69.979285714285695</v>
       </c>
       <c r="F97" s="51">
-        <v>87.706896551724199</v>
+        <v>86.76</v>
       </c>
       <c r="G97" s="52">
-        <v>91.372413793103405</v>
+        <v>90.736000000000004</v>
       </c>
       <c r="H97" s="52">
-        <v>84.827586206896598</v>
+        <v>83.623999999999995</v>
       </c>
       <c r="I97" s="53">
-        <v>74.169877705663495</v>
+        <v>71.535909965103002</v>
       </c>
       <c r="J97" s="52">
-        <v>23.666121648986501</v>
+        <v>26.380963914956599</v>
       </c>
       <c r="K97" s="52">
-        <v>2.1640020222980199</v>
+        <v>2.0831189855276802</v>
       </c>
       <c r="L97" s="52">
-        <v>56.2300590860849</v>
+        <v>55.117184691789099</v>
       </c>
       <c r="M97" s="53">
-        <v>17.939818619578599</v>
+        <v>16.4187252733138</v>
       </c>
     </row>
     <row r="98" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5363,37 +5363,37 @@
         <v>165</v>
       </c>
       <c r="C98" s="47">
-        <v>56.732315789473702</v>
+        <v>59.288333333333298</v>
       </c>
       <c r="D98" s="48">
-        <v>42.8692631578947</v>
+        <v>47.862400000000001</v>
       </c>
       <c r="E98" s="49">
-        <v>70.8282105263158</v>
+        <v>70.927466666666703</v>
       </c>
       <c r="F98" s="47">
-        <v>80.895652173913007</v>
+        <v>82.144444444444503</v>
       </c>
       <c r="G98" s="48">
-        <v>81.547826086956505</v>
+        <v>83.8</v>
       </c>
       <c r="H98" s="48">
-        <v>80.273913043478302</v>
+        <v>81.366666666666703</v>
       </c>
       <c r="I98" s="49">
-        <v>49.820647950872299</v>
+        <v>50.848997692994601</v>
       </c>
       <c r="J98" s="48">
-        <v>47.3846479110994</v>
+        <v>46.324985011071199</v>
       </c>
       <c r="K98" s="48">
-        <v>2.7947062323122398</v>
+        <v>2.8260202317800598</v>
       </c>
       <c r="L98" s="48">
-        <v>35.704174926712803</v>
+        <v>35.533886280230703</v>
       </c>
       <c r="M98" s="49">
-        <v>14.1164730241596</v>
+        <v>15.315111412763899</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.35">
@@ -5651,12 +5651,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{12F61F2F-5D59-45E8-8168-51281A4B7562}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{F8D86044-7753-4906-A9D3-A7292860A9F6}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{E0E147BF-4C47-46C5-9460-2EAE6A7D89B4}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{084C17D0-3A7D-4B8A-928F-2653ED582340}"/>
-    <hyperlink ref="B105" r:id="rId1" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{F6977806-5DBF-40C8-8F89-6E64C5BBE57F}"/>
-    <hyperlink ref="B107" r:id="rId2" xr:uid="{136E57DC-721D-443E-A366-EBBAD54D674F}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{92EDD84F-858B-49D9-A7E3-2243917148A5}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{2F6688F2-E06B-4FAE-924E-63E1DFE88746}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{5C65449E-23D3-48CD-95EC-6FE0F9C64C77}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{12BC27AD-BAFF-42F0-9DEF-367DBA3800BB}"/>
+    <hyperlink ref="B105" r:id="rId1" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{16AADCF9-9191-4331-B522-0A7C8FB618B3}"/>
+    <hyperlink ref="B107" r:id="rId2" xr:uid="{0788E051-C693-46FC-8F34-BF6CFB5D2446}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId3"/>

--- a/AfDD_2023_Annex_Table_Tab07.xlsx
+++ b/AfDD_2023_Annex_Table_Tab07.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C863B15B-5009-4FD6-A7CB-2411F9F5C3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C577706-8F2C-49FB-8815-DA534AD1E6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{4E82D0FA-DDB5-4B97-940B-C56133BF1E5F}"/>
+    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{E4383EED-DA91-42F9-B7DF-A713D6DC926E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab07" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="177">
   <si>
     <t>Table 7: Labour force characteristics</t>
   </si>
@@ -555,16 +555,19 @@
     <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
   </si>
   <si>
-    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details.</t>
-  </si>
-  <si>
-    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators.</t>
-  </si>
-  <si>
     <t>To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here.</t>
   </si>
   <si>
     <t>To download the entire dataset as a flat file in compressed CSV form, click here.</t>
+  </si>
+  <si>
+    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
+  </si>
+  <si>
+    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators, click here.</t>
+  </si>
+  <si>
+    <t>To see the full list of sources used in the Statistical Annex, click here.</t>
   </si>
 </sst>
 </file>
@@ -1388,7 +1391,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDCE4B89-9008-43CE-9109-93E7100A8F27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B73FECF2-387E-4356-B494-DF4DC3BD1412}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5559,7 +5562,7 @@
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C109" s="57"/>
       <c r="D109" s="57"/>
@@ -5575,7 +5578,7 @@
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C110" s="57"/>
       <c r="D110" s="57"/>
@@ -5590,7 +5593,9 @@
       <c r="M110" s="57"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B111" s="2"/>
+      <c r="B111" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="C111" s="57"/>
       <c r="D111" s="57"/>
       <c r="E111" s="57"/>
@@ -5605,7 +5610,7 @@
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C112" s="57"/>
       <c r="D112" s="57"/>
@@ -5621,7 +5626,7 @@
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C113" s="57"/>
       <c r="D113" s="57"/>
@@ -5651,14 +5656,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{92EDD84F-858B-49D9-A7E3-2243917148A5}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{2F6688F2-E06B-4FAE-924E-63E1DFE88746}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{5C65449E-23D3-48CD-95EC-6FE0F9C64C77}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{12BC27AD-BAFF-42F0-9DEF-367DBA3800BB}"/>
-    <hyperlink ref="B105" r:id="rId1" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{16AADCF9-9191-4331-B522-0A7C8FB618B3}"/>
-    <hyperlink ref="B107" r:id="rId2" xr:uid="{0788E051-C693-46FC-8F34-BF6CFB5D2446}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{B3852EA2-181B-4EE6-A81A-F0F6C0A8845C}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{1FF382BB-1154-410C-836F-D0917AEB7A12}"/>
+    <hyperlink ref="B113" r:id="rId3" xr:uid="{B20579A3-5019-49C4-BD8C-0A63F6BAF344}"/>
+    <hyperlink ref="B112" r:id="rId4" xr:uid="{4281C61C-A2B3-412C-BFF5-64AD9CBDB4DC}"/>
+    <hyperlink ref="B105" r:id="rId5" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{C39DECAB-6EFC-4689-99B2-A095E24ABB98}"/>
+    <hyperlink ref="B107" r:id="rId6" xr:uid="{4D9C6419-07E2-442B-828A-04F06F2780C6}"/>
+    <hyperlink ref="B111" r:id="rId7" xr:uid="{AA4344D6-492B-4079-A1F0-9E04D07CA264}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/AfDD_2023_Annex_Table_Tab07.xlsx
+++ b/AfDD_2023_Annex_Table_Tab07.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C577706-8F2C-49FB-8815-DA534AD1E6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9C9F650-3BE3-4C0B-B03C-1FC6BDC24AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{E4383EED-DA91-42F9-B7DF-A713D6DC926E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{4A4756E1-BCF9-4419-8554-5555CCB7EF81}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab07" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab07'!$A$2:$M$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab07'!$A$1:$E$98</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1391,7 +1391,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B73FECF2-387E-4356-B494-DF4DC3BD1412}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC6B2FB2-52DB-42B1-B983-22B2D1EA7018}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1399,14 +1399,14 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="13" width="12.36328125" style="59" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="13" width="12.33203125" style="59" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1422,7 +1422,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="74" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" ht="72" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>14</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>5.4889091560912302</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>16</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>3.1249574008860601</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>18</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>2.26198812915157</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>20</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>12.186329867402399</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>22</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>5.68072670723949</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>24</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>19.268062107842798</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>26</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>4.6727928015223803</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>28</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>0.68646126457432</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>30</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>29.3481042635925</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>32</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>9.6885153328471691</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22" t="s">
         <v>34</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>9.2406847031150008</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>36</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>30.602207903447699</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>38</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>11.764966405779001</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>40</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>36.067462862416903</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>43</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>19.433384461426201</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>45</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>3.7312873707434999</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>47</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>15.9778172664686</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>49</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>5.9590241381259599</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>51</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>0.97540878545401</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>53</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>12.268503262374001</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="22" t="s">
         <v>34</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>15.1977847173595</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>56</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>4.0132870001927801</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>58</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>1.14014860363823</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>60</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>29.852306988237402</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>62</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>35.804042765559501</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>64</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>25.427904482258899</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>66</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>38.124142180430198</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>68</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>2.03009392535813</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>70</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>26.624441323717701</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>72</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>74</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>27.209974968352</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>76</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>43.291121097475703</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>78</v>
       </c>
@@ -2816,7 +2816,7 @@
         <v>9.8642128345049898</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>80</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>31.944095990661999</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>82</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>13.7115074290927</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="22" t="s">
         <v>34</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>22.233636891498499</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>85</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>1.87885465323462</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>87</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>6.2963431306232698</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>89</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>1.0835025082630101</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>91</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>7.0916424860888103</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>93</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>15.034064540149901</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
         <v>95</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>2.3849435492056998</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="22" t="s">
         <v>34</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>5.62822514459421</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>98</v>
       </c>
@@ -3267,7 +3267,7 @@
         <v>13.459076056404699</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>100</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>37.513092662267702</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>102</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>1.8245901000895699</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>104</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>11.3351719511029</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>106</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>10.212643618198999</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>108</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>8.3199420814863299</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>110</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>23.780251263090701</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>112</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>24.5060042418786</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>114</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>8.2882065450913203</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>116</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>25.396434494925</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>118</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>31.4297237769525</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>120</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>13.231193683115199</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>122</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>12.9032405198814</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>124</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>6.1705289073976797</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
         <v>126</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>6.0548317434692303</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="22" t="s">
         <v>34</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>15.628328776356801</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="32" t="s">
         <v>34</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>14.8380843696185</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="32" t="s">
         <v>34</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>5.7963037418207399</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="41" t="s">
         <v>34</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>5.1437163984332699</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="41" t="s">
         <v>34</v>
       </c>
@@ -4046,7 +4046,7 @@
         <v>11.5134916187216</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="41" t="s">
         <v>34</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>8.5191126808734907</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="41" t="s">
         <v>34</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>15.8563105646091</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="41" t="s">
         <v>34</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>15.351336357330799</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="41" t="s">
         <v>34</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>26.797013641874798</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="41" t="s">
         <v>34</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>15.353946630549499</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="41" t="s">
         <v>34</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>15.628328776356801</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="41" t="s">
         <v>34</v>
       </c>
@@ -4333,7 +4333,7 @@
         <v>23.287652396139901</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="41" t="s">
         <v>34</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>12.299752226284101</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="41" t="s">
         <v>34</v>
       </c>
@@ -4415,7 +4415,7 @@
         <v>5.4946015473883998</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="41" t="s">
         <v>34</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>12.6712137736552</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="41" t="s">
         <v>34</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>9.4891092149063407</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="41" t="s">
         <v>34</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>6.6477284269333099</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="41" t="s">
         <v>34</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>0.86658873036050998</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="41" t="s">
         <v>34</v>
       </c>
@@ -4620,7 +4620,7 @@
         <v>1.2125088796974901</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="41" t="s">
         <v>34</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>9.0757724756992708</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" s="41" t="s">
         <v>34</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>5.6870257654739502</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" s="41" t="s">
         <v>34</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>16.178156903088102</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="41" t="s">
         <v>34</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>5.8201068653814199</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" s="41" t="s">
         <v>34</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>23.0921346838782</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="41" t="s">
         <v>34</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>16.7639250787423</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" s="41" t="s">
         <v>34</v>
       </c>
@@ -4907,7 +4907,7 @@
         <v>9.71249992511469</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" s="41" t="s">
         <v>34</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>13.352762026913</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" s="41" t="s">
         <v>34</v>
       </c>
@@ -4989,7 +4989,7 @@
         <v>2.64746297488341</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" s="41" t="s">
         <v>34</v>
       </c>
@@ -5030,7 +5030,7 @@
         <v>6.1050950397514798</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="41" t="s">
         <v>34</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>0.86164153450915004</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" s="41" t="s">
         <v>34</v>
       </c>
@@ -5112,7 +5112,7 @@
         <v>19.839589859267001</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" s="41" t="s">
         <v>34</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>23.832828791619701</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="41" t="s">
         <v>34</v>
       </c>
@@ -5194,7 +5194,7 @@
         <v>8.9284957059786194</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="41" t="s">
         <v>34</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>7.9808046555057901</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="41" t="s">
         <v>34</v>
       </c>
@@ -5276,7 +5276,7 @@
         <v>22.6352525299001</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="41" t="s">
         <v>34</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>12.747941614858901</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" s="41" t="s">
         <v>34</v>
       </c>
@@ -5358,7 +5358,7 @@
         <v>16.4187252733138</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="41" t="s">
         <v>34</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>15.315111412763899</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" s="54"/>
       <c r="B99" s="55"/>
       <c r="C99" s="56"/>
@@ -5414,7 +5414,7 @@
       <c r="L99" s="56"/>
       <c r="M99" s="56"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>166</v>
       </c>
@@ -5430,7 +5430,7 @@
       <c r="L100" s="57"/>
       <c r="M100" s="57"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>167</v>
       </c>
@@ -5446,7 +5446,7 @@
       <c r="L101" s="57"/>
       <c r="M101" s="57"/>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>168</v>
       </c>
@@ -5462,7 +5462,7 @@
       <c r="L102" s="57"/>
       <c r="M102" s="57"/>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>169</v>
       </c>
@@ -5478,7 +5478,7 @@
       <c r="L103" s="57"/>
       <c r="M103" s="57"/>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>170</v>
       </c>
@@ -5494,7 +5494,7 @@
       <c r="L104" s="57"/>
       <c r="M104" s="57"/>
     </row>
-    <row r="105" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B105" s="58"/>
       <c r="C105" s="57"/>
       <c r="D105" s="57"/>
@@ -5508,7 +5508,7 @@
       <c r="L105" s="57"/>
       <c r="M105" s="57"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C106" s="57"/>
       <c r="D106" s="57"/>
       <c r="E106" s="57"/>
@@ -5524,7 +5524,7 @@
       <c r="O106" s="57"/>
       <c r="P106" s="57"/>
     </row>
-    <row r="107" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B107" s="58" t="s">
         <v>171</v>
       </c>
@@ -5543,7 +5543,7 @@
       <c r="O107" s="57"/>
       <c r="P107" s="57"/>
     </row>
-    <row r="108" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B108" s="58"/>
       <c r="C108" s="57"/>
       <c r="D108" s="57"/>
@@ -5560,7 +5560,7 @@
       <c r="O108" s="57"/>
       <c r="P108" s="57"/>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B109" s="2" t="s">
         <v>174</v>
       </c>
@@ -5576,7 +5576,7 @@
       <c r="L109" s="57"/>
       <c r="M109" s="57"/>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B110" s="2" t="s">
         <v>175</v>
       </c>
@@ -5592,7 +5592,7 @@
       <c r="L110" s="57"/>
       <c r="M110" s="57"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B111" s="2" t="s">
         <v>176</v>
       </c>
@@ -5608,7 +5608,7 @@
       <c r="L111" s="57"/>
       <c r="M111" s="57"/>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B112" s="2" t="s">
         <v>172</v>
       </c>
@@ -5624,7 +5624,7 @@
       <c r="L112" s="57"/>
       <c r="M112" s="57"/>
     </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B113" s="2" t="s">
         <v>173</v>
       </c>
@@ -5640,7 +5640,7 @@
       <c r="L113" s="57"/>
       <c r="M113" s="57"/>
     </row>
-    <row r="114" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B114" s="2"/>
       <c r="C114" s="57"/>
       <c r="D114" s="57"/>
@@ -5656,13 +5656,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{B3852EA2-181B-4EE6-A81A-F0F6C0A8845C}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{1FF382BB-1154-410C-836F-D0917AEB7A12}"/>
-    <hyperlink ref="B113" r:id="rId3" xr:uid="{B20579A3-5019-49C4-BD8C-0A63F6BAF344}"/>
-    <hyperlink ref="B112" r:id="rId4" xr:uid="{4281C61C-A2B3-412C-BFF5-64AD9CBDB4DC}"/>
-    <hyperlink ref="B105" r:id="rId5" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{C39DECAB-6EFC-4689-99B2-A095E24ABB98}"/>
-    <hyperlink ref="B107" r:id="rId6" xr:uid="{4D9C6419-07E2-442B-828A-04F06F2780C6}"/>
-    <hyperlink ref="B111" r:id="rId7" xr:uid="{AA4344D6-492B-4079-A1F0-9E04D07CA264}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{06E74020-D8BB-4787-9EDC-B7660135FDA3}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{89EF0E61-F239-4AD7-9258-7D3BFE8A283C}"/>
+    <hyperlink ref="B113" r:id="rId3" xr:uid="{7BE9DD8F-E561-4706-92D7-970E7E6C1C82}"/>
+    <hyperlink ref="B112" r:id="rId4" xr:uid="{A449E984-CF02-42A6-B009-82BF6449936B}"/>
+    <hyperlink ref="B105" r:id="rId5" display="If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022" xr:uid="{C5EC6019-659E-4896-8EAE-58C8B5123656}"/>
+    <hyperlink ref="B107" r:id="rId6" xr:uid="{2BBD169F-FE5F-4E70-A132-60FB52A33E9C}"/>
+    <hyperlink ref="B111" r:id="rId7" xr:uid="{6FE7B65E-8A20-453B-A766-3429F196518F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId8"/>
